--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_627.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_627.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33013-d80742-Reviews-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>194</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Red-Roof-Inn-San-Dimas-Fairplex.h436.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_627.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_627.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="907">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2631 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r583421659-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>33013</t>
+  </si>
+  <si>
+    <t>80742</t>
+  </si>
+  <si>
+    <t>583421659</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Budget Hotel, Well Located, Shows its Age, Clean.</t>
+  </si>
+  <si>
+    <t>I had some business over in Pasadena and this was the only thing available on a holiday weekend. Being a Redicard member I booked here.Rates were "reasonable" in comparison with other chains charging 1.5 to 2x as much. The motel is a garden-style motel, pool in the center of the complex with most rooms facing inward, two floors one elevator, etc.Checkin was quick, the staff were helpful. Plusses. Located near groceries, shopping and restaurants. You can walk to a number of restaurants here. So you don't have to worry about not finding any meals. Room was very clean and neat.All staff are very helpful and kind, and they are quite happy to help you out.Minuses. Well its a budget motel so it shows its age. However, though the outside looks a bit dated and shopworn, they tend their landscape very well and the lobby is nice and clean as are the rooms. Its a little hard to find it because you're almost instantly drawn to the Extended Stay motel rather than the Redroof which is farther back on Village Court drive. So what you do is you go to the left towards the Lowe's and keep going you'll see the entrance.Accessibility:Overall its located near the Interstate which can get noisy but the room windows are well insulated so the noise inside is to a minimum.For the money its a good deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>lydia m, Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
+  </si>
+  <si>
+    <t>I had some business over in Pasadena and this was the only thing available on a holiday weekend. Being a Redicard member I booked here.Rates were "reasonable" in comparison with other chains charging 1.5 to 2x as much. The motel is a garden-style motel, pool in the center of the complex with most rooms facing inward, two floors one elevator, etc.Checkin was quick, the staff were helpful. Plusses. Located near groceries, shopping and restaurants. You can walk to a number of restaurants here. So you don't have to worry about not finding any meals. Room was very clean and neat.All staff are very helpful and kind, and they are quite happy to help you out.Minuses. Well its a budget motel so it shows its age. However, though the outside looks a bit dated and shopworn, they tend their landscape very well and the lobby is nice and clean as are the rooms. Its a little hard to find it because you're almost instantly drawn to the Extended Stay motel rather than the Redroof which is farther back on Village Court drive. So what you do is you go to the left towards the Lowe's and keep going you'll see the entrance.Accessibility:Overall its located near the Interstate which can get noisy but the room windows are well insulated so the noise inside is to a minimum.For the money its a good deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r580540768-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>580540768</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Moreno family</t>
+  </si>
+  <si>
+    <t>My wife and I are truly impressed with how professional the staff is here at red roof inn San Dimas , a special thanks to front desk Rafael, maria,Nicholas, and the maid staff . Thankyou for making our stay a very pleasant one thankyouMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>lydia m, Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>My wife and I are truly impressed with how professional the staff is here at red roof inn San Dimas , a special thanks to front desk Rafael, maria,Nicholas, and the maid staff . Thankyou for making our stay a very pleasant one thankyouMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r579089505-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>579089505</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Basic and Clean</t>
+  </si>
+  <si>
+    <t>I attended a wedding in Glendora and this was the closest, least expensive, with decent to good ratings for a hotel. The hotel is located ALL the way in the back of a shopping center. The set up is really strange and it seems to have just enough parking, and if you can't find parking on property you can park in the shopping center. The reviews I read before my stay stated there were a lot of sketchy people roaming and that cars have been stolen. It had me a little worried, but I made sure not to have anything valuable in my car. There were people roaming  around the hotel all day and night, but I just assumed they were guests staying at the hotel. I saw a security guard at night doing rounds so that was reassuring. 
+ I had reserved the king bed room, and upon check out I was asked what floor I preferred and was shown on a map where all the available rooms were located. I appreciated this because I like to park my car in close proximity to my room. I picked a corner room and it was very spacious. It was very simple but clean, so it was good enough for me. The room had a bathroom with a toilet and bath/shower inside, outside the door was a sink with a lot of space to place my hygiene items. There was a closet...I attended a wedding in Glendora and this was the closest, least expensive, with decent to good ratings for a hotel. The hotel is located ALL the way in the back of a shopping center. The set up is really strange and it seems to have just enough parking, and if you can't find parking on property you can park in the shopping center. The reviews I read before my stay stated there were a lot of sketchy people roaming and that cars have been stolen. It had me a little worried, but I made sure not to have anything valuable in my car. There were people roaming  around the hotel all day and night, but I just assumed they were guests staying at the hotel. I saw a security guard at night doing rounds so that was reassuring.  I had reserved the king bed room, and upon check out I was asked what floor I preferred and was shown on a map where all the available rooms were located. I appreciated this because I like to park my car in close proximity to my room. I picked a corner room and it was very spacious. It was very simple but clean, so it was good enough for me. The room had a bathroom with a toilet and bath/shower inside, outside the door was a sink with a lot of space to place my hygiene items. There was a closet area where you could hang your clothes. There was a large mini fridge, desk space, drawers, and a TV. They have a pool but I didn't use it, but there were always people in it morning or evening. They have 3 vending machines on the property but none of them were in working condition, when I notified the front desk they offered me water bottles which worked perfectly. MoreShow less</t>
+  </si>
+  <si>
+    <t>I attended a wedding in Glendora and this was the closest, least expensive, with decent to good ratings for a hotel. The hotel is located ALL the way in the back of a shopping center. The set up is really strange and it seems to have just enough parking, and if you can't find parking on property you can park in the shopping center. The reviews I read before my stay stated there were a lot of sketchy people roaming and that cars have been stolen. It had me a little worried, but I made sure not to have anything valuable in my car. There were people roaming  around the hotel all day and night, but I just assumed they were guests staying at the hotel. I saw a security guard at night doing rounds so that was reassuring. 
+ I had reserved the king bed room, and upon check out I was asked what floor I preferred and was shown on a map where all the available rooms were located. I appreciated this because I like to park my car in close proximity to my room. I picked a corner room and it was very spacious. It was very simple but clean, so it was good enough for me. The room had a bathroom with a toilet and bath/shower inside, outside the door was a sink with a lot of space to place my hygiene items. There was a closet...I attended a wedding in Glendora and this was the closest, least expensive, with decent to good ratings for a hotel. The hotel is located ALL the way in the back of a shopping center. The set up is really strange and it seems to have just enough parking, and if you can't find parking on property you can park in the shopping center. The reviews I read before my stay stated there were a lot of sketchy people roaming and that cars have been stolen. It had me a little worried, but I made sure not to have anything valuable in my car. There were people roaming  around the hotel all day and night, but I just assumed they were guests staying at the hotel. I saw a security guard at night doing rounds so that was reassuring.  I had reserved the king bed room, and upon check out I was asked what floor I preferred and was shown on a map where all the available rooms were located. I appreciated this because I like to park my car in close proximity to my room. I picked a corner room and it was very spacious. It was very simple but clean, so it was good enough for me. The room had a bathroom with a toilet and bath/shower inside, outside the door was a sink with a lot of space to place my hygiene items. There was a closet area where you could hang your clothes. There was a large mini fridge, desk space, drawers, and a TV. They have a pool but I didn't use it, but there were always people in it morning or evening. They have 3 vending machines on the property but none of them were in working condition, when I notified the front desk they offered me water bottles which worked perfectly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r568536769-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>568536769</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>I agree the parking lot and it's inhabitants are scary</t>
+  </si>
+  <si>
+    <t>One person I spoke to in the parking lot told me he was waiting for a ride because his SUV had been stolen from the motel parking lot. This was our second motel where we encountered stories of stolen vehicles. Security problems? Red Roof Inns are starting to get a bad reputation so in the future I guess I will have to up my motel budget a little. The desk help was friendly and the ice machine worked but the room had a mildew smell. It is close to restaurants within walking distanceMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>lydia m, Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded April 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2018</t>
+  </si>
+  <si>
+    <t>One person I spoke to in the parking lot told me he was waiting for a ride because his SUV had been stolen from the motel parking lot. This was our second motel where we encountered stories of stolen vehicles. Security problems? Red Roof Inns are starting to get a bad reputation so in the future I guess I will have to up my motel budget a little. The desk help was friendly and the ice machine worked but the room had a mildew smell. It is close to restaurants within walking distanceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r566560064-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>566560064</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>The Parking Lot will Scare You</t>
+  </si>
+  <si>
+    <t>Don't panic when you drive in, the parking and the people in the parking lot will scare you and you will want to run.  If you can get past the parking lot the room was clean and served the purpose - a place to stay.  Be warned though, the people in the area are smoking (and some are smoking cannabis).  There are butts, trash and dog droppings everywhere on the grounds.  Some of the smoke smell will get into your room.  I would not stay here if I had younger children or teenagers with me.  The room was sold as an recent remodel so I have no idea what the older rooms look like.  The room itself was clean, the bathroom was clean and functional.  The knob to choose between the shower or tub did not work so to fill the tub you had to hold it in place.  The bottom line for me is that it was a place to stay while attending an event at the Fairplex.  The cost is lower than other hotels in the area.  It is your choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Don't panic when you drive in, the parking and the people in the parking lot will scare you and you will want to run.  If you can get past the parking lot the room was clean and served the purpose - a place to stay.  Be warned though, the people in the area are smoking (and some are smoking cannabis).  There are butts, trash and dog droppings everywhere on the grounds.  Some of the smoke smell will get into your room.  I would not stay here if I had younger children or teenagers with me.  The room was sold as an recent remodel so I have no idea what the older rooms look like.  The room itself was clean, the bathroom was clean and functional.  The knob to choose between the shower or tub did not work so to fill the tub you had to hold it in place.  The bottom line for me is that it was a place to stay while attending an event at the Fairplex.  The cost is lower than other hotels in the area.  It is your choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r559823408-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>559823408</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>Nice clean hotel with easy access</t>
+  </si>
+  <si>
+    <t>Easy access to/from interstate and convenient distance to Pomona Fairplex. Good neighborhood with shops and restaurants. Clean and spacious room. Good wi-fi connection. Good resupply of complimentary items.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>lydia m, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded February 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2018</t>
+  </si>
+  <si>
+    <t>Easy access to/from interstate and convenient distance to Pomona Fairplex. Good neighborhood with shops and restaurants. Clean and spacious room. Good wi-fi connection. Good resupply of complimentary items.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r553302755-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>553302755</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>Celene was great😊</t>
+  </si>
+  <si>
+    <t>My stay at the red roof inn was excellent. The customer service was amazing right when I stepped in the doors. Celene helped us the whole time she was super friendly and helpful. It was just great all around the location it’s in the nice and quiet the room we got was very nice and we had no problems at all.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>lydia m, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded January 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2018</t>
+  </si>
+  <si>
+    <t>My stay at the red roof inn was excellent. The customer service was amazing right when I stepped in the doors. Celene helped us the whole time she was super friendly and helpful. It was just great all around the location it’s in the nice and quiet the room we got was very nice and we had no problems at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r552310174-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>552310174</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Service </t>
+  </si>
+  <si>
+    <t>The quality for the cost is exceptional. Typical Red Roof, rooms are clean and spacious. Maria and Lisa are exceptional employees ensuring to go above and beyond to leave their guests satisfied and a feeling of importance. Both are always happy to assist, outgoing,  and personable. Good employee attitude is what keeps my family coming back to this location. MoreShow less</t>
+  </si>
+  <si>
+    <t>lydia m, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>The quality for the cost is exceptional. Typical Red Roof, rooms are clean and spacious. Maria and Lisa are exceptional employees ensuring to go above and beyond to leave their guests satisfied and a feeling of importance. Both are always happy to assist, outgoing,  and personable. Good employee attitude is what keeps my family coming back to this location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r551615183-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>551615183</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>Decided to stay here while attending the Rose Bowl cause price was good and only 30 minutes away from the stadium, wow did I choose wrong. 1st there's people just hanging out all outside doesn't feel safe. 2nd our room stunk like old cigarettes and mold. Went to target to get frebreeze but that didn't help. 3rd we booked our room for 2 adults and 2 kids but there was only 2 towels. Went and got more but even after the 1st day they would leave 2 towels knowing dang well there's 4 people staying. But if you are reading this if you don't mind lower end motels and unsafe feeling then this is the place for you. MoreShow less</t>
+  </si>
+  <si>
+    <t>lydia m, Owner at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded January 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2018</t>
+  </si>
+  <si>
+    <t>Decided to stay here while attending the Rose Bowl cause price was good and only 30 minutes away from the stadium, wow did I choose wrong. 1st there's people just hanging out all outside doesn't feel safe. 2nd our room stunk like old cigarettes and mold. Went to target to get frebreeze but that didn't help. 3rd we booked our room for 2 adults and 2 kids but there was only 2 towels. Went and got more but even after the 1st day they would leave 2 towels knowing dang well there's 4 people staying. But if you are reading this if you don't mind lower end motels and unsafe feeling then this is the place for you. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r547568015-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>547568015</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>Did the trick</t>
+  </si>
+  <si>
+    <t>Rated it average but only because there is not a "better than average" rating between average and very good. Worked good for us for a one nighter in San Dimas. There was three groups traveling together and it worked for us. Nice clean rooms and a nice clean front lobby. Staff was nice too. No issues. Have stayed here once before and would stay again if needing another stay in San Dimas.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>lydia m, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Rated it average but only because there is not a "better than average" rating between average and very good. Worked good for us for a one nighter in San Dimas. There was three groups traveling together and it worked for us. Nice clean rooms and a nice clean front lobby. Staff was nice too. No issues. Have stayed here once before and would stay again if needing another stay in San Dimas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r545103011-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>545103011</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Maria at the front desk is wonderful!! Ask for her!</t>
+  </si>
+  <si>
+    <t>I stay at this location quite often and Maria has made every experience easy, fast and worthwhile. The location is clean and around lots of shopping centers and freeways. The rooms are pretty large compared to the motel 6 nearby and you can earn free nights eventually with their loyalty program. MoreShow less</t>
+  </si>
+  <si>
+    <t>lydia m, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2017</t>
+  </si>
+  <si>
+    <t>I stay at this location quite often and Maria has made every experience easy, fast and worthwhile. The location is clean and around lots of shopping centers and freeways. The rooms are pretty large compared to the motel 6 nearby and you can earn free nights eventually with their loyalty program. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r545043843-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>545043843</t>
+  </si>
+  <si>
+    <t>Nice, Quiet &amp; CLEAN place to stay</t>
+  </si>
+  <si>
+    <t>This is my second time staying at this Red Roof Inn. The hotel staff are friendly and helpful. Their rooms are well maintained and very clean; everything worked as it should. On my first stay they were remodeling some of the rooms. On this stay they were completely redoing the landscape. It seems management cares about their business to continually update/upgrade their facilities. I did not get in the pool or hot tub (other hotel guest were) but both were clean and working.  I would recommend this hotel; they have set the bar for affordable, clean and a nice hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>lydia m, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>This is my second time staying at this Red Roof Inn. The hotel staff are friendly and helpful. Their rooms are well maintained and very clean; everything worked as it should. On my first stay they were remodeling some of the rooms. On this stay they were completely redoing the landscape. It seems management cares about their business to continually update/upgrade their facilities. I did not get in the pool or hot tub (other hotel guest were) but both were clean and working.  I would recommend this hotel; they have set the bar for affordable, clean and a nice hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r544520651-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>544520651</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>STAFF IS BEYOND REPROACH!!!!!!</t>
+  </si>
+  <si>
+    <t>It has been a little bit of a challenge due to a few room issues..but...the staff has  made the issues disappear and have helped a lot. MARIA helped me change rooms, was polite and professional.(I had a lot to move when I transferred rooms). Thanks MARIA you are what an employee should be like!!!!!.  One night, another front desk staff, JUAN..addressed AN issue professionally and quickly resolved a incident OUTSIDE. A BIG thanks to LYDIA, who went beyond her job description and resolve the room issue. It took 2 days, but, the understanding, cheerfulness and professionalism was great.There can be issues at any hotel, but the way the staff resolved it, awesome!!!  STAFF GETS A BIG TEN IN MY OPINION!!MoreShow less</t>
+  </si>
+  <si>
+    <t>lydia m, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded December 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2017</t>
+  </si>
+  <si>
+    <t>It has been a little bit of a challenge due to a few room issues..but...the staff has  made the issues disappear and have helped a lot. MARIA helped me change rooms, was polite and professional.(I had a lot to move when I transferred rooms). Thanks MARIA you are what an employee should be like!!!!!.  One night, another front desk staff, JUAN..addressed AN issue professionally and quickly resolved a incident OUTSIDE. A BIG thanks to LYDIA, who went beyond her job description and resolve the room issue. It took 2 days, but, the understanding, cheerfulness and professionalism was great.There can be issues at any hotel, but the way the staff resolved it, awesome!!!  STAFF GETS A BIG TEN IN MY OPINION!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r544477540-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>544477540</t>
+  </si>
+  <si>
+    <t>CONSISTENCY JUST GETS BETTER</t>
+  </si>
+  <si>
+    <t>Renovated rooms are sweeping this facility!  Makes staying here that much more attractive and worth the visit!  Staff is still the same; efficient and helpful-no turnovers means these folks love working with the owners and us GUESTS!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r544037066-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>544037066</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Juan at the front desk is the BEST</t>
+  </si>
+  <si>
+    <t>Check in was weird. I arrived a bit earlier than the check in time and was told that i couldn't check in because the room was still occupied. I kind of felt like the clerk was lying, but didn't really press the issue because i, too, work in hotels. I definitely would have appreciated it WAY MORE if she just said that it was too early and that check out time was whatever time it was.
+Initially walking into the room, it smelled like someone had smoked in it. But not something that would completely turn me away. The beds were extremely comfortable.
+However, when i went to go use the bathroom, i noticed there was tissue in the toilet.. so i flushed it. The toilet flushed extremely slowly and would later bring things back up which was gross. When i walked over to the sink to wash my hands, i stepped in a huge puddle of water. 
+I thought maybe there was a pipe that was leaking but when i checked, it seemed to me it was coming from the wall. My boyfriend and I tried to just put a towel down and ignore it, but that wasn't working. I went to the front desk to let the agent know. He was extremely apologetic. He sent maintenance over.
+When maintenance first got there, I felt as if he thought i placed the water there because he wiped it up...Check in was weird. I arrived a bit earlier than the check in time and was told that i couldn't check in because the room was still occupied. I kind of felt like the clerk was lying, but didn't really press the issue because i, too, work in hotels. I definitely would have appreciated it WAY MORE if she just said that it was too early and that check out time was whatever time it was.Initially walking into the room, it smelled like someone had smoked in it. But not something that would completely turn me away. The beds were extremely comfortable.However, when i went to go use the bathroom, i noticed there was tissue in the toilet.. so i flushed it. The toilet flushed extremely slowly and would later bring things back up which was gross. When i walked over to the sink to wash my hands, i stepped in a huge puddle of water. I thought maybe there was a pipe that was leaking but when i checked, it seemed to me it was coming from the wall. My boyfriend and I tried to just put a towel down and ignore it, but that wasn't working. I went to the front desk to let the agent know. He was extremely apologetic. He sent maintenance over.When maintenance first got there, I felt as if he thought i placed the water there because he wiped it up and told me there was no leak. I told him i know it wasn't coming from the pipes. After trying to explain (there was a slight language barrier), we both noticed that when he pressed down on the wood flooring, water came from underneath it.It was EXTREMELY gross to me. For one, no one wants to walk in to a puddle of water in their hotel room... Two, I was never 100% sure it was water.All in all, i felt my experience wasn't that great BUT Juan at the front desk was AMAZING. He offered to move my room and even offered me a discount. I was so grossed out that i wanted to leave so he granted me a refund. I don't think i'll ever stay there again, but if i do, it's definitely because of Juan's outstanding customer service. Definitely a great asset to the team.MoreShow less</t>
+  </si>
+  <si>
+    <t>lydia m, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Check in was weird. I arrived a bit earlier than the check in time and was told that i couldn't check in because the room was still occupied. I kind of felt like the clerk was lying, but didn't really press the issue because i, too, work in hotels. I definitely would have appreciated it WAY MORE if she just said that it was too early and that check out time was whatever time it was.
+Initially walking into the room, it smelled like someone had smoked in it. But not something that would completely turn me away. The beds were extremely comfortable.
+However, when i went to go use the bathroom, i noticed there was tissue in the toilet.. so i flushed it. The toilet flushed extremely slowly and would later bring things back up which was gross. When i walked over to the sink to wash my hands, i stepped in a huge puddle of water. 
+I thought maybe there was a pipe that was leaking but when i checked, it seemed to me it was coming from the wall. My boyfriend and I tried to just put a towel down and ignore it, but that wasn't working. I went to the front desk to let the agent know. He was extremely apologetic. He sent maintenance over.
+When maintenance first got there, I felt as if he thought i placed the water there because he wiped it up...Check in was weird. I arrived a bit earlier than the check in time and was told that i couldn't check in because the room was still occupied. I kind of felt like the clerk was lying, but didn't really press the issue because i, too, work in hotels. I definitely would have appreciated it WAY MORE if she just said that it was too early and that check out time was whatever time it was.Initially walking into the room, it smelled like someone had smoked in it. But not something that would completely turn me away. The beds were extremely comfortable.However, when i went to go use the bathroom, i noticed there was tissue in the toilet.. so i flushed it. The toilet flushed extremely slowly and would later bring things back up which was gross. When i walked over to the sink to wash my hands, i stepped in a huge puddle of water. I thought maybe there was a pipe that was leaking but when i checked, it seemed to me it was coming from the wall. My boyfriend and I tried to just put a towel down and ignore it, but that wasn't working. I went to the front desk to let the agent know. He was extremely apologetic. He sent maintenance over.When maintenance first got there, I felt as if he thought i placed the water there because he wiped it up and told me there was no leak. I told him i know it wasn't coming from the pipes. After trying to explain (there was a slight language barrier), we both noticed that when he pressed down on the wood flooring, water came from underneath it.It was EXTREMELY gross to me. For one, no one wants to walk in to a puddle of water in their hotel room... Two, I was never 100% sure it was water.All in all, i felt my experience wasn't that great BUT Juan at the front desk was AMAZING. He offered to move my room and even offered me a discount. I was so grossed out that i wanted to leave so he granted me a refund. I don't think i'll ever stay there again, but if i do, it's definitely because of Juan's outstanding customer service. Definitely a great asset to the team.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r535345012-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>535345012</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Clarice Matthews</t>
+  </si>
+  <si>
+    <t>We Enjoy this Hotel very much!!! This Hotel is, very clean, spacious, comfortable and close to everything!!!! Marie is one of the Front Desk Reps., that We have been Lucky enough to Connect and Bond with,  in a Way that makes Us come back to this Hotel. Her and Lydia,  are truly the reason we are here as often as Possible. Thanks for there Professionalism, yet Friendly ways to make Us feel Special!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>lydia m, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>We Enjoy this Hotel very much!!! This Hotel is, very clean, spacious, comfortable and close to everything!!!! Marie is one of the Front Desk Reps., that We have been Lucky enough to Connect and Bond with,  in a Way that makes Us come back to this Hotel. Her and Lydia,  are truly the reason we are here as often as Possible. Thanks for there Professionalism, yet Friendly ways to make Us feel Special!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r532621115-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>532621115</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Just awful</t>
+  </si>
+  <si>
+    <t>I've stayed at many hotels, and this is by far the worst ever! Absolutely Nothing was clean: the counters were stained black, bathroom floor was not mopped (gross) the microwave and fridge had grimy dirty fingerprints indicating that it had not been clean, the comforter had a piss (or bodily fluid) stain indicating that it was not clean, the room stunk like dead mouse, the bathroom looked like a gas station bathroom. Just horrible. The only plus was the bed sheets appeared clean, mattresses were comfy, and I did not get bit by any bedbugs. Never again. Just no.MoreShow less</t>
+  </si>
+  <si>
+    <t>lydia m, Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed at many hotels, and this is by far the worst ever! Absolutely Nothing was clean: the counters were stained black, bathroom floor was not mopped (gross) the microwave and fridge had grimy dirty fingerprints indicating that it had not been clean, the comforter had a piss (or bodily fluid) stain indicating that it was not clean, the room stunk like dead mouse, the bathroom looked like a gas station bathroom. Just horrible. The only plus was the bed sheets appeared clean, mattresses were comfy, and I did not get bit by any bedbugs. Never again. Just no.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r529175427-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>529175427</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Amazing Staff and Great Location</t>
+  </si>
+  <si>
+    <t>I just want to say thank you again to all the wonderful staff that always takes care of me when I'm in town on bisiness. From the 2 managers to the awesome front desk staff, and how can you forget the wonderful housekeepers and maintenance personnel. The garden area is well kept and for only staying here 3 times a year, there is always a Beautiful feel of comfort here. Thank you again to all your wonderful staff. See you all again in a few months. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>lydia m, Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>I just want to say thank you again to all the wonderful staff that always takes care of me when I'm in town on bisiness. From the 2 managers to the awesome front desk staff, and how can you forget the wonderful housekeepers and maintenance personnel. The garden area is well kept and for only staying here 3 times a year, there is always a Beautiful feel of comfort here. Thank you again to all your wonderful staff. See you all again in a few months. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r508586020-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>508586020</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Friendly &amp; helpful staff!!</t>
+  </si>
+  <si>
+    <t>I found myself in quite the predicament yesterday night when I arrived back to my room &amp; realized I did not have my key card to get back into my room. I thought I was most definitely out of luck considering that the room was not reserved under my name &amp; I.D. card... And not just that, but the person who DID book the room was not there, and my phone was dead, so I had no way of contacting them to make them aware of my situation. Fortunately for me, there was a very helpful &amp; kind employee at the front desk to assist me! ( Maria Ramirez....you are an angel!! ) She took time out of the tasks she was currently handling to help me. I explained my sotuation, and rather than shut me down &amp; tell me I was out of luck, she went out of her way to to look up my friends phone number for me that he left when he booked the room (which she was in no way obligated to do), call them &amp; contact them, confirm that I was indeed approved to be in the room he booked, &amp; quickly provided a brand new key card so that I could get inside the room and be comfortable. ( It was at least 85 degrees out and very humid....) I was very relieved to be back in my clean, comfortable room with killer...I found myself in quite the predicament yesterday night when I arrived back to my room &amp; realized I did not have my key card to get back into my room. I thought I was most definitely out of luck considering that the room was not reserved under my name &amp; I.D. card... And not just that, but the person who DID book the room was not there, and my phone was dead, so I had no way of contacting them to make them aware of my situation. Fortunately for me, there was a very helpful &amp; kind employee at the front desk to assist me! ( Maria Ramirez....you are an angel!! ) She took time out of the tasks she was currently handling to help me. I explained my sotuation, and rather than shut me down &amp; tell me I was out of luck, she went out of her way to to look up my friends phone number for me that he left when he booked the room (which she was in no way obligated to do), call them &amp; contact them, confirm that I was indeed approved to be in the room he booked, &amp; quickly provided a brand new key card so that I could get inside the room and be comfortable. ( It was at least 85 degrees out and very humid....) I was very relieved to be back in my clean, comfortable room with killer air conditioning! A few minutes later, the telephone for the room rang, &amp; when I answered it, I was pleased to find out it was Maria, calling to make sure I made it in the room ok. How sweet is that?! It is customer service like she showed that makes me want to continue doing business with this hotel &amp; booking rooms there! She also provided me with a small partial refund in the morning because I was awoke by maintenance hammering while making repairs to the hotel... (They were DIRECTLY above my room on the roof.) The partial refund was very appreciated, especially since again, there was no obligation for them to do so. FYI: Technically, hammering/working on the roof is actually a good thing, because thay means they are attending to any issues there might be or repairs/updates necessary... All in all, I have nothing negative to say about this hotel or the staff... The entire staff is friendly, and the hotel is well kept, with clean smelling, sanitary rooms that include a fridge &amp; microwave. (AND FREE WIFI!!) Also, the hotel is kind of secluded on the property... It is located in a back corner, away from the main traffic &amp; because of this, it feels more private &amp; secluded than most hotels... I definitely recommend to anybody looking for a quiet, peaceful, clean hotel to stay for whatever length of time they are looking to be away from home! And thank you again Maria Ramirez for your outstanding customer service &amp; going above &amp; beyond what is required of you to accomodate me during my stay!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>lydia m, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded September 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2017</t>
+  </si>
+  <si>
+    <t>I found myself in quite the predicament yesterday night when I arrived back to my room &amp; realized I did not have my key card to get back into my room. I thought I was most definitely out of luck considering that the room was not reserved under my name &amp; I.D. card... And not just that, but the person who DID book the room was not there, and my phone was dead, so I had no way of contacting them to make them aware of my situation. Fortunately for me, there was a very helpful &amp; kind employee at the front desk to assist me! ( Maria Ramirez....you are an angel!! ) She took time out of the tasks she was currently handling to help me. I explained my sotuation, and rather than shut me down &amp; tell me I was out of luck, she went out of her way to to look up my friends phone number for me that he left when he booked the room (which she was in no way obligated to do), call them &amp; contact them, confirm that I was indeed approved to be in the room he booked, &amp; quickly provided a brand new key card so that I could get inside the room and be comfortable. ( It was at least 85 degrees out and very humid....) I was very relieved to be back in my clean, comfortable room with killer...I found myself in quite the predicament yesterday night when I arrived back to my room &amp; realized I did not have my key card to get back into my room. I thought I was most definitely out of luck considering that the room was not reserved under my name &amp; I.D. card... And not just that, but the person who DID book the room was not there, and my phone was dead, so I had no way of contacting them to make them aware of my situation. Fortunately for me, there was a very helpful &amp; kind employee at the front desk to assist me! ( Maria Ramirez....you are an angel!! ) She took time out of the tasks she was currently handling to help me. I explained my sotuation, and rather than shut me down &amp; tell me I was out of luck, she went out of her way to to look up my friends phone number for me that he left when he booked the room (which she was in no way obligated to do), call them &amp; contact them, confirm that I was indeed approved to be in the room he booked, &amp; quickly provided a brand new key card so that I could get inside the room and be comfortable. ( It was at least 85 degrees out and very humid....) I was very relieved to be back in my clean, comfortable room with killer air conditioning! A few minutes later, the telephone for the room rang, &amp; when I answered it, I was pleased to find out it was Maria, calling to make sure I made it in the room ok. How sweet is that?! It is customer service like she showed that makes me want to continue doing business with this hotel &amp; booking rooms there! She also provided me with a small partial refund in the morning because I was awoke by maintenance hammering while making repairs to the hotel... (They were DIRECTLY above my room on the roof.) The partial refund was very appreciated, especially since again, there was no obligation for them to do so. FYI: Technically, hammering/working on the roof is actually a good thing, because thay means they are attending to any issues there might be or repairs/updates necessary... All in all, I have nothing negative to say about this hotel or the staff... The entire staff is friendly, and the hotel is well kept, with clean smelling, sanitary rooms that include a fridge &amp; microwave. (AND FREE WIFI!!) Also, the hotel is kind of secluded on the property... It is located in a back corner, away from the main traffic &amp; because of this, it feels more private &amp; secluded than most hotels... I definitely recommend to anybody looking for a quiet, peaceful, clean hotel to stay for whatever length of time they are looking to be away from home! And thank you again Maria Ramirez for your outstanding customer service &amp; going above &amp; beyond what is required of you to accomodate me during my stay!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r507500352-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>507500352</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Underarmor</t>
+  </si>
+  <si>
+    <t>So we booked this hotel due to its proximity to the several baseball venues for our tournament. It certainly fit our budget. The hotel is centrally located, right next to the hwy, plenty stores and restaurants nearby.The room adequately sized with microwave and fridge.No amenities, a pack of kleenex, micro containers of shampoo.Yucky showercurtain, barely covering the shower/bathtub.Sheets on bed cheap and thin.And in the bathroom one sink, one mirror which is 2 feet from the nearest plug.Had to bend to somehow see what I was doing with my hair whole drying ot.The garden area is nicely kept, beautiful hibiscus and rose bushesPool was nice, hottub available but turning greenish in color.Some of the clientele seemed questionable. One offered my son some pot, another was 'recycling' through several garbage cans, another offering to wash our windows, asking for money. While I am fully aware of people's hardship, I don't necessary want to be confronted on hotel grounds.I did see a security guard last night and he assured me our safety.PD was still present a few days in a row.Would I stay again? No.However, I do commend the staff, very pleasant and apologetic.Wish for their sake management would just clean up the place.It could really be a pleasant hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>lydia m, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>So we booked this hotel due to its proximity to the several baseball venues for our tournament. It certainly fit our budget. The hotel is centrally located, right next to the hwy, plenty stores and restaurants nearby.The room adequately sized with microwave and fridge.No amenities, a pack of kleenex, micro containers of shampoo.Yucky showercurtain, barely covering the shower/bathtub.Sheets on bed cheap and thin.And in the bathroom one sink, one mirror which is 2 feet from the nearest plug.Had to bend to somehow see what I was doing with my hair whole drying ot.The garden area is nicely kept, beautiful hibiscus and rose bushesPool was nice, hottub available but turning greenish in color.Some of the clientele seemed questionable. One offered my son some pot, another was 'recycling' through several garbage cans, another offering to wash our windows, asking for money. While I am fully aware of people's hardship, I don't necessary want to be confronted on hotel grounds.I did see a security guard last night and he assured me our safety.PD was still present a few days in a row.Would I stay again? No.However, I do commend the staff, very pleasant and apologetic.Wish for their sake management would just clean up the place.It could really be a pleasant hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r507428901-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>507428901</t>
+  </si>
+  <si>
+    <t>Will never stay here again!!!!</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it was close to Raging Waters. The hotel seemed like it would be nice, but it wasn't. There were lots of guys hanging out everywhere and it did not feel safe. Our room smelled like cigarettes and urine and we found nail clippings in the bathroom. The cleaning staff did not do a good job cleaning our room. We complained to the guy at the front desk and he gave us a key to check out another room. That room also smelled like cigarettes and urine. Instead of nail clippings, we found long strands of hair on the bathroom floor. We let the guy at the front desk know, but we kept the room we had with the nail clippings. If I ever visit Raging Waters again, I will NEVER stay here. NEVER!!! I don't want to feel like I have to sleep with one eye open at night or that bugs are crawling on me. Very sketchy place.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it was close to Raging Waters. The hotel seemed like it would be nice, but it wasn't. There were lots of guys hanging out everywhere and it did not feel safe. Our room smelled like cigarettes and urine and we found nail clippings in the bathroom. The cleaning staff did not do a good job cleaning our room. We complained to the guy at the front desk and he gave us a key to check out another room. That room also smelled like cigarettes and urine. Instead of nail clippings, we found long strands of hair on the bathroom floor. We let the guy at the front desk know, but we kept the room we had with the nail clippings. If I ever visit Raging Waters again, I will NEVER stay here. NEVER!!! I don't want to feel like I have to sleep with one eye open at night or that bugs are crawling on me. Very sketchy place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r500317607-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>500317607</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Trash</t>
+  </si>
+  <si>
+    <t>When we checked in there were two bags of trash on the grass in front of our room.  The front desk said housekeeping was gone but they would handle.  It was still there in the morning.  I feel they didn't really care about the situationMoreShow less</t>
+  </si>
+  <si>
+    <t>lydia m, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>When we checked in there were two bags of trash on the grass in front of our room.  The front desk said housekeeping was gone but they would handle.  It was still there in the morning.  I feel they didn't really care about the situationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r500082720-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>500082720</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>I loved everything about this hotel!</t>
+  </si>
+  <si>
+    <t>I left another hotel I'd stayed in two nights before where there was no elevator and no help for a woman alone with a joint condition lugging numerous boxes up two flights of stairs. What a difference when I came to the Red Roof Inn. I really wished I'd stayed here all three nights and definitely will make it my choice when in California again.
+I chose this hotel because my friend was supposed to be joining me, but she ended up flying in a day later. The hotels were prepaid so I did the switch anyway and was glad I did. The previous hotel had very spotty wifi, a tolerable bed and I had to lug all my boxes of book and promo items up two flights of steps (drove from Ontario to California for a book signing).
+When I came to check in, I was two hours early, but they let me check in early. I let them know my friend wasn't coming in case they needed the room with two beds for others and they gave me a great king bed room at no additional cost. I explained that my knee was hurt and why I needed a first-floor room or elevator and they gave me one just around the corner from my car. Getting all my stuff inside was so much easier. They did everything they could to accommodate me. I unloaded and was off to...I left another hotel I'd stayed in two nights before where there was no elevator and no help for a woman alone with a joint condition lugging numerous boxes up two flights of stairs. What a difference when I came to the Red Roof Inn. I really wished I'd stayed here all three nights and definitely will make it my choice when in California again.I chose this hotel because my friend was supposed to be joining me, but she ended up flying in a day later. The hotels were prepaid so I did the switch anyway and was glad I did. The previous hotel had very spotty wifi, a tolerable bed and I had to lug all my boxes of book and promo items up two flights of steps (drove from Ontario to California for a book signing).When I came to check in, I was two hours early, but they let me check in early. I let them know my friend wasn't coming in case they needed the room with two beds for others and they gave me a great king bed room at no additional cost. I explained that my knee was hurt and why I needed a first-floor room or elevator and they gave me one just around the corner from my car. Getting all my stuff inside was so much easier. They did everything they could to accommodate me. I unloaded and was off to Six Flags again.When I got back, that bed was so comfortable after the less comfy one from before. Great pillows and lots of them. Reading lights on the wall over each side of the bed. Awesome tv. Great wifi and I needed that being from Canada and having trouble with my roaming and carrier in the States.I stopped and got cream to put in the fridge so I could make coffee in the room the next morning, and it was really good coffee. There was a luggage stand again for easy access to suitcase contents. Nice bathroom and the whole room was just so clean and comfortable. Loved the tv (I'm a tv sleeper), and the A/C kept the room nice and cool.The staff were all so nice and the bed so comfortable. The hotel was quiet and I felt safe on the property. I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>I left another hotel I'd stayed in two nights before where there was no elevator and no help for a woman alone with a joint condition lugging numerous boxes up two flights of stairs. What a difference when I came to the Red Roof Inn. I really wished I'd stayed here all three nights and definitely will make it my choice when in California again.
+I chose this hotel because my friend was supposed to be joining me, but she ended up flying in a day later. The hotels were prepaid so I did the switch anyway and was glad I did. The previous hotel had very spotty wifi, a tolerable bed and I had to lug all my boxes of book and promo items up two flights of steps (drove from Ontario to California for a book signing).
+When I came to check in, I was two hours early, but they let me check in early. I let them know my friend wasn't coming in case they needed the room with two beds for others and they gave me a great king bed room at no additional cost. I explained that my knee was hurt and why I needed a first-floor room or elevator and they gave me one just around the corner from my car. Getting all my stuff inside was so much easier. They did everything they could to accommodate me. I unloaded and was off to...I left another hotel I'd stayed in two nights before where there was no elevator and no help for a woman alone with a joint condition lugging numerous boxes up two flights of stairs. What a difference when I came to the Red Roof Inn. I really wished I'd stayed here all three nights and definitely will make it my choice when in California again.I chose this hotel because my friend was supposed to be joining me, but she ended up flying in a day later. The hotels were prepaid so I did the switch anyway and was glad I did. The previous hotel had very spotty wifi, a tolerable bed and I had to lug all my boxes of book and promo items up two flights of steps (drove from Ontario to California for a book signing).When I came to check in, I was two hours early, but they let me check in early. I let them know my friend wasn't coming in case they needed the room with two beds for others and they gave me a great king bed room at no additional cost. I explained that my knee was hurt and why I needed a first-floor room or elevator and they gave me one just around the corner from my car. Getting all my stuff inside was so much easier. They did everything they could to accommodate me. I unloaded and was off to Six Flags again.When I got back, that bed was so comfortable after the less comfy one from before. Great pillows and lots of them. Reading lights on the wall over each side of the bed. Awesome tv. Great wifi and I needed that being from Canada and having trouble with my roaming and carrier in the States.I stopped and got cream to put in the fridge so I could make coffee in the room the next morning, and it was really good coffee. There was a luggage stand again for easy access to suitcase contents. Nice bathroom and the whole room was just so clean and comfortable. Loved the tv (I'm a tv sleeper), and the A/C kept the room nice and cool.The staff were all so nice and the bed so comfortable. The hotel was quiet and I felt safe on the property. I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r488326247-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>488326247</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>First trip for exchange student that we were hosting.</t>
+  </si>
+  <si>
+    <t>Decided to take a trip to the Los Angeles area to show the exchange student that we were hosting some of the great tourist sites that Los Angeles has to offer. The hotel stay was not one of memorable moments of the trip as the room looked dirty, bed was uncomfortable and there were a few other issues with the stay. The hotel advertises wi-fi and we couldn't access the internet and both my wife and I are grad students where we needed to have access to our classes to post discussions.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>lydia m, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Decided to take a trip to the Los Angeles area to show the exchange student that we were hosting some of the great tourist sites that Los Angeles has to offer. The hotel stay was not one of memorable moments of the trip as the room looked dirty, bed was uncomfortable and there were a few other issues with the stay. The hotel advertises wi-fi and we couldn't access the internet and both my wife and I are grad students where we needed to have access to our classes to post discussions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r485778983-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>485778983</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Dismal</t>
+  </si>
+  <si>
+    <t>The only reason I gave this dump one star is because they are pet friendly, which seems to be a rarity in this stretch of the 210 corridor. It was barely adequately clean and I was alarmed to discover in the AM that the fitted sheet had been put on inside out. The TV didn't work (that I could figure out) and the free wi-fi network was unsecured. BlechMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>lydia m, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>The only reason I gave this dump one star is because they are pet friendly, which seems to be a rarity in this stretch of the 210 corridor. It was barely adequately clean and I was alarmed to discover in the AM that the fitted sheet had been put on inside out. The TV didn't work (that I could figure out) and the free wi-fi network was unsecured. BlechMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r484783876-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>484783876</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>I'm now a big fan of Red Roof Inn!</t>
+  </si>
+  <si>
+    <t>I've recently had several stays at the Red Roof Inn and I am SO pleased!  I require pet friendly hotels, and I am impressed that they don't charge an extra fee for that.  The rooms were beautifully appointed and newly renovated.  The hotel staff couldn't have been more helpful.  It is a tremendous value and I will always look for a Red Roof Inn where ever I am traveling.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r482710807-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>482710807</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Convenience is a BIG plus!</t>
+  </si>
+  <si>
+    <t>This hotel is hidden away from roadside view but because of its location, one experiences a nice quiet stay.  I've stayed here a couple of times and I believe most of the rooms have been renovated a while back.  It is not a bare bones hotel but it also is not a luxury hotel.....good clean rooms and very nice staff.  Good value for the area...especially if you are looking for a place to rest up for the next day of activities.  Plenty of parking is available.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is hidden away from roadside view but because of its location, one experiences a nice quiet stay.  I've stayed here a couple of times and I believe most of the rooms have been renovated a while back.  It is not a bare bones hotel but it also is not a luxury hotel.....good clean rooms and very nice staff.  Good value for the area...especially if you are looking for a place to rest up for the next day of activities.  Plenty of parking is available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r472783718-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>472783718</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Lisa and Lydia are Awesome Management! They went above and beyond to make our stay Great! The Front desk employees are All Great. The house keeping staff is Great. We had an extended stay while waiting for our house to be ready. The hotel is In a good area. We never had any problems here. My Husband parked his work truck with his tools in it and never has any problems. I will stay at Red Roof San Dimas again</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r469677178-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>469677178</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>"JAY" was amazing</t>
+  </si>
+  <si>
+    <t>It's rare these days to find someone who will literally go the extra mile to help make sure your expectations are exceeded.  Jay did phenominal!  I had tried a few times to verify a reservation and help a guest make sure they had what they needed stored safely until their arrival. Jay was very helpful!</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r463807311-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>463807311</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Good clean Motel</t>
+  </si>
+  <si>
+    <t>We stayed here and it is an average place. Very hard to find and get to from the hiway. There is no breakfast  just coffee in the room. Price was also average. We got there at 11 but they wouldn't  let us check in till 3. That was a little tough because we just came in after a 6 hour road trip with dogs. They didn't get our room ready till the very last. Service should have been a little friendly</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r454542364-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>454542364</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Clean, very friendly staff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms are clean and large for the price. Some are better equipped than others with a mini fridge (all of them I believe) stove stop, microwave etc. better value than the holiday inn etc. the front desk is very very kind and helpful. Sign up for their rewards program and you can earn free nights unlike motel 6. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r449716082-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>449716082</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>We stopped here for a night on our way to Las Vegas after spending a day in Los Angles. The check-in was easy and quick. The room was a bit old but it had good channels and a mini kitchen with a sink, fridge and microwave.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r449449924-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>449449924</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Friendly front desk staff and wonderful rooms</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here at the Red Roof Inn, Maria Ramirez at the front desk was really helpful and friendly and our room was awesome had great on demand cable. It was really nice and peacefully. everything was remotely close food and other shopping plazas.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r441475100-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>441475100</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t>Great on site General Manager Maid Service &amp; Front Desk Staff</t>
+  </si>
+  <si>
+    <t>A FANTASTIC General Manager &amp; FRIENDLY Front Desk Staff plus 1ST CLASS Maid Service set this RR Motel apart from others in this price range .Fair Reasonable Rates &amp; Comfortable Rooms with plenty of hot water ample parking &amp; a super clean pool w/Jacuzzi  top off the lists of reasons to assure you will enjoy your stay. The worlds slowest Wi-Fi and a couple of employees not in sync with the other staff mar this review from receiving an otherwise perfect score</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r439976804-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>439976804</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>Reasonably priced, but a real grind hotel</t>
+  </si>
+  <si>
+    <t>I've been in lots of hotels over the years, but without a doubt, this is one of the worst I've experienced in the states.The carpet is extensively stained. The bedding was stained. The ceiling is water stained and needs repainting. Both the front door and the bathroom had lots of dirty hand prints. The sink did not drain.I mentioned this to management and they offered me a new room, but I did not feel comfortable with them moving all my stuff as I needed to be gone all day.But the offer to change aside, how does a national chain sell a room like this? I saw cats inside windows of rooms and the general impression driving up was that I was in for a bad experience. Sadly, that proved to be true.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've been in lots of hotels over the years, but without a doubt, this is one of the worst I've experienced in the states.The carpet is extensively stained. The bedding was stained. The ceiling is water stained and needs repainting. Both the front door and the bathroom had lots of dirty hand prints. The sink did not drain.I mentioned this to management and they offered me a new room, but I did not feel comfortable with them moving all my stuff as I needed to be gone all day.But the offer to change aside, how does a national chain sell a room like this? I saw cats inside windows of rooms and the general impression driving up was that I was in for a bad experience. Sadly, that proved to be true.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r421797713-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>421797713</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Red Roof Inn Review</t>
+  </si>
+  <si>
+    <t>Maria Ramirez was very accommodating, ensuring I had an available room during a fully booked weekend. I had a room already, and was in the process of paying for another night when she informed me that the room I was staying in had already been booked for the weekend, and could not be renewed for another night. Then she scoured the records for any room that might be available and found one for me, allowing for a smooth and seamless transition from one room to another.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r416724825-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>416724825</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Lydia the manager rude!!!</t>
+  </si>
+  <si>
+    <t>Rude service, mainly by the manager Lydia. She curses in front of customers, she makes you literally jump through hoops for any type of service you want. And the hotel is gross. The smell of cat pee XXX</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r412536978-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>412536978</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>Stayed there last night and had an awful experience. The bathrooms were dirty even had cockroaches in one. And my car got broke into and hundreds of dollars worth of stuff stolen so clearly not a safe area or protected area.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r408030687-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>408030687</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>Average Stay</t>
+  </si>
+  <si>
+    <t>It was over all ok. I stayed overnight on my way to las vegas so it wasnt bad for a overnight stay. it was budget friendly and the bed and room was clean and thefact that it had a fridge and microwave was a plus</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r388847825-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>388847825</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Can't Even Check In</t>
+  </si>
+  <si>
+    <t>So we arrive to red roof inn after  a 6 hour flight. Check in time is 3pm. It's 3:30 and they don't have any rooms ready. They offer to take my cell number so they can call me when a room is ready. Really????I demand a cancellation and refund and they give it to me without hesitation and no apologies or anything! They're joking around with each other behind the counter as if nothing bad has happened. So clearly,  they don't  care. UNBELIEVABLE!! DON'T.......GO.......THERE!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>lydia m, Front Office Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded September 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2016</t>
+  </si>
+  <si>
+    <t>So we arrive to red roof inn after  a 6 hour flight. Check in time is 3pm. It's 3:30 and they don't have any rooms ready. They offer to take my cell number so they can call me when a room is ready. Really????I demand a cancellation and refund and they give it to me without hesitation and no apologies or anything! They're joking around with each other behind the counter as if nothing bad has happened. So clearly,  they don't  care. UNBELIEVABLE!! DON'T.......GO.......THERE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r382801442-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>382801442</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Nice enough</t>
+  </si>
+  <si>
+    <t>A little hard to find, back of a large shopping complex (a PLUS) tucked back by the freeway. When we drove in, there were three patrol cars in the lot, parked as if at a call, which was a teeny bit disconcerting, LOL.  Nothing serious appeared to come of it so we were fine.... Clean property, very dated rooms, appear to be clean but certainly could use a paint job and a bit better cleaning in the tile floor corners.  Has amenities, microwave (very small and old but works), fridge worked well and both were very clean.  Pool appeared to be clean and the area was nicely kept, a great addition.  Did not get a chance to use but love that it was there and cared for.Although we did not bring pets, they are very pet friendly, and many people had them.  I saw nothing in our room indicating there had been pets, but they do use a VERY strong room freshener, which takes some time to dissipate or get used to.  No pet hair or stains, so they must work at that.   I would consider it again if I needed a fairly budget lodging, but for me, I'll try to trade up a little, just to feel a bit, well, special.  As clean and decent as this was, not quite me.... but a great place for a family on a budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>lydia m, Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded September 28, 2016</t>
+  </si>
+  <si>
+    <t>A little hard to find, back of a large shopping complex (a PLUS) tucked back by the freeway. When we drove in, there were three patrol cars in the lot, parked as if at a call, which was a teeny bit disconcerting, LOL.  Nothing serious appeared to come of it so we were fine.... Clean property, very dated rooms, appear to be clean but certainly could use a paint job and a bit better cleaning in the tile floor corners.  Has amenities, microwave (very small and old but works), fridge worked well and both were very clean.  Pool appeared to be clean and the area was nicely kept, a great addition.  Did not get a chance to use but love that it was there and cared for.Although we did not bring pets, they are very pet friendly, and many people had them.  I saw nothing in our room indicating there had been pets, but they do use a VERY strong room freshener, which takes some time to dissipate or get used to.  No pet hair or stains, so they must work at that.   I would consider it again if I needed a fairly budget lodging, but for me, I'll try to trade up a little, just to feel a bit, well, special.  As clean and decent as this was, not quite me.... but a great place for a family on a budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r375498977-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>375498977</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>I live 10 miles from the red roof and when possible I always stay here. I've never had any problems here its clean and quiet. The staff is very friendly. Maria and Leslie went not only out of their way to help me but when my day was bad I came here and they turned my day completely around. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I live 10 miles from the red roof and when possible I always stay here. I've never had any problems here its clean and quiet. The staff is very friendly. Maria and Leslie went not only out of their way to help me but when my day was bad I came here and they turned my day completely around. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r364034402-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>364034402</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hideous </t>
+  </si>
+  <si>
+    <t>First time I've ever had something stolen out of my room: my container of vitamins and supplements, which were not in the original packaging so I'm sure looked like 'drugs'. $100+ worth. Reported it to management and after two phone calls to them, the manager said, 'well, we've looked and looked but just don't see it.' OF COURSE THEY DON'T--it was stolen.It's one of the skeaviest hotels ever. One morning someone had cut off their hair complete with braids and corn rows and left it on the strip of lawn in front of the door. One guy had his "Beware of Dog" sign permanently displayed in his front window. The photo of the hair makes me want to vomit.I will never stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>First time I've ever had something stolen out of my room: my container of vitamins and supplements, which were not in the original packaging so I'm sure looked like 'drugs'. $100+ worth. Reported it to management and after two phone calls to them, the manager said, 'well, we've looked and looked but just don't see it.' OF COURSE THEY DON'T--it was stolen.It's one of the skeaviest hotels ever. One morning someone had cut off their hair complete with braids and corn rows and left it on the strip of lawn in front of the door. One guy had his "Beware of Dog" sign permanently displayed in his front window. The photo of the hair makes me want to vomit.I will never stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r352364465-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>352364465</t>
+  </si>
+  <si>
+    <t>03/02/2016</t>
+  </si>
+  <si>
+    <t>Red Roof Inn Awesome and Great place to stay!!!</t>
+  </si>
+  <si>
+    <t>We drove 12 hours from Idaho to visit family and theme parks. Thank you to Jill at the front desk she is very helpful and does a great job!! Room service is great!  My kids and I enjoyed the hot tub and pool especially after a long day at Universal Studios. If you are looking for a great place to stay Red Roof Inn is the place.  Check it out if ever in San Dimas, California.MoreShow less</t>
+  </si>
+  <si>
+    <t>We drove 12 hours from Idaho to visit family and theme parks. Thank you to Jill at the front desk she is very helpful and does a great job!! Room service is great!  My kids and I enjoyed the hot tub and pool especially after a long day at Universal Studios. If you are looking for a great place to stay Red Roof Inn is the place.  Check it out if ever in San Dimas, California.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r349305956-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>349305956</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>Fairly good</t>
+  </si>
+  <si>
+    <t>The service was very sweet, and the room was fairly clean, but there were a few problems that we made us feel a little uncomfortable. First of all there were some sketchy characters that wandered around the hotel parking lots which didn't make me feel very safe. It was kind of noisy, we could hear the people outside who were unloading their car and other various sounds while listening to the TV inside our room. And there was also the bathroom which was awkward to navigate. Other than that the price was good and the beds were comfy along with the wifi.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>The service was very sweet, and the room was fairly clean, but there were a few problems that we made us feel a little uncomfortable. First of all there were some sketchy characters that wandered around the hotel parking lots which didn't make me feel very safe. It was kind of noisy, we could hear the people outside who were unloading their car and other various sounds while listening to the TV inside our room. And there was also the bathroom which was awkward to navigate. Other than that the price was good and the beds were comfy along with the wifi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r345619127-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>345619127</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>Promises broken</t>
+  </si>
+  <si>
+    <t>Good location. Close to some shopping and restaurants. It was easy to get to. Beautiful courtyard. There were transients and homeless people walking around in the area.  Most of the staff was friendly and helpful except for one that was rude to my husband at the front desk(Lisa). The room was clean and average for the most part.  We were supposed to get a completely renovated superior room as stated on the reservation, but our room was only partially renovated and could have used a good paint job. Room smelled old when you walked in. Floors/carpet needed to be replaced/upgraded.  Nothing to brag about. We chose it because it was close to relatives we were visiting.  Doubtful that we will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Good location. Close to some shopping and restaurants. It was easy to get to. Beautiful courtyard. There were transients and homeless people walking around in the area.  Most of the staff was friendly and helpful except for one that was rude to my husband at the front desk(Lisa). The room was clean and average for the most part.  We were supposed to get a completely renovated superior room as stated on the reservation, but our room was only partially renovated and could have used a good paint job. Room smelled old when you walked in. Floors/carpet needed to be replaced/upgraded.  Nothing to brag about. We chose it because it was close to relatives we were visiting.  Doubtful that we will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r341242901-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>341242901</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>Great value!</t>
+  </si>
+  <si>
+    <t>Great place to hang your hat!  Jill is awesome and accommodating, free wi-fi, fridge, they are updated, great location, coffee-maker, and the price is great for extended stays too!  Right in the heart of San Dimas' restaurants and shopping.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place to hang your hat!  Jill is awesome and accommodating, free wi-fi, fridge, they are updated, great location, coffee-maker, and the price is great for extended stays too!  Right in the heart of San Dimas' restaurants and shopping.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r338794742-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>338794742</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>Giant rv show</t>
+  </si>
+  <si>
+    <t>Pleasant stay.friendly staff as expected.although I am writing this because of one individual whom provided outstanding customer service.So I do want it noted that the night desk person Jill went far beyond normal services usually performed by the normal desk person .very helpful and kind.this is my second two week stay in the past three months and I was impressed by her professional and kind performance.sincerely JOSEPH BernardoMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Pleasant stay.friendly staff as expected.although I am writing this because of one individual whom provided outstanding customer service.So I do want it noted that the night desk person Jill went far beyond normal services usually performed by the normal desk person .very helpful and kind.this is my second two week stay in the past three months and I was impressed by her professional and kind performance.sincerely JOSEPH BernardoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r330325305-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>330325305</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Friendly Service</t>
+  </si>
+  <si>
+    <t>This is a late review from Summer. We were traveling for Central Ca to Victorville and were too tired to make it. This is a good location if you are visiting multiple towns in the area. Close enough to attractions, yet far enough away that you don't have to pay outrageous prices for weekend rates.  Shout out to Anne. She was my angel when we were too tired to think. She made the process fast and easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>This is a late review from Summer. We were traveling for Central Ca to Victorville and were too tired to make it. This is a good location if you are visiting multiple towns in the area. Close enough to attractions, yet far enough away that you don't have to pay outrageous prices for weekend rates.  Shout out to Anne. She was my angel when we were too tired to think. She made the process fast and easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r327167491-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>327167491</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>We had our doubts after reading reviews but we were quite pleased with our stay. It was very clean and quiet and the bed was comfortable. The room was a good size with everything we needed. The young lady at registration went out of her way to find us a room on the ground floor. There was a bit of an odd smell we noticed when we first walked in - but the building is old. At least it wasn't smoke!! The shower head left a lot to be desired as well but one can live with that.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>lydia m, Front Office Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2015</t>
+  </si>
+  <si>
+    <t>We had our doubts after reading reviews but we were quite pleased with our stay. It was very clean and quiet and the bed was comfortable. The room was a good size with everything we needed. The young lady at registration went out of her way to find us a room on the ground floor. There was a bit of an odd smell we noticed when we first walked in - but the building is old. At least it wasn't smoke!! The shower head left a lot to be desired as well but one can live with that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r325906379-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>325906379</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Best place I have ever stayed at!</t>
+  </si>
+  <si>
+    <t>This is the greatest Red Roof Inn that I have ever stayed at. This place out shines the others, the staff is great. I love these rooms and the grounds outside of the rooms. When I go to other Red Roof Inns I an disappointed because they are not like this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>lydia m, Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>This is the greatest Red Roof Inn that I have ever stayed at. This place out shines the others, the staff is great. I love these rooms and the grounds outside of the rooms. When I go to other Red Roof Inns I an disappointed because they are not like this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r296921547-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>296921547</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Very Nice Property</t>
+  </si>
+  <si>
+    <t>For a inexpensive option, this property is hard to beat.  I have stayed around the corner at the Best Western a couple of times and other than the breakfast service, there is not much difference.  Clean, spacious room.  I booked the king size bed, recently renovated, room.  When I made my reservation it was an option at the same price as the non renovated room.  Includes hair dryer and iron w/board, something not found in Motel 6 properties.  Several national chain restaurants very close by.  Sizzler, Red Robin, Denny's, IHOP, as well as fast food outlets.A good choice for those on a budget but want something a little better than Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>lydia m, Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded September 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2015</t>
+  </si>
+  <si>
+    <t>For a inexpensive option, this property is hard to beat.  I have stayed around the corner at the Best Western a couple of times and other than the breakfast service, there is not much difference.  Clean, spacious room.  I booked the king size bed, recently renovated, room.  When I made my reservation it was an option at the same price as the non renovated room.  Includes hair dryer and iron w/board, something not found in Motel 6 properties.  Several national chain restaurants very close by.  Sizzler, Red Robin, Denny's, IHOP, as well as fast food outlets.A good choice for those on a budget but want something a little better than Motel 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r293513778-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>293513778</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Excellent place to stay for the value!</t>
+  </si>
+  <si>
+    <t>I have to say this is by far the best experience from any motel we have ever stayed at before. When making a reservation with "Jill" she went far and beyond to accommodate what we needed. I give her five stars for the best customer service ever! When checking in at the front desk with "Ana" she offered us complimentary bottles of water while we waited for are room to be ready because we got there a little early before check-in time. Also, I asked for more bath towels...no problem! She was very helpful too! The room was clean and re-renovated, and had a nice flat screen TV. The pool and the jacuzzi were both clean and pleasant. The property was nicely manicured. This place also accommodates pets with no weight limit, so my black lab "Buddy" was happy he got to come also. I recommend this place to my family and friends. I will be back again, Thank You!   MoreShow less</t>
+  </si>
+  <si>
+    <t>I have to say this is by far the best experience from any motel we have ever stayed at before. When making a reservation with "Jill" she went far and beyond to accommodate what we needed. I give her five stars for the best customer service ever! When checking in at the front desk with "Ana" she offered us complimentary bottles of water while we waited for are room to be ready because we got there a little early before check-in time. Also, I asked for more bath towels...no problem! She was very helpful too! The room was clean and re-renovated, and had a nice flat screen TV. The pool and the jacuzzi were both clean and pleasant. The property was nicely manicured. This place also accommodates pets with no weight limit, so my black lab "Buddy" was happy he got to come also. I recommend this place to my family and friends. I will be back again, Thank You!   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r281909761-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>281909761</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Temporary period to enjoy the environment which included the attentive staff; from Receptionist Ana; Lisa, Alex and Jill</t>
+  </si>
+  <si>
+    <t>I would also like to add Lydia, the manager and the owner for the fine hospitality they provide. I can think of no better place that is economical and provides such kind, service for your dollar. You have my recommendation to make reservations.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I would also like to add Lydia, the manager and the owner for the fine hospitality they provide. I can think of no better place that is economical and provides such kind, service for your dollar. You have my recommendation to make reservations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r273450504-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>273450504</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms remodeled </t>
+  </si>
+  <si>
+    <t>This was a good place to stay at a reasonable nightly rate. The rooms have been remodeled. Free Wifi. The bed was comfortable. Close to the freeway so you can get where you need to go. A couple of restaurants in walking distance. The staff was very nice. I'd stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2015</t>
+  </si>
+  <si>
+    <t>This was a good place to stay at a reasonable nightly rate. The rooms have been remodeled. Free Wifi. The bed was comfortable. Close to the freeway so you can get where you need to go. A couple of restaurants in walking distance. The staff was very nice. I'd stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r270420259-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>270420259</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>Excellent Staff and Value</t>
+  </si>
+  <si>
+    <t>I had a wonderful stay at this Red Roof Inn.  The room was large, clean and comfortable and the staff were all friendly and very helpful.  I especially appreciated Lisa -front desk AM-  she was so friendly and helpful and made sure the pool was open on time every morning so I could have my coffee by the pool.  I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded May 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2015</t>
+  </si>
+  <si>
+    <t>I had a wonderful stay at this Red Roof Inn.  The room was large, clean and comfortable and the staff were all friendly and very helpful.  I especially appreciated Lisa -front desk AM-  she was so friendly and helpful and made sure the pool was open on time every morning so I could have my coffee by the pool.  I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r269340918-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>269340918</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>Excellent value, Great staff, Clean rooms</t>
+  </si>
+  <si>
+    <t>We recently stayed here for a week while visiting family.  Rooms were clean and the beds comfy.  The flower lined courtyard area is nice and the pool and hot tub clean and nice.  Staff were super nice.  This is a no frills type of place but that's ok because you do have coffee, a fridge and a microwave in the room.  Would definitely stay here again because the price allowed us to spend our money on fun vacation stuff and not on hotel fees!  Also, it is super easy to hop on the highway from here and you are also right next to some good shopping spots.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>We recently stayed here for a week while visiting family.  Rooms were clean and the beds comfy.  The flower lined courtyard area is nice and the pool and hot tub clean and nice.  Staff were super nice.  This is a no frills type of place but that's ok because you do have coffee, a fridge and a microwave in the room.  Would definitely stay here again because the price allowed us to spend our money on fun vacation stuff and not on hotel fees!  Also, it is super easy to hop on the highway from here and you are also right next to some good shopping spots.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r259809982-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>259809982</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>the staff is the best</t>
+  </si>
+  <si>
+    <t>this place is so family friendly. every member of the staff was happy to get or do whatever they needed to do to make our stay the best it could be. the rooms were clean and nicely kept. pet friendly, nice pool, ground are clean and well kept. centrally located. many stores and restaurants  within walking distanceMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded March 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2015</t>
+  </si>
+  <si>
+    <t>this place is so family friendly. every member of the staff was happy to get or do whatever they needed to do to make our stay the best it could be. the rooms were clean and nicely kept. pet friendly, nice pool, ground are clean and well kept. centrally located. many stores and restaurants  within walking distanceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r259179853-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>259179853</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Fair Deal at the Fairplex (Red Roof Inn)</t>
+  </si>
+  <si>
+    <t>I want to just let everyone know that you can get a fair deal for your buck at the Fairplex Red Roof Inn. The overall stay was nice but when it comes to customer service and helpfulness there's no better than Jill Wallace she is the epitome of what a hospitality employee should be! Always pleasant and always goes that extra mile to make your stay that much more pleasant! I would recommend anyone to stay there that's looking to have a good pleasant stay away from home!MoreShow less</t>
+  </si>
+  <si>
+    <t>I want to just let everyone know that you can get a fair deal for your buck at the Fairplex Red Roof Inn. The overall stay was nice but when it comes to customer service and helpfulness there's no better than Jill Wallace she is the epitome of what a hospitality employee should be! Always pleasant and always goes that extra mile to make your stay that much more pleasant! I would recommend anyone to stay there that's looking to have a good pleasant stay away from home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r258857111-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>258857111</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Comfort and Value</t>
+  </si>
+  <si>
+    <t>I am a 10 + year visitor.  I was so impressed with my last stay. The staff go out of their way to make you comfortable. The location is so convenient. I feel safe and I know there is no better value in the area. I can't wait till my next visit!MoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded March 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2015</t>
+  </si>
+  <si>
+    <t>I am a 10 + year visitor.  I was so impressed with my last stay. The staff go out of their way to make you comfortable. The location is so convenient. I feel safe and I know there is no better value in the area. I can't wait till my next visit!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r251348924-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>251348924</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Nice Stay - But little issues...</t>
+  </si>
+  <si>
+    <t>First off. I would stay here again!  For the price it was a decent place to stay and can see they are making improvements and upgrades. A bunch of us stayed during the Grand Nationals Car Show at the Fairplex. This hotel is just down the street and it was in a great location, close to other stuff such as; the fwy, shopping, entertainment and restaurants. We were able to see an upgraded room which was pretty nice, however, it was our friend's room. We got an older room which was a little dirty since it has the popcorn ceiling and painted over wallpaper, LOL. Parking was a little tight, but it was a super busy weekend with the car show and all.  BUT... If your not real picky or a germ-aphobe, and would like to use your $ on your actual vacation and not the Pricey Hotel, this is the place. The rooms were clean (just not sterile).or sanitized like some people would expect. The pool and hot tub was nice, the beds were comfortable, shower was nice, our room had a full size fridge and microwave as well. It looked like they had some 'monthly' renters, but they were respectful. We had 'Not so Bright' towels, some cobwebs in the high corners, and a dusty popcorn cieling to deal with, but that was it. Like I said, We will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded February 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2015</t>
+  </si>
+  <si>
+    <t>First off. I would stay here again!  For the price it was a decent place to stay and can see they are making improvements and upgrades. A bunch of us stayed during the Grand Nationals Car Show at the Fairplex. This hotel is just down the street and it was in a great location, close to other stuff such as; the fwy, shopping, entertainment and restaurants. We were able to see an upgraded room which was pretty nice, however, it was our friend's room. We got an older room which was a little dirty since it has the popcorn ceiling and painted over wallpaper, LOL. Parking was a little tight, but it was a super busy weekend with the car show and all.  BUT... If your not real picky or a germ-aphobe, and would like to use your $ on your actual vacation and not the Pricey Hotel, this is the place. The rooms were clean (just not sterile).or sanitized like some people would expect. The pool and hot tub was nice, the beds were comfortable, shower was nice, our room had a full size fridge and microwave as well. It looked like they had some 'monthly' renters, but they were respectful. We had 'Not so Bright' towels, some cobwebs in the high corners, and a dusty popcorn cieling to deal with, but that was it. Like I said, We will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r246358089-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>246358089</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Love the staff</t>
+  </si>
+  <si>
+    <t>Ant problems with room or surrounding the staff tskes care if it. Thsnks red roof staff. I get a room even during yhe holidays. And if i take room nor realy wanted they give me a rate for the room that is great ad well. O thank the red roof staff for all my needs an accomidation taken care of . As thought i am VIP. Once again thank your the cllean rooms and the great service. To nsme a couple. Lydia and Lisa great personal here......MoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded January 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2015</t>
+  </si>
+  <si>
+    <t>Ant problems with room or surrounding the staff tskes care if it. Thsnks red roof staff. I get a room even during yhe holidays. And if i take room nor realy wanted they give me a rate for the room that is great ad well. O thank the red roof staff for all my needs an accomidation taken care of . As thought i am VIP. Once again thank your the cllean rooms and the great service. To nsme a couple. Lydia and Lisa great personal here......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r244624456-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>244624456</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Red Roof Inn, San Dimas</t>
+  </si>
+  <si>
+    <t>I was sent to San Dimas from Chicago for work and stayed at the Red Roof Inn in San Dimas, CA for three weeks.  I chose this hotel because it was the only hotel in the area that fit in my very low budget.  I truly thought I would pull into a dumpy hotel...I could have not been more wrong!!  This hotel has been one of the very best hotels I could have chosen....and will/would stay here again, even if my budget allows for a higher paying hotel!!  As a woman traveling alone, I could not have asked for a cleaner, safer hotel with a friendlier staff!!  Ana at the front desk was so kind, Aqualina in housekeeping was also extremely kind, and it eased my homesickness!!  The room was clean and comfortable - with a large room, desk to work at, a large dressing area, fridge and microwave...made it feel very work friendly and comfortable!!  The convenience of everything around, either walkable or within minutes of a drive...food, malls, office supplies, made my work stay here great!!  I have NOT ONE negative thing to say about this hotel!!  . Thank you for an awesome stay...not only did I truly enjoy my stay in San Dimas...I really enjoyed my stay at this hotel!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>I was sent to San Dimas from Chicago for work and stayed at the Red Roof Inn in San Dimas, CA for three weeks.  I chose this hotel because it was the only hotel in the area that fit in my very low budget.  I truly thought I would pull into a dumpy hotel...I could have not been more wrong!!  This hotel has been one of the very best hotels I could have chosen....and will/would stay here again, even if my budget allows for a higher paying hotel!!  As a woman traveling alone, I could not have asked for a cleaner, safer hotel with a friendlier staff!!  Ana at the front desk was so kind, Aqualina in housekeeping was also extremely kind, and it eased my homesickness!!  The room was clean and comfortable - with a large room, desk to work at, a large dressing area, fridge and microwave...made it feel very work friendly and comfortable!!  The convenience of everything around, either walkable or within minutes of a drive...food, malls, office supplies, made my work stay here great!!  I have NOT ONE negative thing to say about this hotel!!  . Thank you for an awesome stay...not only did I truly enjoy my stay in San Dimas...I really enjoyed my stay at this hotel!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r242309051-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>242309051</t>
+  </si>
+  <si>
+    <t>12/01/2014</t>
+  </si>
+  <si>
+    <t>Outstanding people that work there. They will help you with anything.</t>
+  </si>
+  <si>
+    <t>My room was big!   It included 2 queens sized beds.  Very comfortable.  Also, there was a full sized fridge, microwave and a one burner stove. The TV was a 37" flat screen with 5 HBO channels and all the other channels that anyone would want.  5 Thumbs up!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded December 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2014</t>
+  </si>
+  <si>
+    <t>My room was big!   It included 2 queens sized beds.  Very comfortable.  Also, there was a full sized fridge, microwave and a one burner stove. The TV was a 37" flat screen with 5 HBO channels and all the other channels that anyone would want.  5 Thumbs up!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r242086951-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>242086951</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>Great Customer Service!</t>
+  </si>
+  <si>
+    <t>I stay here frequently on business. I keep coming back due to the great customer service here.  Alex is a great help when I call to make a reservation and when I arrive.  Truly great customer service.  Highly recommend staying at the Red Roof Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2014</t>
+  </si>
+  <si>
+    <t>I stay here frequently on business. I keep coming back due to the great customer service here.  Alex is a great help when I call to make a reservation and when I arrive.  Truly great customer service.  Highly recommend staying at the Red Roof Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r242030526-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>242030526</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>HARD Day of the Dead</t>
+  </si>
+  <si>
+    <t>I came here and stayed with a friend for HARD Day of the Dead at the fair plex. The room was super nice and comfortable. The bathroom was nice and big as well. Very clean,  staff was very polite and offered us Free Coffee and tea on the second morning of the festival to help with any hang overs. Room was reasonably priced. Parking was a little difficult but with the festival to be expected.  Also near a lot of fast food places that were open late which was beneficial after the festival. Would stay here again! MoreShow less</t>
+  </si>
+  <si>
+    <t>I came here and stayed with a friend for HARD Day of the Dead at the fair plex. The room was super nice and comfortable. The bathroom was nice and big as well. Very clean,  staff was very polite and offered us Free Coffee and tea on the second morning of the festival to help with any hang overs. Room was reasonably priced. Parking was a little difficult but with the festival to be expected.  Also near a lot of fast food places that were open late which was beneficial after the festival. Would stay here again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r230609056-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>230609056</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>Best value around!</t>
+  </si>
+  <si>
+    <t>This was the second year we stayed here, this time two nights while we went to the L.A. County Fair.  The TV cable was out in our room and they could not get it fixed during our stay.  Modern technology, go figure.  They apologized and said maybe they could give us a discount, but then no, since I'd already paid for the room via Expedia so no discount.  Oh well.  Still at around $75 a night, this place is a favorite of mine.  The room was nice and big, clean, and we slept great.  I love the nice garden on the grounds and the pool and spa too.  Everyone who works there is very friendly and helpful.I definitely recommend this place when you go to San Dimas!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded September 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2014</t>
+  </si>
+  <si>
+    <t>This was the second year we stayed here, this time two nights while we went to the L.A. County Fair.  The TV cable was out in our room and they could not get it fixed during our stay.  Modern technology, go figure.  They apologized and said maybe they could give us a discount, but then no, since I'd already paid for the room via Expedia so no discount.  Oh well.  Still at around $75 a night, this place is a favorite of mine.  The room was nice and big, clean, and we slept great.  I love the nice garden on the grounds and the pool and spa too.  Everyone who works there is very friendly and helpful.I definitely recommend this place when you go to San Dimas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r230515706-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>230515706</t>
+  </si>
+  <si>
+    <t>HORRIBLE NIGHT</t>
+  </si>
+  <si>
+    <t>Arrived and went to check in and had to wait a long time while another customer was trying to change rooms because he was unhappy with his. Finally was able to check in and drive around to the side where our room was. While walking through the courtyard next to the building we could smell mold and smoke. Got in the room and it was filthy. Sticky, stained, grimy. Just yuck. Figured there was no point in trying to change rooms since the woman at the desk had just told the guy in front of us she was giving him the last room. Turned on the ac to attempt to clear the smell and cool the room. Got hit with the mold smell so strong we both almost gagged. We were originally going to pick up some dinner and bring it back to our room to eat, but there was no way we wanted to eat in that grime so we went to Del Taco and out to the longest movie we could find playing instead. Anything to avoid that room as long as possible. Came back late, slept on top of the covers as much as we could and got up early to get the hell out of there. Next time we'll pay the extra $30 for the Best Western. Never again for this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Arrived and went to check in and had to wait a long time while another customer was trying to change rooms because he was unhappy with his. Finally was able to check in and drive around to the side where our room was. While walking through the courtyard next to the building we could smell mold and smoke. Got in the room and it was filthy. Sticky, stained, grimy. Just yuck. Figured there was no point in trying to change rooms since the woman at the desk had just told the guy in front of us she was giving him the last room. Turned on the ac to attempt to clear the smell and cool the room. Got hit with the mold smell so strong we both almost gagged. We were originally going to pick up some dinner and bring it back to our room to eat, but there was no way we wanted to eat in that grime so we went to Del Taco and out to the longest movie we could find playing instead. Anything to avoid that room as long as possible. Came back late, slept on top of the covers as much as we could and got up early to get the hell out of there. Next time we'll pay the extra $30 for the Best Western. Never again for this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r228636662-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>228636662</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>I'd recommend the red roof to anybody seeking comfort on an extended stay.</t>
+  </si>
+  <si>
+    <t>I love the red roof inn. Especially their staff.Lydia Anne Jackie Ana Lisa excellent job ladies. My family and I stayed for 28 days, we love it. Clean, courteous, genuine hospitality. Coffee all day and when there was a situation, they were quick to resolve the problem. The housekeepers are friendly and courteous.  S.GastelumMoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded September 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2014</t>
+  </si>
+  <si>
+    <t>I love the red roof inn. Especially their staff.Lydia Anne Jackie Ana Lisa excellent job ladies. My family and I stayed for 28 days, we love it. Clean, courteous, genuine hospitality. Coffee all day and when there was a situation, they were quick to resolve the problem. The housekeepers are friendly and courteous.  S.GastelumMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r217361368-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>217361368</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Bedlam and bedbugs</t>
+  </si>
+  <si>
+    <t>Not a bad place if you don't mind drug dealers, prostitutes and homeless people. The linen is adequate, the staff are conciliatory, housekeeping isn't bad unless you don't mind having the squashed remains of a cockroach stuck on your wall and what I hope was red wine stains on the carpet. There are a few good permanent residents living here, avoid this grumpy old guy named "Slim" because if he doesn't like you, he will put nails under your tires. Come in the Winter because the air conditioning doesn't work and the flies from all the dog leavings will come into your room if you leave your door open long enough. The pool is nice if you don't mind staphylococcus. But, all in all, it is a lot nicer than the woods between the "hotel" and the freeway where the homeless people live.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded July 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2014</t>
+  </si>
+  <si>
+    <t>Not a bad place if you don't mind drug dealers, prostitutes and homeless people. The linen is adequate, the staff are conciliatory, housekeeping isn't bad unless you don't mind having the squashed remains of a cockroach stuck on your wall and what I hope was red wine stains on the carpet. There are a few good permanent residents living here, avoid this grumpy old guy named "Slim" because if he doesn't like you, he will put nails under your tires. Come in the Winter because the air conditioning doesn't work and the flies from all the dog leavings will come into your room if you leave your door open long enough. The pool is nice if you don't mind staphylococcus. But, all in all, it is a lot nicer than the woods between the "hotel" and the freeway where the homeless people live.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r215839007-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>215839007</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>great  fun for the hot rodders</t>
+  </si>
+  <si>
+    <t>a group of old guys stay there when the la roadster show was on for about a week , they drove from all over the usa and came from countries such as australia the motel was clean and tidy  staff pleasant was great  location  plenty of eateries and services availableMoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded July 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2014</t>
+  </si>
+  <si>
+    <t>a group of old guys stay there when the la roadster show was on for about a week , they drove from all over the usa and came from countries such as australia the motel was clean and tidy  staff pleasant was great  location  plenty of eateries and services availableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r213689955-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>213689955</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Extremly Clean rooms pool and spa amazing court yard with roses nonsmoking great price friendly staff great rewards and great availability stayed four different times. Would deffinetly recommend to family and friends located right off of the 57 and has many restaurants and stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded July 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2014</t>
+  </si>
+  <si>
+    <t>Extremly Clean rooms pool and spa amazing court yard with roses nonsmoking great price friendly staff great rewards and great availability stayed four different times. Would deffinetly recommend to family and friends located right off of the 57 and has many restaurants and stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r202642232-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>202642232</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>good stay</t>
+  </si>
+  <si>
+    <t>Great, neatly appointed rooms, nicely tucked away, near freeway, but pretty well soundproofed. Very friendly and helpful and professional staff. Anne was particularly helpful, and helped to make this a very nice stay. I will be back...MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded June 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2014</t>
+  </si>
+  <si>
+    <t>Great, neatly appointed rooms, nicely tucked away, near freeway, but pretty well soundproofed. Very friendly and helpful and professional staff. Anne was particularly helpful, and helped to make this a very nice stay. I will be back...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r198283546-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>198283546</t>
+  </si>
+  <si>
+    <t>03/22/2014</t>
+  </si>
+  <si>
+    <t>Beautiful rose garden sitting area</t>
+  </si>
+  <si>
+    <t>I love staying at this property.I'm a single women traveling alone on business a couple of times a month. I feel safe staying here as they have security and the hotel is set back off the main street.The hotel is centrally located to three counties and fwys.Also a real value for your money.Hotel mgr. Lydia is awesome she goes out of her way to welcome you.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded March 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2014</t>
+  </si>
+  <si>
+    <t>I love staying at this property.I'm a single women traveling alone on business a couple of times a month. I feel safe staying here as they have security and the hotel is set back off the main street.The hotel is centrally located to three counties and fwys.Also a real value for your money.Hotel mgr. Lydia is awesome she goes out of her way to welcome you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r193729872-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>193729872</t>
+  </si>
+  <si>
+    <t>02/10/2014</t>
+  </si>
+  <si>
+    <t>Stellar Experience</t>
+  </si>
+  <si>
+    <t>We stayed at the Red Roof Inn in San Dimas while attending the NHRA Winternationals last weekend. We've stayed there for many years and have always been treated well but our last stay was amazing. Two of our close friends decided to attend the races with us and rented the room next door to ours. They checked out on sunday morning and left for home right after the races on sunday. We stayed sunday night before heading home the next day as we had further to travel. On monday morning I received a call from our friends asking if we could check with the office, they thought they had left her purse in a drawer in their room.  I talked to Lisa at the check in desk and she informed me that Patty with housekeeping had turned the purse in. She also told me that they had tried to contact our friends without success but if I could reach them and get permission they could release the purse to us. I checked the contents in their presence at the check in desk and everything was there! Cash, debit card, ID, etc.  These Red Roof employees deserve such a pat on the back!  They are just amazing. Since we had to pass through our friends home town on our way home, we returned her purse that same day. It's so wonderfull to deal with honest, reputable people.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded February 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at the Red Roof Inn in San Dimas while attending the NHRA Winternationals last weekend. We've stayed there for many years and have always been treated well but our last stay was amazing. Two of our close friends decided to attend the races with us and rented the room next door to ours. They checked out on sunday morning and left for home right after the races on sunday. We stayed sunday night before heading home the next day as we had further to travel. On monday morning I received a call from our friends asking if we could check with the office, they thought they had left her purse in a drawer in their room.  I talked to Lisa at the check in desk and she informed me that Patty with housekeeping had turned the purse in. She also told me that they had tried to contact our friends without success but if I could reach them and get permission they could release the purse to us. I checked the contents in their presence at the check in desk and everything was there! Cash, debit card, ID, etc.  These Red Roof employees deserve such a pat on the back!  They are just amazing. Since we had to pass through our friends home town on our way home, we returned her purse that same day. It's so wonderfull to deal with honest, reputable people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r190329377-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>190329377</t>
+  </si>
+  <si>
+    <t>01/09/2014</t>
+  </si>
+  <si>
+    <t>How Bad can it get, ?</t>
+  </si>
+  <si>
+    <t>Had  to pass by againn  stopped  by to visit some old freinds   the redroof in San Dimas ,,is still dirty,,,still has  homeless people wonering around,,sneaking all over the place,,some people had their cars keyed and damnaged ,,and heard  story of  a  long time resident  who   follows female guest around  to  molest them while the motel management and staff  do nothing to stop this problem,,they also have some  very skinny  maintenance man there  who  seems  to stand around smoking cigarrets  than doing work,,just how bad can it get,,,? not muchMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded January 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2014</t>
+  </si>
+  <si>
+    <t>Had  to pass by againn  stopped  by to visit some old freinds   the redroof in San Dimas ,,is still dirty,,,still has  homeless people wonering around,,sneaking all over the place,,some people had their cars keyed and damnaged ,,and heard  story of  a  long time resident  who   follows female guest around  to  molest them while the motel management and staff  do nothing to stop this problem,,they also have some  very skinny  maintenance man there  who  seems  to stand around smoking cigarrets  than doing work,,just how bad can it get,,,? not muchMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r187587461-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>187587461</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>LAWSUIT! !</t>
+  </si>
+  <si>
+    <t>Ok , where to start.. I work for the United State Government and had to be relocated to California, I found this Red Roof location on Craigslist as they were advertising for $199.00 a week, when I got there it was $305 and some change. Not what they advertised for. Thats not the main issue with me , here is the issue ; a guy that lives there for some time now came up behind my wife and grabbed her butt and pulled her towards him and she screamed for me and I came outside and ran him off, we called the office and 30 minutes later the lady for the office came asked if we were okay then left, an hour or so later the same guy was hiding behind a car and once I walk inside he came out from behind the car and charged at her again. I again ran him off and contacted the office and that time there were neighbors outside that saw this happen and we all ran him off and found out the room number he was in. The next day we requested to talk with management and the manager (general manager) came to talk with us and states hes no harm , hes harmless and I stated no; grabbing a female the way he did is not harmless . She offered to move us to another room and the room she wanted...Ok , where to start.. I work for the United State Government and had to be relocated to California, I found this Red Roof location on Craigslist as they were advertising for $199.00 a week, when I got there it was $305 and some change. Not what they advertised for. Thats not the main issue with me , here is the issue ; a guy that lives there for some time now came up behind my wife and grabbed her butt and pulled her towards him and she screamed for me and I came outside and ran him off, we called the office and 30 minutes later the lady for the office came asked if we were okay then left, an hour or so later the same guy was hiding behind a car and once I walk inside he came out from behind the car and charged at her again. I again ran him off and contacted the office and that time there were neighbors outside that saw this happen and we all ran him off and found out the room number he was in. The next day we requested to talk with management and the manager (general manager) came to talk with us and states hes no harm , hes harmless and I stated no; grabbing a female the way he did is not harmless . She offered to move us to another room and the room she wanted to move us to was nasty, bug infested and was a downgrade from the room we were in. I asked why cant you have him leave as it states in the contract that if someone causes problems they would have to leave,  she states she cant make him leave because she would have to evict him. So we stayed in the room and at that time I missed 2 days of work due to safety concerns. The following day the same guy came back with his hands in his pants being very provocative towards my wife and at that time security was on site and saw him and advised the office to call the cops and the office didnt want to so we did. They orderd the guy to not contact us in anyways and theres still pending charges. The office faild to protect us by allowing someone like this stay there. This is not his first time doing this to people and the office knows this as 2 (nice) people that work there and a security guard advised us that management will not do a thing and this guy has set fires to cars, and chasing females around the hotel . This is not a safe place in my eyes. I will be filing a lawsuit and thought its best to tell everyone whats going on there. I also recorded some of this guys actions as he charged at a 65 year old ladtyand I had to stop him, I showed the office that video and they did nothing to protect anyone! The older lady left and found a safer place to stay. As of now my wife are on a do not rent to list because we called the cops and I recored that conversation I had with management to prove what they are doing. ALSO , they say pets stay free and thats not true! The place has bugs, has people outside drinking at night, guys chasing females around that they dont know, office staff that will not help protect there guest and the list goes on! I am reporting this red roof inn to local, state and federal agencies.  Protect yourself and family and find another hotel!! I have 10 statements from other guest at this location , recorded events of the way management lies and what they have said, recorded actions of this creepy guy and a police report.  This report will be posted to every hotel and travel sites in the United States!  We have also been pointed to many other families that has had similar situations as this and if I have to I will help file a class action lawsuit!MoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded December 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2013</t>
+  </si>
+  <si>
+    <t>Ok , where to start.. I work for the United State Government and had to be relocated to California, I found this Red Roof location on Craigslist as they were advertising for $199.00 a week, when I got there it was $305 and some change. Not what they advertised for. Thats not the main issue with me , here is the issue ; a guy that lives there for some time now came up behind my wife and grabbed her butt and pulled her towards him and she screamed for me and I came outside and ran him off, we called the office and 30 minutes later the lady for the office came asked if we were okay then left, an hour or so later the same guy was hiding behind a car and once I walk inside he came out from behind the car and charged at her again. I again ran him off and contacted the office and that time there were neighbors outside that saw this happen and we all ran him off and found out the room number he was in. The next day we requested to talk with management and the manager (general manager) came to talk with us and states hes no harm , hes harmless and I stated no; grabbing a female the way he did is not harmless . She offered to move us to another room and the room she wanted...Ok , where to start.. I work for the United State Government and had to be relocated to California, I found this Red Roof location on Craigslist as they were advertising for $199.00 a week, when I got there it was $305 and some change. Not what they advertised for. Thats not the main issue with me , here is the issue ; a guy that lives there for some time now came up behind my wife and grabbed her butt and pulled her towards him and she screamed for me and I came outside and ran him off, we called the office and 30 minutes later the lady for the office came asked if we were okay then left, an hour or so later the same guy was hiding behind a car and once I walk inside he came out from behind the car and charged at her again. I again ran him off and contacted the office and that time there were neighbors outside that saw this happen and we all ran him off and found out the room number he was in. The next day we requested to talk with management and the manager (general manager) came to talk with us and states hes no harm , hes harmless and I stated no; grabbing a female the way he did is not harmless . She offered to move us to another room and the room she wanted to move us to was nasty, bug infested and was a downgrade from the room we were in. I asked why cant you have him leave as it states in the contract that if someone causes problems they would have to leave,  she states she cant make him leave because she would have to evict him. So we stayed in the room and at that time I missed 2 days of work due to safety concerns. The following day the same guy came back with his hands in his pants being very provocative towards my wife and at that time security was on site and saw him and advised the office to call the cops and the office didnt want to so we did. They orderd the guy to not contact us in anyways and theres still pending charges. The office faild to protect us by allowing someone like this stay there. This is not his first time doing this to people and the office knows this as 2 (nice) people that work there and a security guard advised us that management will not do a thing and this guy has set fires to cars, and chasing females around the hotel . This is not a safe place in my eyes. I will be filing a lawsuit and thought its best to tell everyone whats going on there. I also recorded some of this guys actions as he charged at a 65 year old ladtyand I had to stop him, I showed the office that video and they did nothing to protect anyone! The older lady left and found a safer place to stay. As of now my wife are on a do not rent to list because we called the cops and I recored that conversation I had with management to prove what they are doing. ALSO , they say pets stay free and thats not true! The place has bugs, has people outside drinking at night, guys chasing females around that they dont know, office staff that will not help protect there guest and the list goes on! I am reporting this red roof inn to local, state and federal agencies.  Protect yourself and family and find another hotel!! I have 10 statements from other guest at this location , recorded events of the way management lies and what they have said, recorded actions of this creepy guy and a police report.  This report will be posted to every hotel and travel sites in the United States!  We have also been pointed to many other families that has had similar situations as this and if I have to I will help file a class action lawsuit!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r184703352-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>184703352</t>
+  </si>
+  <si>
+    <t>11/14/2013</t>
+  </si>
+  <si>
+    <t>We love this place, Lidia is our fave</t>
+  </si>
+  <si>
+    <t>We have been coming here every weekend, great pool, you can walk to restaurants, great peeps. Lidia is the best - she always finds us a room we love - that's really why we have been coming back. It's right by the freeway - easy access. We feel safe here and it's quiet at night.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r183456211-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>183456211</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>Motel with PPL that live there</t>
+  </si>
+  <si>
+    <t>We selected a remodeled room with a king size bed and arrived and the room was ready.  Check in was quick and easy but not much provided other than key.  We quickly found the room and brought our luggage upstairs.  The room did have newer carpet and new bedding along with new furniture.  They did a partial remodel with not updating outlets or scrapping ceiling and other minor details which would help the room so much.  The room was quiet and we did not have any issues with noise or other guests.  Our major surprise was the amount of people that actually LIVE there.  We must have been close to the laundry room because everyone was cleaning clothes.  All of the long stay guest were friendly and did not cause problems but everyone that we came in contact with LIVED THERE.  We went to turn in our room key and there was another long term guest that was discussing their plans of furniture placement within their room and other minor details regarding their long term stay.  I was just surprised as I was unaware that this was a motel that provided room rentals by the month.  Would I recommend this motel as a mother traveling with young kids no.  Would you be fine for a quick just sleeping night since it is right off the freeway, yes.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2013</t>
+  </si>
+  <si>
+    <t>We selected a remodeled room with a king size bed and arrived and the room was ready.  Check in was quick and easy but not much provided other than key.  We quickly found the room and brought our luggage upstairs.  The room did have newer carpet and new bedding along with new furniture.  They did a partial remodel with not updating outlets or scrapping ceiling and other minor details which would help the room so much.  The room was quiet and we did not have any issues with noise or other guests.  Our major surprise was the amount of people that actually LIVE there.  We must have been close to the laundry room because everyone was cleaning clothes.  All of the long stay guest were friendly and did not cause problems but everyone that we came in contact with LIVED THERE.  We went to turn in our room key and there was another long term guest that was discussing their plans of furniture placement within their room and other minor details regarding their long term stay.  I was just surprised as I was unaware that this was a motel that provided room rentals by the month.  Would I recommend this motel as a mother traveling with young kids no.  Would you be fine for a quick just sleeping night since it is right off the freeway, yes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r180485423-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>180485423</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>“Great location, great value”</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel in August 2013.Room design is minimalist , functional and slightly small.Room had a coffee machine, Bathroom was well sized and modern.Breakfast was excellent,with the dining area large and spacious.The spread and items on the menu were excellent.The service was good, Other than that the breakfast was the high light of the stay.The hotel though is well away from the city center and it really is very quite and lonely at night.This hotel is an excellent combination of facilities, value. To stay in an equivalent hotel in the LA, probably cost also good for all, Some reviewers have said there's not much good but it is good.This hotel has many positive aspects that make it one of my favorite hotels. Modern decor Very relaxing, refreshing and a great way to start or end your busy day of sightseeing in LA. Wi-Fi is free. They have onsite parking but. The breakfast is also good! pool is also good.Cons: Slow WiFi in rooms.  Overall - great value.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel in August 2013.Room design is minimalist , functional and slightly small.Room had a coffee machine, Bathroom was well sized and modern.Breakfast was excellent,with the dining area large and spacious.The spread and items on the menu were excellent.The service was good, Other than that the breakfast was the high light of the stay.The hotel though is well away from the city center and it really is very quite and lonely at night.This hotel is an excellent combination of facilities, value. To stay in an equivalent hotel in the LA, probably cost also good for all, Some reviewers have said there's not much good but it is good.This hotel has many positive aspects that make it one of my favorite hotels. Modern decor Very relaxing, refreshing and a great way to start or end your busy day of sightseeing in LA. Wi-Fi is free. They have onsite parking but. The breakfast is also good! pool is also good.Cons: Slow WiFi in rooms.  Overall - great value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r178639657-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>178639657</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>Very good place to stay untill there pet friendly policy changed.</t>
+  </si>
+  <si>
+    <t>I stayed here for a bit of time before this month. Even Even though there rooms need to be upgraded it was very pet friendly. Once there was a change in ownership and policy there pet friendliness when down the ugly toilettes that are there. I spent alot of money there but was not shown customer satisfaction in return. I even wrote to the GM with my complaints and my dissatisfaction with my last stay. I never got a response back. How sad. Ill never go back there. A lot of nicer places in San Dimas, CAMoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded September 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for a bit of time before this month. Even Even though there rooms need to be upgraded it was very pet friendly. Once there was a change in ownership and policy there pet friendliness when down the ugly toilettes that are there. I spent alot of money there but was not shown customer satisfaction in return. I even wrote to the GM with my complaints and my dissatisfaction with my last stay. I never got a response back. How sad. Ill never go back there. A lot of nicer places in San Dimas, CAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r177714178-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>177714178</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>was nice</t>
+  </si>
+  <si>
+    <t>stayed a month at this location in room 135 I think it was ...its on main floor at the end of parking lot on the corner...was nice room ..could smoke outside my room on a concrete low fence they have nice pool area ..the hot tub wasn't very hot not sure why ...staff in lobby not so friendly but the housekeeping staff are always full of smiles...would stay there again...only negative was the laundry room was on second floor far away from my room.. and the ice machines were empty quite often.. Sizzler is right near it and kfc and mcD'sMoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded September 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2013</t>
+  </si>
+  <si>
+    <t>stayed a month at this location in room 135 I think it was ...its on main floor at the end of parking lot on the corner...was nice room ..could smoke outside my room on a concrete low fence they have nice pool area ..the hot tub wasn't very hot not sure why ...staff in lobby not so friendly but the housekeeping staff are always full of smiles...would stay there again...only negative was the laundry room was on second floor far away from my room.. and the ice machines were empty quite often.. Sizzler is right near it and kfc and mcD'sMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r177403650-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>177403650</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>Weekend away</t>
+  </si>
+  <si>
+    <t>We had a quick weekend trip this past weekend and stayed at this motel.  Overall, the property is tired but okay for the price.  My pet peeve is always bed comfort, the beds were horrible, hard as a rock.  The room did have a big screen TV but the reception was snowy.  The bathroom was old and tired and well past the point of a remodel.  Overall the room was clean and probably worth the price.  The location is great, right next to sit down and fast food restaurants.  I did use the pool, it was refreshing, I was the only one there.  The landscaping is nice since the property is older, it is very full grown.  I think a bit of TLC to the property would make a huge difference and new beds are in order.  There is also no elevator for the public to use.  My old knees had to suffer the stairs all weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded September 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2013</t>
+  </si>
+  <si>
+    <t>We had a quick weekend trip this past weekend and stayed at this motel.  Overall, the property is tired but okay for the price.  My pet peeve is always bed comfort, the beds were horrible, hard as a rock.  The room did have a big screen TV but the reception was snowy.  The bathroom was old and tired and well past the point of a remodel.  Overall the room was clean and probably worth the price.  The location is great, right next to sit down and fast food restaurants.  I did use the pool, it was refreshing, I was the only one there.  The landscaping is nice since the property is older, it is very full grown.  I think a bit of TLC to the property would make a huge difference and new beds are in order.  There is also no elevator for the public to use.  My old knees had to suffer the stairs all weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r177175538-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>177175538</t>
+  </si>
+  <si>
+    <t>09/14/2013</t>
+  </si>
+  <si>
+    <t>Pleasant surprise, warm welcome &amp; great rest!</t>
+  </si>
+  <si>
+    <t>From my call to confirm my reservation, I was already impressed with this hotel. Very professional &amp; welcoming staff. I booked through a discount site, so at some hotels, I have been treated "differently". The staff was kind &amp; helpful &amp; assured me I would have a no-smoking room and added a nice up-grade for good measure. Check in was a breeze, and my room was clean, cozy bed, comfortable &amp; well-equipped. (and quiet). Great location near lots of restaurants &amp; shopping, free &amp; safe parking, too.I will definately be returning to this hotel! Many thanks! I could have stayed a week.MoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded September 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2013</t>
+  </si>
+  <si>
+    <t>From my call to confirm my reservation, I was already impressed with this hotel. Very professional &amp; welcoming staff. I booked through a discount site, so at some hotels, I have been treated "differently". The staff was kind &amp; helpful &amp; assured me I would have a no-smoking room and added a nice up-grade for good measure. Check in was a breeze, and my room was clean, cozy bed, comfortable &amp; well-equipped. (and quiet). Great location near lots of restaurants &amp; shopping, free &amp; safe parking, too.I will definately be returning to this hotel! Many thanks! I could have stayed a week.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r175029631-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>175029631</t>
+  </si>
+  <si>
+    <t>08/31/2013</t>
+  </si>
+  <si>
+    <t>thank you lydia</t>
+  </si>
+  <si>
+    <t>I would to say thank you to red roof  San dim as CA employee Lydia she is a conscientious staff member she goes above and beyond to ensure your stay is at the highest standard possible keep up the the good work Lydia    frank cMoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded September 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2013</t>
+  </si>
+  <si>
+    <t>I would to say thank you to red roof  San dim as CA employee Lydia she is a conscientious staff member she goes above and beyond to ensure your stay is at the highest standard possible keep up the the good work Lydia    frank cMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r174782972-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>174782972</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>The REAL Story About Red Roof - San Dimas!</t>
+  </si>
+  <si>
+    <t>I travel alot for business and stay in various levels of hotels/motels about 20 days a month! As a TV Reporter, I like to give an honest opinion. I have stayed at the Red Roof San Dimas many many times since 2007. I actually will go out of my way to  stay there for both business or leisure! I have always found the front desk girls to be so warm and welcoming. I have never had a bad experience and they are always cheerful and helpful. In fact Lydia is one of the few desk clerks I remember from all my travels. She is just awesome! She may not always remember my name but she knows when she see's me and my four legged travel companion - my labrador, I am the CNN reporter! I never seen any male desk clerks in person but once spoke to a man on the phone and he was very pleasant. The rooms are always clean and fresh. Always clean sheets, towels and comfortable beds. The grounds are kept clean and inviting. I never have heard any disturbances or noises of any kind! In fact I find the property, the staff and the total experience to be that of a 4-5 star property! The internet, which is very important for me, is always excellent. San Dimas is a very clean, safe area/city/location to stay in and I feel very very safe there! If you...I travel alot for business and stay in various levels of hotels/motels about 20 days a month! As a TV Reporter, I like to give an honest opinion. I have stayed at the Red Roof San Dimas many many times since 2007. I actually will go out of my way to  stay there for both business or leisure! I have always found the front desk girls to be so warm and welcoming. I have never had a bad experience and they are always cheerful and helpful. In fact Lydia is one of the few desk clerks I remember from all my travels. She is just awesome! She may not always remember my name but she knows when she see's me and my four legged travel companion - my labrador, I am the CNN reporter! I never seen any male desk clerks in person but once spoke to a man on the phone and he was very pleasant. The rooms are always clean and fresh. Always clean sheets, towels and comfortable beds. The grounds are kept clean and inviting. I never have heard any disturbances or noises of any kind! In fact I find the property, the staff and the total experience to be that of a 4-5 star property! The internet, which is very important for me, is always excellent. San Dimas is a very clean, safe area/city/location to stay in and I feel very very safe there! If you get a chance to visit old town, which is next to the INN, you will love it! Kinda of a Old West feel that is very cute and fun to see! The parking lot at Red Roof is quiet large, very easy to drive into and get back and forth between the car and the rooms. The grounds are lit well and the view from the front office enables the desk clerks to keep an eye on all that goes on! I feel very very safe parking my car or a rental car there. Most important I feel safe staying at the property itself. The parking lot, the property itself is  exteremly clean. It shows that the property manager has a professional expectation for all concern. The actual property is in a secluded corner of a small shopping area which keeps the riff raft and traffic noise away. The shopping area has a lot of food chains to walk too! On the main Boulevard-San Dimas Blvd, there are many types of restaurants and places to get either mexican, italian, chinese even Indian foods! It's a great location, very fresh and clean. I realize that they are now upgrading the rooms to their new look and I even consider the un-renovated rooms still to be in great shape! The Beds I have had where always the most comfortable and I do get a good nights sleep, which is good as I have a bad back. Each room has a microwave and fridge which is standard and they always work well. The television is large, great reception and had many many cable channels to select with wonderful reception. The vanity area is always immaculate and lots of counter space. The bathroom is always fresh and clean, never had a problem with the freshness of the towels, the room, the sheets etc. As far as noise, I never have heard any and never have seen any strange people staying or loitering there. In fact many guests over the years I have spoken to were very nice people just traveling the state. I feel any negative remarks made about the Inn, had to be from either people who are just hard to please types. You know the type, on a beer budget with champagne taste! If you need a good, clean, safe place to stay, where the only surprise will be how satisfied your stay has been,then pick this RedRoof. I think its an excellent, beautiful Inn and look forward to many more visits there!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel alot for business and stay in various levels of hotels/motels about 20 days a month! As a TV Reporter, I like to give an honest opinion. I have stayed at the Red Roof San Dimas many many times since 2007. I actually will go out of my way to  stay there for both business or leisure! I have always found the front desk girls to be so warm and welcoming. I have never had a bad experience and they are always cheerful and helpful. In fact Lydia is one of the few desk clerks I remember from all my travels. She is just awesome! She may not always remember my name but she knows when she see's me and my four legged travel companion - my labrador, I am the CNN reporter! I never seen any male desk clerks in person but once spoke to a man on the phone and he was very pleasant. The rooms are always clean and fresh. Always clean sheets, towels and comfortable beds. The grounds are kept clean and inviting. I never have heard any disturbances or noises of any kind! In fact I find the property, the staff and the total experience to be that of a 4-5 star property! The internet, which is very important for me, is always excellent. San Dimas is a very clean, safe area/city/location to stay in and I feel very very safe there! If you...I travel alot for business and stay in various levels of hotels/motels about 20 days a month! As a TV Reporter, I like to give an honest opinion. I have stayed at the Red Roof San Dimas many many times since 2007. I actually will go out of my way to  stay there for both business or leisure! I have always found the front desk girls to be so warm and welcoming. I have never had a bad experience and they are always cheerful and helpful. In fact Lydia is one of the few desk clerks I remember from all my travels. She is just awesome! She may not always remember my name but she knows when she see's me and my four legged travel companion - my labrador, I am the CNN reporter! I never seen any male desk clerks in person but once spoke to a man on the phone and he was very pleasant. The rooms are always clean and fresh. Always clean sheets, towels and comfortable beds. The grounds are kept clean and inviting. I never have heard any disturbances or noises of any kind! In fact I find the property, the staff and the total experience to be that of a 4-5 star property! The internet, which is very important for me, is always excellent. San Dimas is a very clean, safe area/city/location to stay in and I feel very very safe there! If you get a chance to visit old town, which is next to the INN, you will love it! Kinda of a Old West feel that is very cute and fun to see! The parking lot at Red Roof is quiet large, very easy to drive into and get back and forth between the car and the rooms. The grounds are lit well and the view from the front office enables the desk clerks to keep an eye on all that goes on! I feel very very safe parking my car or a rental car there. Most important I feel safe staying at the property itself. The parking lot, the property itself is  exteremly clean. It shows that the property manager has a professional expectation for all concern. The actual property is in a secluded corner of a small shopping area which keeps the riff raft and traffic noise away. The shopping area has a lot of food chains to walk too! On the main Boulevard-San Dimas Blvd, there are many types of restaurants and places to get either mexican, italian, chinese even Indian foods! It's a great location, very fresh and clean. I realize that they are now upgrading the rooms to their new look and I even consider the un-renovated rooms still to be in great shape! The Beds I have had where always the most comfortable and I do get a good nights sleep, which is good as I have a bad back. Each room has a microwave and fridge which is standard and they always work well. The television is large, great reception and had many many cable channels to select with wonderful reception. The vanity area is always immaculate and lots of counter space. The bathroom is always fresh and clean, never had a problem with the freshness of the towels, the room, the sheets etc. As far as noise, I never have heard any and never have seen any strange people staying or loitering there. In fact many guests over the years I have spoken to were very nice people just traveling the state. I feel any negative remarks made about the Inn, had to be from either people who are just hard to please types. You know the type, on a beer budget with champagne taste! If you need a good, clean, safe place to stay, where the only surprise will be how satisfied your stay has been,then pick this RedRoof. I think its an excellent, beautiful Inn and look forward to many more visits there!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r174559352-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>174559352</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>This is a great deal</t>
+  </si>
+  <si>
+    <t>I think this is one of the best deals in San Dimas.  The room was clean, updated, comfortable.  It is superior to many of the places we have stayed in San Dimas.  The staff is friendly and the outside property well maintained.  No trash, cigarette butts, etc littering the grounds.  They allowed my pup to stay at no cost.  We had soap, shampoo, clean towels, coffee, Kleenex, etc AND they even had a bottle opener when I asked.  I guess we got the primo room because it certainly was not like anything that I read in some of the reviews. PLUS they even have a great poolMoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded August 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2013</t>
+  </si>
+  <si>
+    <t>I think this is one of the best deals in San Dimas.  The room was clean, updated, comfortable.  It is superior to many of the places we have stayed in San Dimas.  The staff is friendly and the outside property well maintained.  No trash, cigarette butts, etc littering the grounds.  They allowed my pup to stay at no cost.  We had soap, shampoo, clean towels, coffee, Kleenex, etc AND they even had a bottle opener when I asked.  I guess we got the primo room because it certainly was not like anything that I read in some of the reviews. PLUS they even have a great poolMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r170910919-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>170910919</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>bad inn</t>
+  </si>
+  <si>
+    <t>The room is not comfort.old inn not finish remodel.tv is super old not like the wedsite said LCd tv,bathroom is dirty,old ,shower is dirty,smell bad.The room is carpet is dirty,smell bad,have fly fly around .i booked is queen sz bed and the bed look like full sz.The front desk talk too fast and not so nice.The pool look nice.easy find parking ,close to fast food ,easy go to highway.But i will never go back to this inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded August 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2013</t>
+  </si>
+  <si>
+    <t>The room is not comfort.old inn not finish remodel.tv is super old not like the wedsite said LCd tv,bathroom is dirty,old ,shower is dirty,smell bad.The room is carpet is dirty,smell bad,have fly fly around .i booked is queen sz bed and the bed look like full sz.The front desk talk too fast and not so nice.The pool look nice.easy find parking ,close to fast food ,easy go to highway.But i will never go back to this inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r165040847-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>165040847</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>Fairgrounds accessable</t>
+  </si>
+  <si>
+    <t>Spent 4 days here with group driving to LA Roadster Show at Fairplex.  Could drive to Fairplex without getting on a freeway, street it is located on goes directly to Fairplex.  Big Plus! Grounds of Hotel were pretty, pool active, and good service.  Did notice a larger than normal amount of guests that were long term and appeared to making the Hotel their temp home.  Rates were good for the area. Eating business was great within the area and ranged from fast food on up, again big plus!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded June 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2013</t>
+  </si>
+  <si>
+    <t>Spent 4 days here with group driving to LA Roadster Show at Fairplex.  Could drive to Fairplex without getting on a freeway, street it is located on goes directly to Fairplex.  Big Plus! Grounds of Hotel were pretty, pool active, and good service.  Did notice a larger than normal amount of guests that were long term and appeared to making the Hotel their temp home.  Rates were good for the area. Eating business was great within the area and ranged from fast food on up, again big plus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r160599252-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>160599252</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Clean, quiet, and great price</t>
+  </si>
+  <si>
+    <t>When traveling last weekend I needed a fairly cheap place to stay outside of LA. Booked a room at the Red Roof at a great price. Had a late check in and the front desk got me set up quickly with no problems. Room was clean and quiet, and the location is very accessible being right off the interstate. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded May 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2013</t>
+  </si>
+  <si>
+    <t>When traveling last weekend I needed a fairly cheap place to stay outside of LA. Booked a room at the Red Roof at a great price. Had a late check in and the front desk got me set up quickly with no problems. Room was clean and quiet, and the location is very accessible being right off the interstate. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r153962941-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>153962941</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>excellent stay</t>
+  </si>
+  <si>
+    <t>I stayed here at this hotel last week and it was great. The staff was very nice and accomidating to my needs. They were quick to help me and offer additional things. The grounds were very clean and quiet. I will definetly be returning to this hotel. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded March 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here at this hotel last week and it was great. The staff was very nice and accomidating to my needs. They were quick to help me and offer additional things. The grounds were very clean and quiet. I will definetly be returning to this hotel. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r153430442-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>153430442</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>Great for Pets</t>
+  </si>
+  <si>
+    <t>I want everyone to know that my son, two siberian huskies, and i needed a hotel to stay at for about 3 month. Luckily we found the Red Roof inn San Dimas. There was 3 girls that are working there that made our stay and just the stress of finding a place to except our 2 Huskies. I thank Kesey she is super cute and always has a smile that would brighten anyones day, Lydia very help full with making are stay very pleasant, and  Lisa doing her best to keeping things and smooth as possible. I also want to thank Jackie the GM she was super. At the time of me writing this review has spent days at about 8 other hotels and this is the one we love and will spend a month more till our new place in LA is ready. Also a lot of green space and walking trails right behind the building. Very peace full and pool and spa work great.MoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded March 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2013</t>
+  </si>
+  <si>
+    <t>I want everyone to know that my son, two siberian huskies, and i needed a hotel to stay at for about 3 month. Luckily we found the Red Roof inn San Dimas. There was 3 girls that are working there that made our stay and just the stress of finding a place to except our 2 Huskies. I thank Kesey she is super cute and always has a smile that would brighten anyones day, Lydia very help full with making are stay very pleasant, and  Lisa doing her best to keeping things and smooth as possible. I also want to thank Jackie the GM she was super. At the time of me writing this review has spent days at about 8 other hotels and this is the one we love and will spend a month more till our new place in LA is ready. Also a lot of green space and walking trails right behind the building. Very peace full and pool and spa work great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r152737153-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>152737153</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>Disgusted</t>
+  </si>
+  <si>
+    <t>It started off bad when we checked in around 6pm, we had requested a first floor room months ago as I can't do stairs.  The lady at the counter wasn't even apologetic and as we were talking, someone checked in next to us and got a ground floor room!  There is an elevator but you have to call ahead so someone with a key can meet you there to use it (completely useless). After getting up the stairs to our second story room we found the beds had not been made (no sheets) and bathtub was disgusting.  Back downstairs to talk to the lady who doesn't care.  She tells us we have to wait while they finish the room (hello? It's 6pm).  While waiting, we discovered one of the reasons the elevator is locked - there was a prostitute trolling the parking lot and hotel.  She made "rounds" every few hours the whole weekend we were there.   Back up the stairs to see our room...  Ewww!  Totally disgusting!  The carpet was black, the bathtub and bathroom were gross!  We only stayed at this hotel because it was the "host" hotel for an event - otherwise we would not have stayed a single day.  We kept all our belongings off the floor and bedspread!  Had to put a bag over the remote control to use it and didn't touch much of anything else.  Didn't even want to get near one of...It started off bad when we checked in around 6pm, we had requested a first floor room months ago as I can't do stairs.  The lady at the counter wasn't even apologetic and as we were talking, someone checked in next to us and got a ground floor room!  There is an elevator but you have to call ahead so someone with a key can meet you there to use it (completely useless). After getting up the stairs to our second story room we found the beds had not been made (no sheets) and bathtub was disgusting.  Back downstairs to talk to the lady who doesn't care.  She tells us we have to wait while they finish the room (hello? It's 6pm).  While waiting, we discovered one of the reasons the elevator is locked - there was a prostitute trolling the parking lot and hotel.  She made "rounds" every few hours the whole weekend we were there.   Back up the stairs to see our room...  Ewww!  Totally disgusting!  The carpet was black, the bathtub and bathroom were gross!  We only stayed at this hotel because it was the "host" hotel for an event - otherwise we would not have stayed a single day.  We kept all our belongings off the floor and bedspread!  Had to put a bag over the remote control to use it and didn't touch much of anything else.  Didn't even want to get near one of the pillows.  Gross! Gross! Gross!  The only pleasant thing I can say is that the water pressure was good.  I never did get to use that elevator.  This place is awful and you can tell they don't care.   I wouldn't let my dog stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded February 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2013</t>
+  </si>
+  <si>
+    <t>It started off bad when we checked in around 6pm, we had requested a first floor room months ago as I can't do stairs.  The lady at the counter wasn't even apologetic and as we were talking, someone checked in next to us and got a ground floor room!  There is an elevator but you have to call ahead so someone with a key can meet you there to use it (completely useless). After getting up the stairs to our second story room we found the beds had not been made (no sheets) and bathtub was disgusting.  Back downstairs to talk to the lady who doesn't care.  She tells us we have to wait while they finish the room (hello? It's 6pm).  While waiting, we discovered one of the reasons the elevator is locked - there was a prostitute trolling the parking lot and hotel.  She made "rounds" every few hours the whole weekend we were there.   Back up the stairs to see our room...  Ewww!  Totally disgusting!  The carpet was black, the bathtub and bathroom were gross!  We only stayed at this hotel because it was the "host" hotel for an event - otherwise we would not have stayed a single day.  We kept all our belongings off the floor and bedspread!  Had to put a bag over the remote control to use it and didn't touch much of anything else.  Didn't even want to get near one of...It started off bad when we checked in around 6pm, we had requested a first floor room months ago as I can't do stairs.  The lady at the counter wasn't even apologetic and as we were talking, someone checked in next to us and got a ground floor room!  There is an elevator but you have to call ahead so someone with a key can meet you there to use it (completely useless). After getting up the stairs to our second story room we found the beds had not been made (no sheets) and bathtub was disgusting.  Back downstairs to talk to the lady who doesn't care.  She tells us we have to wait while they finish the room (hello? It's 6pm).  While waiting, we discovered one of the reasons the elevator is locked - there was a prostitute trolling the parking lot and hotel.  She made "rounds" every few hours the whole weekend we were there.   Back up the stairs to see our room...  Ewww!  Totally disgusting!  The carpet was black, the bathtub and bathroom were gross!  We only stayed at this hotel because it was the "host" hotel for an event - otherwise we would not have stayed a single day.  We kept all our belongings off the floor and bedspread!  Had to put a bag over the remote control to use it and didn't touch much of anything else.  Didn't even want to get near one of the pillows.  Gross! Gross! Gross!  The only pleasant thing I can say is that the water pressure was good.  I never did get to use that elevator.  This place is awful and you can tell they don't care.   I wouldn't let my dog stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r150903361-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>150903361</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Steve H. Great Stay!</t>
+  </si>
+  <si>
+    <t>Kelsey,Is the greatest host! She took care of all my needs in a prompt manner.Always patient and willing to give a hand.She always has a smile,is very courteous,and very accommodating.She is definitely management material!  Lisa was also very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded February 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2013</t>
+  </si>
+  <si>
+    <t>Kelsey,Is the greatest host! She took care of all my needs in a prompt manner.Always patient and willing to give a hand.She always has a smile,is very courteous,and very accommodating.She is definitely management material!  Lisa was also very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r148092289-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>148092289</t>
+  </si>
+  <si>
+    <t>12/26/2012</t>
+  </si>
+  <si>
+    <t>Kelsey, I have to say is one of the most sweetest, genuine people we encountered here. So helpful and wanted to ensure our room and stay was pleasant. It was for sure. Visiting California can be quite challenging.  Our first hotel in Pasadena suddenly was not available any more and we were on a hunt to find one that wasn't too far from our destination as well as clean, quiet, and friendly, we chose this one because of the great customer service. We were here for three nights, always clean, the grounds were nice, room was quiet and couldn't hear the freeway traffic either. Really liked Kelsey at the front desk, it's obvious she wants her customers to be treated well, this young lady deserves 5 stars!!MoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded December 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2012</t>
+  </si>
+  <si>
+    <t>Kelsey, I have to say is one of the most sweetest, genuine people we encountered here. So helpful and wanted to ensure our room and stay was pleasant. It was for sure. Visiting California can be quite challenging.  Our first hotel in Pasadena suddenly was not available any more and we were on a hunt to find one that wasn't too far from our destination as well as clean, quiet, and friendly, we chose this one because of the great customer service. We were here for three nights, always clean, the grounds were nice, room was quiet and couldn't hear the freeway traffic either. Really liked Kelsey at the front desk, it's obvious she wants her customers to be treated well, this young lady deserves 5 stars!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r146369116-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>146369116</t>
+  </si>
+  <si>
+    <t>11/28/2012</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>We suffered a major plumbing catastrophe and decided to stay the night at a local motel. We checked rates nearby and decided to give this place a try. Nice staff, nice grounds, clean room. Negatives: minimal TV channels and a lot of snow on some stations, missing the pot for our in-room coffeepot, burnt-out lightbulbs.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r144320244-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>144320244</t>
+  </si>
+  <si>
+    <t>11/02/2012</t>
+  </si>
+  <si>
+    <t>best place ever</t>
+  </si>
+  <si>
+    <t>I love this hotel! JACKIE the new manager is amazing. I love all the front desk girls, Lydia, Lisa, Kelsey, Kelly, and Ana. The rooms closest to the lobby are my favorite. The housekeepers do a wonderful job at cleaning and stocking the rooms! I want to thank everyone there for taking such good care of me!MoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded November 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2012</t>
+  </si>
+  <si>
+    <t>I love this hotel! JACKIE the new manager is amazing. I love all the front desk girls, Lydia, Lisa, Kelsey, Kelly, and Ana. The rooms closest to the lobby are my favorite. The housekeepers do a wonderful job at cleaning and stocking the rooms! I want to thank everyone there for taking such good care of me!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r133220958-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>133220958</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>Disgustingly dirty, to say the least</t>
+  </si>
+  <si>
+    <t>The rooms were dirty and stunk so bad! The security guard, sitting in the courtyard, said we would have been better off staying at the Motel 6 down the street!!!!! Will NEVER stay there again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2012</t>
+  </si>
+  <si>
+    <t>The rooms were dirty and stunk so bad! The security guard, sitting in the courtyard, said we would have been better off staying at the Motel 6 down the street!!!!! Will NEVER stay there again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r132176614-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>132176614</t>
+  </si>
+  <si>
+    <t>06/17/2012</t>
+  </si>
+  <si>
+    <t>Our nightmare at Red Roof Inn</t>
+  </si>
+  <si>
+    <t>Our May 2012 stay at the Red Roof Inn San Dimas Ca was the worst stay that I have ever experienced in a hotel or motel. The first room that we where checked into had very very dirty carpet with stains of who knows what. The bathroom sink had 4 or 5 dead bugs and the handle connected to the shower wall had black meldew around both sides of the base. The edge of bathroom floor tiles looks like it has not been cleaned for quite sometime. The edges of the carpet was very dirty. And also when my wife turned on the air conditioner a large cloud of dust blown into my wife's eyes,nose and all over her face. We asked for a different room which was given to us by the manager, on this second room that we were in, the overhead light on the headboards were thick with dust and the light switches to turn them on had some type of a dry and crusty who knows what on them. The entry door to the bathroom had very dirty finger prints on both sides of the door which accommodated the rest of the dirt on both sides of the door, also the inside of the front door was very dirty and the bathroom tiles in this second room were no cleaner than the first room we where checked into. Also the air conditioner in the second room...Our May 2012 stay at the Red Roof Inn San Dimas Ca was the worst stay that I have ever experienced in a hotel or motel. The first room that we where checked into had very very dirty carpet with stains of who knows what. The bathroom sink had 4 or 5 dead bugs and the handle connected to the shower wall had black meldew around both sides of the base. The edge of bathroom floor tiles looks like it has not been cleaned for quite sometime. The edges of the carpet was very dirty. And also when my wife turned on the air conditioner a large cloud of dust blown into my wife's eyes,nose and all over her face. We asked for a different room which was given to us by the manager, on this second room that we were in, the overhead light on the headboards were thick with dust and the light switches to turn them on had some type of a dry and crusty who knows what on them. The entry door to the bathroom had very dirty finger prints on both sides of the door which accommodated the rest of the dirt on both sides of the door, also the inside of the front door was very dirty and the bathroom tiles in this second room were no cleaner than the first room we where checked into. Also the air conditioner in the second room was not working properly which took a long time to cool down the room. If you like antique furniture and dirty rooms for $82.74 a night wish you luck.....P.S. take your own cleaning supplies and disinfect the room and bathroom before you use it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>Our May 2012 stay at the Red Roof Inn San Dimas Ca was the worst stay that I have ever experienced in a hotel or motel. The first room that we where checked into had very very dirty carpet with stains of who knows what. The bathroom sink had 4 or 5 dead bugs and the handle connected to the shower wall had black meldew around both sides of the base. The edge of bathroom floor tiles looks like it has not been cleaned for quite sometime. The edges of the carpet was very dirty. And also when my wife turned on the air conditioner a large cloud of dust blown into my wife's eyes,nose and all over her face. We asked for a different room which was given to us by the manager, on this second room that we were in, the overhead light on the headboards were thick with dust and the light switches to turn them on had some type of a dry and crusty who knows what on them. The entry door to the bathroom had very dirty finger prints on both sides of the door which accommodated the rest of the dirt on both sides of the door, also the inside of the front door was very dirty and the bathroom tiles in this second room were no cleaner than the first room we where checked into. Also the air conditioner in the second room...Our May 2012 stay at the Red Roof Inn San Dimas Ca was the worst stay that I have ever experienced in a hotel or motel. The first room that we where checked into had very very dirty carpet with stains of who knows what. The bathroom sink had 4 or 5 dead bugs and the handle connected to the shower wall had black meldew around both sides of the base. The edge of bathroom floor tiles looks like it has not been cleaned for quite sometime. The edges of the carpet was very dirty. And also when my wife turned on the air conditioner a large cloud of dust blown into my wife's eyes,nose and all over her face. We asked for a different room which was given to us by the manager, on this second room that we were in, the overhead light on the headboards were thick with dust and the light switches to turn them on had some type of a dry and crusty who knows what on them. The entry door to the bathroom had very dirty finger prints on both sides of the door which accommodated the rest of the dirt on both sides of the door, also the inside of the front door was very dirty and the bathroom tiles in this second room were no cleaner than the first room we where checked into. Also the air conditioner in the second room was not working properly which took a long time to cool down the room. If you like antique furniture and dirty rooms for $82.74 a night wish you luck.....P.S. take your own cleaning supplies and disinfect the room and bathroom before you use it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r124841264-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>124841264</t>
+  </si>
+  <si>
+    <t>02/19/2012</t>
+  </si>
+  <si>
+    <t>Do not use a debit card, and check for fraud</t>
+  </si>
+  <si>
+    <t>The red roof inn website sait $59 per night for both nights.  I get there and they say that they are not going to honor that.  I am quoted a rate of $69 for the first night, then $59 for the next.  That stinks, but ok, I will deal with that this once.
+This is the part you need to look out for.  After they ran my card, everything seemed fine, but my bank called about a fraud alert. It  turns out they charged my DEBIT CARD for five transactions all totaling $415.54! Holy cow.  I have had bad experiences there before, but this is nuts.
+I have no idea what they expect to gain from this. An individual can get away with credit card fraud, but if this business thinks there is any way, I am not going to fight this, they are nuts.  Any by the way, if any of you are wondering, the charges were put on my card before I even stepped foot into my room.    There is no way this could be for anything I could possibly do.  So, if you do go to this hotel, use a credit card, so you can fight the charges without the money being frozen in your bank account.
+And by the way, when I went down to the office to complain, they said the manager was not going to be there all day.  So they can charge my...The red roof inn website sait $59 per night for both nights.  I get there and they say that they are not going to honor that.  I am quoted a rate of $69 for the first night, then $59 for the next.  That stinks, but ok, I will deal with that this once.This is the part you need to look out for.  After they ran my card, everything seemed fine, but my bank called about a fraud alert. It  turns out they charged my DEBIT CARD for five transactions all totaling $415.54! Holy cow.  I have had bad experiences there before, but this is nuts.I have no idea what they expect to gain from this. An individual can get away with credit card fraud, but if this business thinks there is any way, I am not going to fight this, they are nuts.  Any by the way, if any of you are wondering, the charges were put on my card before I even stepped foot into my room.    There is no way this could be for anything I could possibly do.  So, if you do go to this hotel, use a credit card, so you can fight the charges without the money being frozen in your bank account.And by the way, when I went down to the office to complain, they said the manager was not going to be there all day.  So they can charge my card 5 times, yet they cannot do jack squat about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded February 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2012</t>
+  </si>
+  <si>
+    <t>The red roof inn website sait $59 per night for both nights.  I get there and they say that they are not going to honor that.  I am quoted a rate of $69 for the first night, then $59 for the next.  That stinks, but ok, I will deal with that this once.
+This is the part you need to look out for.  After they ran my card, everything seemed fine, but my bank called about a fraud alert. It  turns out they charged my DEBIT CARD for five transactions all totaling $415.54! Holy cow.  I have had bad experiences there before, but this is nuts.
+I have no idea what they expect to gain from this. An individual can get away with credit card fraud, but if this business thinks there is any way, I am not going to fight this, they are nuts.  Any by the way, if any of you are wondering, the charges were put on my card before I even stepped foot into my room.    There is no way this could be for anything I could possibly do.  So, if you do go to this hotel, use a credit card, so you can fight the charges without the money being frozen in your bank account.
+And by the way, when I went down to the office to complain, they said the manager was not going to be there all day.  So they can charge my...The red roof inn website sait $59 per night for both nights.  I get there and they say that they are not going to honor that.  I am quoted a rate of $69 for the first night, then $59 for the next.  That stinks, but ok, I will deal with that this once.This is the part you need to look out for.  After they ran my card, everything seemed fine, but my bank called about a fraud alert. It  turns out they charged my DEBIT CARD for five transactions all totaling $415.54! Holy cow.  I have had bad experiences there before, but this is nuts.I have no idea what they expect to gain from this. An individual can get away with credit card fraud, but if this business thinks there is any way, I am not going to fight this, they are nuts.  Any by the way, if any of you are wondering, the charges were put on my card before I even stepped foot into my room.    There is no way this could be for anything I could possibly do.  So, if you do go to this hotel, use a credit card, so you can fight the charges without the money being frozen in your bank account.And by the way, when I went down to the office to complain, they said the manager was not going to be there all day.  So they can charge my card 5 times, yet they cannot do jack squat about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r124379465-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>124379465</t>
+  </si>
+  <si>
+    <t>02/10/2012</t>
+  </si>
+  <si>
+    <t>Great Overall Stay, FREE Internet and NO BEDBUGS!!</t>
+  </si>
+  <si>
+    <t>My husband and I recently stayed at this RR Inn for 4 days. We moved to this motel after a 2 week stay at Motel 6. I was a bit worried about staying here because of the reviews and the close proximity to the freeway but I figured anything had to be better than what my husband and I had just dealt with for the previous 2 weeks at the other place!! 
+Check in was a breeze. Front desk girl was very friendly. The grounds were nicely well kept. The one side of the motel is pet friendly; I enjoyed walking by and seeing the kitty cats peeking out the windows of some rooms. I never saw any pet messes or trash. Ever.
+We stayed on the no pets side. Our first room was NICE!! It was located on the second floor inside the inner balcony, so we couldn't hear the freeway noise. It was very clean and smelled fine. It had a nice work station area with an office chair, plus another lounger type of chair in the corner. Also had a small fridge and a microwave and a coffee maker. 
+The bathroom was very clean. It had a very nice marble vanity, sink, and lots of counter space. Showerhead was great and sits high which makes it nice for the taller people like my husband. Only thing I did not like was that there were no shelves inside...My husband and I recently stayed at this RR Inn for 4 days. We moved to this motel after a 2 week stay at Motel 6. I was a bit worried about staying here because of the reviews and the close proximity to the freeway but I figured anything had to be better than what my husband and I had just dealt with for the previous 2 weeks at the other place!! Check in was a breeze. Front desk girl was very friendly. The grounds were nicely well kept. The one side of the motel is pet friendly; I enjoyed walking by and seeing the kitty cats peeking out the windows of some rooms. I never saw any pet messes or trash. Ever.We stayed on the no pets side. Our first room was NICE!! It was located on the second floor inside the inner balcony, so we couldn't hear the freeway noise. It was very clean and smelled fine. It had a nice work station area with an office chair, plus another lounger type of chair in the corner. Also had a small fridge and a microwave and a coffee maker. The bathroom was very clean. It had a very nice marble vanity, sink, and lots of counter space. Showerhead was great and sits high which makes it nice for the taller people like my husband. Only thing I did not like was that there were no shelves inside the shower for us to put our shampoos, soap, etc.. on. And the lighting in the bathroom was rather dim. TV was huge! Air Conditioner/Heater worked great. Our first rooms sink and shower drains had a drainage problem, though, and needed repairs so the next day we had to move to another room. No problem...The RR Inn gave us an even BIGGER, nice corner room!!! The only gripes we had with this room was that it was on the outer balcony so we could hear the freeway noise a bit more. Also had the same dim lighting and no shelving in the bathroom. We could not get the room very dark because it had two windows; my husband wound up waking up way before he wanted to because the morning sunlight would shine in. Not sure if the room just needs new blackout drapes or??  Still a very nice room though!!! I like the little lights above the bed for reading. Our housekeeper, Ampon, was a total sweetheart!! She gave us all brand new towels and extra coffee because I had left the others behind in the other room. I asked for extra towels and she gave me those too!! My husband needed kleenex and she gave us an extra pack "just in case" he might need it. (He did.)Both beds in both rooms were very comfy Kings. There was lots of pillows tossed on top. Hubby and I woke up without backaches, thank goodness!! Free internet worked great!! A much appreciated novelty to have for us as we do all of our work from our computers.Pool and jacuzzi area were nice and clean. I used the jacuzzi...it felt so lovely on a sore back! Note to management: The bubblers on your jacuzzi are not working right and when they get turned on, they shoot a lot of water out of the jacuzzi and onto the deck.I will be coming back soon to San Dimas and I will definitely be choosing this RR Inn as my home base. For $14-$17 a night more than the Motel 6, you get much better accommodations, free internet, coffee, microwave, fridge, bigger, more comfier beds, and a jacuzzi. My only wish and hope is that they get a weekly rate going to make the cost a bit easier on my pocketbook. ☺MoreShow less</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded February 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2012</t>
+  </si>
+  <si>
+    <t>My husband and I recently stayed at this RR Inn for 4 days. We moved to this motel after a 2 week stay at Motel 6. I was a bit worried about staying here because of the reviews and the close proximity to the freeway but I figured anything had to be better than what my husband and I had just dealt with for the previous 2 weeks at the other place!! 
+Check in was a breeze. Front desk girl was very friendly. The grounds were nicely well kept. The one side of the motel is pet friendly; I enjoyed walking by and seeing the kitty cats peeking out the windows of some rooms. I never saw any pet messes or trash. Ever.
+We stayed on the no pets side. Our first room was NICE!! It was located on the second floor inside the inner balcony, so we couldn't hear the freeway noise. It was very clean and smelled fine. It had a nice work station area with an office chair, plus another lounger type of chair in the corner. Also had a small fridge and a microwave and a coffee maker. 
+The bathroom was very clean. It had a very nice marble vanity, sink, and lots of counter space. Showerhead was great and sits high which makes it nice for the taller people like my husband. Only thing I did not like was that there were no shelves inside...My husband and I recently stayed at this RR Inn for 4 days. We moved to this motel after a 2 week stay at Motel 6. I was a bit worried about staying here because of the reviews and the close proximity to the freeway but I figured anything had to be better than what my husband and I had just dealt with for the previous 2 weeks at the other place!! Check in was a breeze. Front desk girl was very friendly. The grounds were nicely well kept. The one side of the motel is pet friendly; I enjoyed walking by and seeing the kitty cats peeking out the windows of some rooms. I never saw any pet messes or trash. Ever.We stayed on the no pets side. Our first room was NICE!! It was located on the second floor inside the inner balcony, so we couldn't hear the freeway noise. It was very clean and smelled fine. It had a nice work station area with an office chair, plus another lounger type of chair in the corner. Also had a small fridge and a microwave and a coffee maker. The bathroom was very clean. It had a very nice marble vanity, sink, and lots of counter space. Showerhead was great and sits high which makes it nice for the taller people like my husband. Only thing I did not like was that there were no shelves inside the shower for us to put our shampoos, soap, etc.. on. And the lighting in the bathroom was rather dim. TV was huge! Air Conditioner/Heater worked great. Our first rooms sink and shower drains had a drainage problem, though, and needed repairs so the next day we had to move to another room. No problem...The RR Inn gave us an even BIGGER, nice corner room!!! The only gripes we had with this room was that it was on the outer balcony so we could hear the freeway noise a bit more. Also had the same dim lighting and no shelving in the bathroom. We could not get the room very dark because it had two windows; my husband wound up waking up way before he wanted to because the morning sunlight would shine in. Not sure if the room just needs new blackout drapes or??  Still a very nice room though!!! I like the little lights above the bed for reading. Our housekeeper, Ampon, was a total sweetheart!! She gave us all brand new towels and extra coffee because I had left the others behind in the other room. I asked for extra towels and she gave me those too!! My husband needed kleenex and she gave us an extra pack "just in case" he might need it. (He did.)Both beds in both rooms were very comfy Kings. There was lots of pillows tossed on top. Hubby and I woke up without backaches, thank goodness!! Free internet worked great!! A much appreciated novelty to have for us as we do all of our work from our computers.Pool and jacuzzi area were nice and clean. I used the jacuzzi...it felt so lovely on a sore back! Note to management: The bubblers on your jacuzzi are not working right and when they get turned on, they shoot a lot of water out of the jacuzzi and onto the deck.I will be coming back soon to San Dimas and I will definitely be choosing this RR Inn as my home base. For $14-$17 a night more than the Motel 6, you get much better accommodations, free internet, coffee, microwave, fridge, bigger, more comfier beds, and a jacuzzi. My only wish and hope is that they get a weekly rate going to make the cost a bit easier on my pocketbook. ☺More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r123325717-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>123325717</t>
+  </si>
+  <si>
+    <t>01/19/2012</t>
+  </si>
+  <si>
+    <t>I won't be back!</t>
+  </si>
+  <si>
+    <t>We stayed for a week because we were locked in. I asked for an extra blanket-it was full of cuts and old and hard. I wouldn't give it to my dog! The bedspread -cigarette hole. One mattress was all springs. Dirty carpet. Smelly room. YUCK! Not what it was built up to be by any means.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>jsoto213, General Manager at Red Roof Inn San Dimas - Fairplex, responded to this reviewResponded January 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2012</t>
+  </si>
+  <si>
+    <t>We stayed for a week because we were locked in. I asked for an extra blanket-it was full of cuts and old and hard. I wouldn't give it to my dog! The bedspread -cigarette hole. One mattress was all springs. Dirty carpet. Smelly room. YUCK! Not what it was built up to be by any means.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r119163335-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>119163335</t>
+  </si>
+  <si>
+    <t>10/10/2011</t>
+  </si>
+  <si>
+    <t>can i go lower than Terrible</t>
+  </si>
+  <si>
+    <t>we booked 2 rooms at this hotel, oh my they allow dogs on the property but no one cleans up the dog's mess. 50 character is not enough space, how about this i would never stay at this hotel ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 17, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2011</t>
+  </si>
+  <si>
+    <t>we booked 2 rooms at this hotel, oh my they allow dogs on the property but no one cleans up the dog's mess. 50 character is not enough space, how about this i would never stay at this hotel ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r118034452-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>118034452</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Quiet hideaway</t>
+  </si>
+  <si>
+    <t>I stayed here for five nights and had a wonderful experience. Staff was courteous and helpful and the room was very nice. Nicely landscaped interior courtyard and within walking distance to restaurants and shopping. Would gladly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 27, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2011</t>
+  </si>
+  <si>
+    <t>I stayed here for five nights and had a wonderful experience. Staff was courteous and helpful and the room was very nice. Nicely landscaped interior courtyard and within walking distance to restaurants and shopping. Would gladly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r117195479-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>117195479</t>
+  </si>
+  <si>
+    <t>08/24/2011</t>
+  </si>
+  <si>
+    <t>Thabks to your staff.</t>
+  </si>
+  <si>
+    <t>I stayed for 28 days, very friendly-family oriented facility. Staff is very professional, courteous and with knowledge, specially Ana, one of the receptionist. Facility is clean adn close to almost anything in town. Obviously, I shall return.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>I stayed for 28 days, very friendly-family oriented facility. Staff is very professional, courteous and with knowledge, specially Ana, one of the receptionist. Facility is clean adn close to almost anything in town. Obviously, I shall return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r114687106-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>114687106</t>
+  </si>
+  <si>
+    <t>06/23/2011</t>
+  </si>
+  <si>
+    <t>ALWAYS A MAGNIFICENT EXPERIENCE!</t>
+  </si>
+  <si>
+    <t>I have done a lot of traveling and stayed at numerous motels.  However, I have never been more pleased with a property as I was with the Red Roof Inn, San Dimas, CA.   In fact, when I am in California, I often request business assignments that will enable me to stay at this location.  The Staff, Linda, Wendy, Lydia and Anna, are  the most organized and knowledgeable employees I have ever met, each with a uniform set of company values that make your check-in fast and efficient.  The rooms are very clean and well spaced.  The grounds are well maintained.  The pool and jacuzzi are placed in the center of the property which make them easily accessible to all.  And for you business folks, the property has two, very nice conference areas.The property sits conveniently within an 1/8 mile of 2 major freeways which makes traveling easy.  There are plenty of stores, restaurants and CHEAP GAS within walking distance, and the staff will let you know about local attractions and events as Lydia has done for me on countless occasions.  This property truly rivals the best Hotels in Quality and Service, but beats them "hands down" on PRICE!  I have recommended this property to my job and others and now have the privilege of recommending it to you.Thanks again to the RED ROOF INN!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 26, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2011</t>
+  </si>
+  <si>
+    <t>I have done a lot of traveling and stayed at numerous motels.  However, I have never been more pleased with a property as I was with the Red Roof Inn, San Dimas, CA.   In fact, when I am in California, I often request business assignments that will enable me to stay at this location.  The Staff, Linda, Wendy, Lydia and Anna, are  the most organized and knowledgeable employees I have ever met, each with a uniform set of company values that make your check-in fast and efficient.  The rooms are very clean and well spaced.  The grounds are well maintained.  The pool and jacuzzi are placed in the center of the property which make them easily accessible to all.  And for you business folks, the property has two, very nice conference areas.The property sits conveniently within an 1/8 mile of 2 major freeways which makes traveling easy.  There are plenty of stores, restaurants and CHEAP GAS within walking distance, and the staff will let you know about local attractions and events as Lydia has done for me on countless occasions.  This property truly rivals the best Hotels in Quality and Service, but beats them "hands down" on PRICE!  I have recommended this property to my job and others and now have the privilege of recommending it to you.Thanks again to the RED ROOF INN!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r91230140-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>91230140</t>
+  </si>
+  <si>
+    <t>12/31/2010</t>
+  </si>
+  <si>
+    <t>STAY AWAY!</t>
+  </si>
+  <si>
+    <t>Traveling for the Holidays with family. Booked 3 nights here. We lasted one night, the roaches, strange characters hanging around outside, rooms (we changed rooms twice) smell like a gym; made us decide to leave. Went a few blocks away to a Motel 6 that was clean, safe and the staff was great. Difference in price $1 a night!   This Red Roof Inn should be avoided.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 18, 2011</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2011</t>
+  </si>
+  <si>
+    <t>Traveling for the Holidays with family. Booked 3 nights here. We lasted one night, the roaches, strange characters hanging around outside, rooms (we changed rooms twice) smell like a gym; made us decide to leave. Went a few blocks away to a Motel 6 that was clean, safe and the staff was great. Difference in price $1 a night!   This Red Roof Inn should be avoided.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r77025614-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>77025614</t>
+  </si>
+  <si>
+    <t>08/26/2010</t>
+  </si>
+  <si>
+    <t>Wow! Where do I begin. I've stayed at...</t>
+  </si>
+  <si>
+    <t>Wow! Where do I begin. I've stayed at many Red Roof Inns but this one was by far the worst.Part of the motel is extended stay. People would stand outside of their doors and congregate together like a big block party. We felt very unsafe and on the second day of our stay we saw two police cars at the hotel surrounded by a crowd of the hotel guests. The rooms were dirty and smelled old and musty. The front desk staff were friendly as well as housekeeping but that just doesn't make up for the shady guests staying at the extended stay part of the hotel. I definitely would not stay at this hotel again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Wow! Where do I begin. I've stayed at many Red Roof Inns but this one was by far the worst.Part of the motel is extended stay. People would stand outside of their doors and congregate together like a big block party. We felt very unsafe and on the second day of our stay we saw two police cars at the hotel surrounded by a crowd of the hotel guests. The rooms were dirty and smelled old and musty. The front desk staff were friendly as well as housekeeping but that just doesn't make up for the shady guests staying at the extended stay part of the hotel. I definitely would not stay at this hotel again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r63223460-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>63223460</t>
+  </si>
+  <si>
+    <t>05/04/2010</t>
+  </si>
+  <si>
+    <t>Had A Great Night Sleep, in the CourtYard area.</t>
+  </si>
+  <si>
+    <t>what more can i really say. this hotel is great for the price i paid. I had a great room with 2 beds and a large tub. i believe my room was 240. both beds were comfortable and the cable TV and mini fridge added to my comfort. the check in clerk Lisa was awsome. she was very friendly, and willing to help me if i needed antthing. she even called my room to make sure i had what i needed. later that evening, my spouse and i went into the spa, and there were a handful of kids making noise. Lisa came out and get rid of them so we could have a relaxing time. In the morning we both went into the lobby where there was coffee. there machine wasen't on but the staff had fresh brewed coffee there for all gst. can complain when its coffee right. hahaha. at check out time, Wendy was also very friendly. she reviewed my bill, asked if everything was ok. she also asked if i wanted to make another reservation for a future date. I told her i wasn't sure when i was coming back but i took a business card of the GM and assured her that i will be back a later time, which i plan to in july. Thanks Red Roof Inn of San Dimas.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>what more can i really say. this hotel is great for the price i paid. I had a great room with 2 beds and a large tub. i believe my room was 240. both beds were comfortable and the cable TV and mini fridge added to my comfort. the check in clerk Lisa was awsome. she was very friendly, and willing to help me if i needed antthing. she even called my room to make sure i had what i needed. later that evening, my spouse and i went into the spa, and there were a handful of kids making noise. Lisa came out and get rid of them so we could have a relaxing time. In the morning we both went into the lobby where there was coffee. there machine wasen't on but the staff had fresh brewed coffee there for all gst. can complain when its coffee right. hahaha. at check out time, Wendy was also very friendly. she reviewed my bill, asked if everything was ok. she also asked if i wanted to make another reservation for a future date. I told her i wasn't sure when i was coming back but i took a business card of the GM and assured her that i will be back a later time, which i plan to in july. Thanks Red Roof Inn of San Dimas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r60040405-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>60040405</t>
+  </si>
+  <si>
+    <t>03/31/2010</t>
+  </si>
+  <si>
+    <t>5 star customer service</t>
+  </si>
+  <si>
+    <t>Our company has met at this location for the last 5+ years and find the customer service outstanding.  All of our needs are met with speed and efficiency.  Thank you to your entire staff for all your hard work.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r28281326-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>28281326</t>
+  </si>
+  <si>
+    <t>04/18/2009</t>
+  </si>
+  <si>
+    <t>Don't expect what you don't pay for.</t>
+  </si>
+  <si>
+    <t>Perfect 2-star motel.  Central courtyard is very pretty and full of birds (whose mess on the benches is not cleaned up all the time).  Unheated pool, which would work in hot weather but not when we went.  The "jacuzzi spa" was very warm.  Coffee in the lobby and vending machines; otherwise no food.  Location was perfect for where we wanted to be.  Staff very attentive when contacted.</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r5313145-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>5313145</t>
+  </si>
+  <si>
+    <t>06/04/2006</t>
+  </si>
+  <si>
+    <t>Don't stay here unless you want to check in LATE</t>
+  </si>
+  <si>
+    <t>Check-in was 2pm. We arrived at 2:45 on Friday afternoon 5/12/06 to get cleaned up for a school program. A gal in the lobby was being told her room wouldn't be ready until 4pm, and she had been told she could get in at 1pm because she was getting married and had her wedding dress in the car.  She needed to go to the airport to p/u guests and many errands to run.  Naturally, she was upset about the delay. The clerk spoke to Housekeeping and was told they’d hurry.
+The Motel Clerk then said OUR room wouldn't be ready until 4 but they'd upgrade us and rush to get us in by 3:45.   NOT!!   We waited in the car. Then she said our room would be ready by 4:15--NOT!  Said ready by 4:30--NOT!!  Got run-around.  We tried to get a room at the motels a block away, but they were full.  Gave up in frustration.  After 2 hours of sitting in the car, we left @ 4:45 to take shower at relatives house down the freeway.  Crummy deal.  Got back at midnight and checked in at Red Roof.  We indeed had a “suite” but it was actually 1 big room w/half wall divider. Our 'no smoking' room smelled of stale cigarette smoke and the bed was terrible (room 237).  The ad says ‘remodeled rooms’ but it was not impressive.  At least the bed was clean.  All they made were...Check-in was 2pm. We arrived at 2:45 on Friday afternoon 5/12/06 to get cleaned up for a school program. A gal in the lobby was being told her room wouldn't be ready until 4pm, and she had been told she could get in at 1pm because she was getting married and had her wedding dress in the car.  She needed to go to the airport to p/u guests and many errands to run.  Naturally, she was upset about the delay. The clerk spoke to Housekeeping and was told they’d hurry.The Motel Clerk then said OUR room wouldn't be ready until 4 but they'd upgrade us and rush to get us in by 3:45.   NOT!!   We waited in the car. Then she said our room would be ready by 4:15--NOT!  Said ready by 4:30--NOT!!  Got run-around.  We tried to get a room at the motels a block away, but they were full.  Gave up in frustration.  After 2 hours of sitting in the car, we left @ 4:45 to take shower at relatives house down the freeway.  Crummy deal.  Got back at midnight and checked in at Red Roof.  We indeed had a “suite” but it was actually 1 big room w/half wall divider. Our 'no smoking' room smelled of stale cigarette smoke and the bed was terrible (room 237).  The ad says ‘remodeled rooms’ but it was not impressive.  At least the bed was clean.  All they made were promises and they didn't have the staff to clean the rooms from people staying on a Thursday night.  Would not go back.   We're going to San Dimas again this week and we're NOT staying at the Red Roof Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>Check-in was 2pm. We arrived at 2:45 on Friday afternoon 5/12/06 to get cleaned up for a school program. A gal in the lobby was being told her room wouldn't be ready until 4pm, and she had been told she could get in at 1pm because she was getting married and had her wedding dress in the car.  She needed to go to the airport to p/u guests and many errands to run.  Naturally, she was upset about the delay. The clerk spoke to Housekeeping and was told they’d hurry.
+The Motel Clerk then said OUR room wouldn't be ready until 4 but they'd upgrade us and rush to get us in by 3:45.   NOT!!   We waited in the car. Then she said our room would be ready by 4:15--NOT!  Said ready by 4:30--NOT!!  Got run-around.  We tried to get a room at the motels a block away, but they were full.  Gave up in frustration.  After 2 hours of sitting in the car, we left @ 4:45 to take shower at relatives house down the freeway.  Crummy deal.  Got back at midnight and checked in at Red Roof.  We indeed had a “suite” but it was actually 1 big room w/half wall divider. Our 'no smoking' room smelled of stale cigarette smoke and the bed was terrible (room 237).  The ad says ‘remodeled rooms’ but it was not impressive.  At least the bed was clean.  All they made were...Check-in was 2pm. We arrived at 2:45 on Friday afternoon 5/12/06 to get cleaned up for a school program. A gal in the lobby was being told her room wouldn't be ready until 4pm, and she had been told she could get in at 1pm because she was getting married and had her wedding dress in the car.  She needed to go to the airport to p/u guests and many errands to run.  Naturally, she was upset about the delay. The clerk spoke to Housekeeping and was told they’d hurry.The Motel Clerk then said OUR room wouldn't be ready until 4 but they'd upgrade us and rush to get us in by 3:45.   NOT!!   We waited in the car. Then she said our room would be ready by 4:15--NOT!  Said ready by 4:30--NOT!!  Got run-around.  We tried to get a room at the motels a block away, but they were full.  Gave up in frustration.  After 2 hours of sitting in the car, we left @ 4:45 to take shower at relatives house down the freeway.  Crummy deal.  Got back at midnight and checked in at Red Roof.  We indeed had a “suite” but it was actually 1 big room w/half wall divider. Our 'no smoking' room smelled of stale cigarette smoke and the bed was terrible (room 237).  The ad says ‘remodeled rooms’ but it was not impressive.  At least the bed was clean.  All they made were promises and they didn't have the staff to clean the rooms from people staying on a Thursday night.  Would not go back.   We're going to San Dimas again this week and we're NOT staying at the Red Roof Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r1624111-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>1624111</t>
+  </si>
+  <si>
+    <t>02/01/2004</t>
+  </si>
+  <si>
+    <t>Probably a little better than Motel 6</t>
+  </si>
+  <si>
+    <t>I stayed 2 nights in late January 2004. I picked this motel because I was on a tight budget ($49.50/night) and it was close to the Fairplex. 
+I would not stay there again because it is right on a freeway, and the noise was terrible. The building is parallel to the freeway, and there are exterior corridors, so you can't get away from the noise. I had reserved a room as far from the freeway as possible, but instead they gave me a room that was as close as possible. They wouldn't give me a different room the first night because they were booked up; I changed rooms the next day, but it wasn't much quieter. I had two upstairs rooms (for some reason they wouldn't give me a downstairs one; maybe those were all smoking) and the upstairs rooms were level with the freeway.
+The attendants were pretty nice about switching rooms, although they acted as if they couldn't believe the roar of the freeway could bother anyone.
+The upstairs rooms had high ceilings, and were a decent size. There was a microwave and refrigerator. There was no breakfast. The first room was pretty grungy - stains on the sheets, pillow cases, and towels. The floor in the bathroom was disgusting, and so was the shower curtain. 
+The heat did not work in the first room - I had it turned up all the way all night long, and...I stayed 2 nights in late January 2004. I picked this motel because I was on a tight budget ($49.50/night) and it was close to the Fairplex. I would not stay there again because it is right on a freeway, and the noise was terrible. The building is parallel to the freeway, and there are exterior corridors, so you can't get away from the noise. I had reserved a room as far from the freeway as possible, but instead they gave me a room that was as close as possible. They wouldn't give me a different room the first night because they were booked up; I changed rooms the next day, but it wasn't much quieter. I had two upstairs rooms (for some reason they wouldn't give me a downstairs one; maybe those were all smoking) and the upstairs rooms were level with the freeway.The attendants were pretty nice about switching rooms, although they acted as if they couldn't believe the roar of the freeway could bother anyone.The upstairs rooms had high ceilings, and were a decent size. There was a microwave and refrigerator. There was no breakfast. The first room was pretty grungy - stains on the sheets, pillow cases, and towels. The floor in the bathroom was disgusting, and so was the shower curtain. The heat did not work in the first room - I had it turned up all the way all night long, and it never put out warm air. When I came in to move my stuff, a guy was in there to check the heater, and it was working for him so I don't know what was wrong with it.The second room was a little cleaner. Except that I flipped the mattress because of the sag in the middle, and boy is it hard to sleep on a motel mattress once you've seen what has been spilled on there. This one had remained wet so long there was mold along the whole side.I would not stay at this or any other Red Roof Inn again. After not being able to sleep the first night, it ruined my day and was not worth the money I "saved". If you really want to save, you may as well go Motel 6 or Super 8.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed 2 nights in late January 2004. I picked this motel because I was on a tight budget ($49.50/night) and it was close to the Fairplex. 
+I would not stay there again because it is right on a freeway, and the noise was terrible. The building is parallel to the freeway, and there are exterior corridors, so you can't get away from the noise. I had reserved a room as far from the freeway as possible, but instead they gave me a room that was as close as possible. They wouldn't give me a different room the first night because they were booked up; I changed rooms the next day, but it wasn't much quieter. I had two upstairs rooms (for some reason they wouldn't give me a downstairs one; maybe those were all smoking) and the upstairs rooms were level with the freeway.
+The attendants were pretty nice about switching rooms, although they acted as if they couldn't believe the roar of the freeway could bother anyone.
+The upstairs rooms had high ceilings, and were a decent size. There was a microwave and refrigerator. There was no breakfast. The first room was pretty grungy - stains on the sheets, pillow cases, and towels. The floor in the bathroom was disgusting, and so was the shower curtain. 
+The heat did not work in the first room - I had it turned up all the way all night long, and...I stayed 2 nights in late January 2004. I picked this motel because I was on a tight budget ($49.50/night) and it was close to the Fairplex. I would not stay there again because it is right on a freeway, and the noise was terrible. The building is parallel to the freeway, and there are exterior corridors, so you can't get away from the noise. I had reserved a room as far from the freeway as possible, but instead they gave me a room that was as close as possible. They wouldn't give me a different room the first night because they were booked up; I changed rooms the next day, but it wasn't much quieter. I had two upstairs rooms (for some reason they wouldn't give me a downstairs one; maybe those were all smoking) and the upstairs rooms were level with the freeway.The attendants were pretty nice about switching rooms, although they acted as if they couldn't believe the roar of the freeway could bother anyone.The upstairs rooms had high ceilings, and were a decent size. There was a microwave and refrigerator. There was no breakfast. The first room was pretty grungy - stains on the sheets, pillow cases, and towels. The floor in the bathroom was disgusting, and so was the shower curtain. The heat did not work in the first room - I had it turned up all the way all night long, and it never put out warm air. When I came in to move my stuff, a guy was in there to check the heater, and it was working for him so I don't know what was wrong with it.The second room was a little cleaner. Except that I flipped the mattress because of the sag in the middle, and boy is it hard to sleep on a motel mattress once you've seen what has been spilled on there. This one had remained wet so long there was mold along the whole side.I would not stay at this or any other Red Roof Inn again. After not being able to sleep the first night, it ruined my day and was not worth the money I "saved". If you really want to save, you may as well go Motel 6 or Super 8.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3273,7335 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>145</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>145</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>192</v>
+      </c>
+      <c r="X19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>210</v>
+      </c>
+      <c r="X21" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s">
+        <v>216</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>210</v>
+      </c>
+      <c r="X22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>223</v>
+      </c>
+      <c r="X23" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>231</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>223</v>
+      </c>
+      <c r="X24" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>238</v>
+      </c>
+      <c r="O25" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>239</v>
+      </c>
+      <c r="X25" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" t="s">
+        <v>244</v>
+      </c>
+      <c r="K26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>247</v>
+      </c>
+      <c r="O26" t="s">
+        <v>145</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>248</v>
+      </c>
+      <c r="X26" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>252</v>
+      </c>
+      <c r="J27" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" t="s">
+        <v>254</v>
+      </c>
+      <c r="L27" t="s">
+        <v>255</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" t="s">
+        <v>258</v>
+      </c>
+      <c r="K28" t="s">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s">
+        <v>260</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" t="s">
+        <v>145</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>248</v>
+      </c>
+      <c r="X28" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" t="s">
+        <v>266</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>267</v>
+      </c>
+      <c r="O29" t="s">
+        <v>103</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>269</v>
+      </c>
+      <c r="J30" t="s">
+        <v>270</v>
+      </c>
+      <c r="K30" t="s">
+        <v>271</v>
+      </c>
+      <c r="L30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>273</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" t="s">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s">
+        <v>278</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>279</v>
+      </c>
+      <c r="O31" t="s">
+        <v>103</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>279</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>285</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>286</v>
+      </c>
+      <c r="J33" t="s">
+        <v>287</v>
+      </c>
+      <c r="K33" t="s">
+        <v>288</v>
+      </c>
+      <c r="L33" t="s">
+        <v>289</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>290</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>292</v>
+      </c>
+      <c r="J34" t="s">
+        <v>293</v>
+      </c>
+      <c r="K34" t="s">
+        <v>294</v>
+      </c>
+      <c r="L34" t="s">
+        <v>295</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>279</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>297</v>
+      </c>
+      <c r="J35" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" t="s">
+        <v>299</v>
+      </c>
+      <c r="L35" t="s">
+        <v>300</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>290</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>302</v>
+      </c>
+      <c r="J36" t="s">
+        <v>303</v>
+      </c>
+      <c r="K36" t="s">
+        <v>304</v>
+      </c>
+      <c r="L36" t="s">
+        <v>305</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>290</v>
+      </c>
+      <c r="O36" t="s">
+        <v>103</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>308</v>
+      </c>
+      <c r="J37" t="s">
+        <v>309</v>
+      </c>
+      <c r="K37" t="s">
+        <v>310</v>
+      </c>
+      <c r="L37" t="s">
+        <v>311</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>312</v>
+      </c>
+      <c r="O37" t="s">
+        <v>145</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>313</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>314</v>
+      </c>
+      <c r="J38" t="s">
+        <v>315</v>
+      </c>
+      <c r="K38" t="s">
+        <v>316</v>
+      </c>
+      <c r="L38" t="s">
+        <v>317</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>312</v>
+      </c>
+      <c r="O38" t="s">
+        <v>145</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>318</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>319</v>
+      </c>
+      <c r="J39" t="s">
+        <v>320</v>
+      </c>
+      <c r="K39" t="s">
+        <v>321</v>
+      </c>
+      <c r="L39" t="s">
+        <v>322</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>323</v>
+      </c>
+      <c r="O39" t="s">
+        <v>103</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>324</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>325</v>
+      </c>
+      <c r="J40" t="s">
+        <v>326</v>
+      </c>
+      <c r="K40" t="s">
+        <v>327</v>
+      </c>
+      <c r="L40" t="s">
+        <v>328</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>329</v>
+      </c>
+      <c r="O40" t="s">
+        <v>103</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>330</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>331</v>
+      </c>
+      <c r="J41" t="s">
+        <v>332</v>
+      </c>
+      <c r="K41" t="s">
+        <v>333</v>
+      </c>
+      <c r="L41" t="s">
+        <v>334</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>335</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>336</v>
+      </c>
+      <c r="X41" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>339</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>340</v>
+      </c>
+      <c r="J42" t="s">
+        <v>341</v>
+      </c>
+      <c r="K42" t="s">
+        <v>342</v>
+      </c>
+      <c r="L42" t="s">
+        <v>343</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>344</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>345</v>
+      </c>
+      <c r="X42" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>347</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>348</v>
+      </c>
+      <c r="J43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K43" t="s">
+        <v>350</v>
+      </c>
+      <c r="L43" t="s">
+        <v>351</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>352</v>
+      </c>
+      <c r="O43" t="s">
+        <v>103</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>345</v>
+      </c>
+      <c r="X43" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>354</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>355</v>
+      </c>
+      <c r="J44" t="s">
+        <v>356</v>
+      </c>
+      <c r="K44" t="s">
+        <v>357</v>
+      </c>
+      <c r="L44" t="s">
+        <v>358</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>329</v>
+      </c>
+      <c r="O44" t="s">
+        <v>87</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>360</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>361</v>
+      </c>
+      <c r="J45" t="s">
+        <v>362</v>
+      </c>
+      <c r="K45" t="s">
+        <v>363</v>
+      </c>
+      <c r="L45" t="s">
+        <v>364</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>329</v>
+      </c>
+      <c r="O45" t="s">
+        <v>103</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>345</v>
+      </c>
+      <c r="X45" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>366</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>367</v>
+      </c>
+      <c r="J46" t="s">
+        <v>368</v>
+      </c>
+      <c r="K46" t="s">
+        <v>369</v>
+      </c>
+      <c r="L46" t="s">
+        <v>370</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>371</v>
+      </c>
+      <c r="O46" t="s">
+        <v>103</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>345</v>
+      </c>
+      <c r="X46" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>373</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>374</v>
+      </c>
+      <c r="J47" t="s">
+        <v>375</v>
+      </c>
+      <c r="K47" t="s">
+        <v>376</v>
+      </c>
+      <c r="L47" t="s">
+        <v>377</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>378</v>
+      </c>
+      <c r="O47" t="s">
+        <v>103</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>380</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>381</v>
+      </c>
+      <c r="J48" t="s">
+        <v>382</v>
+      </c>
+      <c r="K48" t="s">
+        <v>383</v>
+      </c>
+      <c r="L48" t="s">
+        <v>384</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>378</v>
+      </c>
+      <c r="O48" t="s">
+        <v>103</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>345</v>
+      </c>
+      <c r="X48" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>386</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>387</v>
+      </c>
+      <c r="J49" t="s">
+        <v>388</v>
+      </c>
+      <c r="K49" t="s">
+        <v>389</v>
+      </c>
+      <c r="L49" t="s">
+        <v>390</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>391</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>345</v>
+      </c>
+      <c r="X49" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>393</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>394</v>
+      </c>
+      <c r="J50" t="s">
+        <v>395</v>
+      </c>
+      <c r="K50" t="s">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s">
+        <v>397</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>398</v>
+      </c>
+      <c r="O50" t="s">
+        <v>103</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>345</v>
+      </c>
+      <c r="X50" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>400</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>401</v>
+      </c>
+      <c r="J51" t="s">
+        <v>402</v>
+      </c>
+      <c r="K51" t="s">
+        <v>403</v>
+      </c>
+      <c r="L51" t="s">
+        <v>404</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>405</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>406</v>
+      </c>
+      <c r="X51" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>409</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>410</v>
+      </c>
+      <c r="J52" t="s">
+        <v>411</v>
+      </c>
+      <c r="K52" t="s">
+        <v>412</v>
+      </c>
+      <c r="L52" t="s">
+        <v>413</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>414</v>
+      </c>
+      <c r="O52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>415</v>
+      </c>
+      <c r="X52" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>417</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>418</v>
+      </c>
+      <c r="J53" t="s">
+        <v>419</v>
+      </c>
+      <c r="K53" t="s">
+        <v>420</v>
+      </c>
+      <c r="L53" t="s">
+        <v>421</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>422</v>
+      </c>
+      <c r="X53" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>425</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>426</v>
+      </c>
+      <c r="J54" t="s">
+        <v>427</v>
+      </c>
+      <c r="K54" t="s">
+        <v>428</v>
+      </c>
+      <c r="L54" t="s">
+        <v>429</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>422</v>
+      </c>
+      <c r="X54" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>431</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>432</v>
+      </c>
+      <c r="J55" t="s">
+        <v>433</v>
+      </c>
+      <c r="K55" t="s">
+        <v>434</v>
+      </c>
+      <c r="L55" t="s">
+        <v>435</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>436</v>
+      </c>
+      <c r="O55" t="s">
+        <v>145</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>422</v>
+      </c>
+      <c r="X55" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>438</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>439</v>
+      </c>
+      <c r="J56" t="s">
+        <v>440</v>
+      </c>
+      <c r="K56" t="s">
+        <v>441</v>
+      </c>
+      <c r="L56" t="s">
+        <v>442</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>443</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>444</v>
+      </c>
+      <c r="X56" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>447</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>448</v>
+      </c>
+      <c r="J57" t="s">
+        <v>449</v>
+      </c>
+      <c r="K57" t="s">
+        <v>450</v>
+      </c>
+      <c r="L57" t="s">
+        <v>451</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>414</v>
+      </c>
+      <c r="O57" t="s">
+        <v>145</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>452</v>
+      </c>
+      <c r="X57" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>455</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>456</v>
+      </c>
+      <c r="J58" t="s">
+        <v>457</v>
+      </c>
+      <c r="K58" t="s">
+        <v>458</v>
+      </c>
+      <c r="L58" t="s">
+        <v>459</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>460</v>
+      </c>
+      <c r="O58" t="s">
+        <v>103</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>461</v>
+      </c>
+      <c r="X58" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>464</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>465</v>
+      </c>
+      <c r="J59" t="s">
+        <v>466</v>
+      </c>
+      <c r="K59" t="s">
+        <v>467</v>
+      </c>
+      <c r="L59" t="s">
+        <v>468</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>469</v>
+      </c>
+      <c r="O59" t="s">
+        <v>103</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>470</v>
+      </c>
+      <c r="X59" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>473</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>474</v>
+      </c>
+      <c r="J60" t="s">
+        <v>475</v>
+      </c>
+      <c r="K60" t="s">
+        <v>476</v>
+      </c>
+      <c r="L60" t="s">
+        <v>477</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>470</v>
+      </c>
+      <c r="X60" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>479</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>480</v>
+      </c>
+      <c r="J61" t="s">
+        <v>481</v>
+      </c>
+      <c r="K61" t="s">
+        <v>482</v>
+      </c>
+      <c r="L61" t="s">
+        <v>483</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>414</v>
+      </c>
+      <c r="O61" t="s">
+        <v>62</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>484</v>
+      </c>
+      <c r="X61" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>487</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>488</v>
+      </c>
+      <c r="J62" t="s">
+        <v>489</v>
+      </c>
+      <c r="K62" t="s">
+        <v>490</v>
+      </c>
+      <c r="L62" t="s">
+        <v>491</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>492</v>
+      </c>
+      <c r="O62" t="s">
+        <v>87</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>493</v>
+      </c>
+      <c r="X62" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>496</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>497</v>
+      </c>
+      <c r="J63" t="s">
+        <v>498</v>
+      </c>
+      <c r="K63" t="s">
+        <v>499</v>
+      </c>
+      <c r="L63" t="s">
+        <v>500</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>501</v>
+      </c>
+      <c r="X63" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>504</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>505</v>
+      </c>
+      <c r="J64" t="s">
+        <v>506</v>
+      </c>
+      <c r="K64" t="s">
+        <v>507</v>
+      </c>
+      <c r="L64" t="s">
+        <v>508</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>509</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>501</v>
+      </c>
+      <c r="X64" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>511</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>512</v>
+      </c>
+      <c r="J65" t="s">
+        <v>513</v>
+      </c>
+      <c r="K65" t="s">
+        <v>514</v>
+      </c>
+      <c r="L65" t="s">
+        <v>515</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>516</v>
+      </c>
+      <c r="X65" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>519</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>520</v>
+      </c>
+      <c r="J66" t="s">
+        <v>521</v>
+      </c>
+      <c r="K66" t="s">
+        <v>522</v>
+      </c>
+      <c r="L66" t="s">
+        <v>523</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>524</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>525</v>
+      </c>
+      <c r="X66" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>528</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>529</v>
+      </c>
+      <c r="J67" t="s">
+        <v>530</v>
+      </c>
+      <c r="K67" t="s">
+        <v>531</v>
+      </c>
+      <c r="L67" t="s">
+        <v>532</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>524</v>
+      </c>
+      <c r="O67" t="s">
+        <v>87</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>525</v>
+      </c>
+      <c r="X67" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>534</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>535</v>
+      </c>
+      <c r="J68" t="s">
+        <v>536</v>
+      </c>
+      <c r="K68" t="s">
+        <v>537</v>
+      </c>
+      <c r="L68" t="s">
+        <v>538</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>539</v>
+      </c>
+      <c r="O68" t="s">
+        <v>87</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>540</v>
+      </c>
+      <c r="X68" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>543</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>544</v>
+      </c>
+      <c r="J69" t="s">
+        <v>536</v>
+      </c>
+      <c r="K69" t="s">
+        <v>545</v>
+      </c>
+      <c r="L69" t="s">
+        <v>546</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>547</v>
+      </c>
+      <c r="O69" t="s">
+        <v>103</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>540</v>
+      </c>
+      <c r="X69" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>549</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>550</v>
+      </c>
+      <c r="J70" t="s">
+        <v>551</v>
+      </c>
+      <c r="K70" t="s">
+        <v>552</v>
+      </c>
+      <c r="L70" t="s">
+        <v>553</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>554</v>
+      </c>
+      <c r="X70" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>557</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>558</v>
+      </c>
+      <c r="J71" t="s">
+        <v>559</v>
+      </c>
+      <c r="K71" t="s">
+        <v>560</v>
+      </c>
+      <c r="L71" t="s">
+        <v>561</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>562</v>
+      </c>
+      <c r="O71" t="s">
+        <v>145</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>563</v>
+      </c>
+      <c r="X71" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>566</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>567</v>
+      </c>
+      <c r="J72" t="s">
+        <v>568</v>
+      </c>
+      <c r="K72" t="s">
+        <v>569</v>
+      </c>
+      <c r="L72" t="s">
+        <v>570</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>547</v>
+      </c>
+      <c r="O72" t="s">
+        <v>87</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>571</v>
+      </c>
+      <c r="X72" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>574</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>575</v>
+      </c>
+      <c r="J73" t="s">
+        <v>576</v>
+      </c>
+      <c r="K73" t="s">
+        <v>577</v>
+      </c>
+      <c r="L73" t="s">
+        <v>578</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>562</v>
+      </c>
+      <c r="O73" t="s">
+        <v>87</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>579</v>
+      </c>
+      <c r="X73" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>582</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>583</v>
+      </c>
+      <c r="J74" t="s">
+        <v>584</v>
+      </c>
+      <c r="K74" t="s">
+        <v>585</v>
+      </c>
+      <c r="L74" t="s">
+        <v>586</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>587</v>
+      </c>
+      <c r="O74" t="s">
+        <v>103</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>588</v>
+      </c>
+      <c r="X74" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>591</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>592</v>
+      </c>
+      <c r="J75" t="s">
+        <v>593</v>
+      </c>
+      <c r="K75" t="s">
+        <v>594</v>
+      </c>
+      <c r="L75" t="s">
+        <v>595</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>596</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>597</v>
+      </c>
+      <c r="X75" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>600</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>601</v>
+      </c>
+      <c r="J76" t="s">
+        <v>602</v>
+      </c>
+      <c r="K76" t="s">
+        <v>603</v>
+      </c>
+      <c r="L76" t="s">
+        <v>604</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>605</v>
+      </c>
+      <c r="O76" t="s">
+        <v>87</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>606</v>
+      </c>
+      <c r="X76" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>609</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>610</v>
+      </c>
+      <c r="J77" t="s">
+        <v>611</v>
+      </c>
+      <c r="K77" t="s">
+        <v>612</v>
+      </c>
+      <c r="L77" t="s">
+        <v>613</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>614</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>615</v>
+      </c>
+      <c r="X77" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>618</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>619</v>
+      </c>
+      <c r="J78" t="s">
+        <v>620</v>
+      </c>
+      <c r="K78" t="s">
+        <v>621</v>
+      </c>
+      <c r="L78" t="s">
+        <v>622</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>623</v>
+      </c>
+      <c r="X78" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>626</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>627</v>
+      </c>
+      <c r="J79" t="s">
+        <v>628</v>
+      </c>
+      <c r="K79" t="s">
+        <v>629</v>
+      </c>
+      <c r="L79" t="s">
+        <v>630</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>631</v>
+      </c>
+      <c r="O79" t="s">
+        <v>62</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>632</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>633</v>
+      </c>
+      <c r="J80" t="s">
+        <v>634</v>
+      </c>
+      <c r="K80" t="s">
+        <v>635</v>
+      </c>
+      <c r="L80" t="s">
+        <v>636</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>637</v>
+      </c>
+      <c r="O80" t="s">
+        <v>103</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>638</v>
+      </c>
+      <c r="X80" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>641</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>642</v>
+      </c>
+      <c r="J81" t="s">
+        <v>643</v>
+      </c>
+      <c r="K81" t="s">
+        <v>644</v>
+      </c>
+      <c r="L81" t="s">
+        <v>645</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>646</v>
+      </c>
+      <c r="O81" t="s">
+        <v>103</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>638</v>
+      </c>
+      <c r="X81" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>648</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>649</v>
+      </c>
+      <c r="J82" t="s">
+        <v>650</v>
+      </c>
+      <c r="K82" t="s">
+        <v>651</v>
+      </c>
+      <c r="L82" t="s">
+        <v>652</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>653</v>
+      </c>
+      <c r="X82" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>656</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>657</v>
+      </c>
+      <c r="J83" t="s">
+        <v>658</v>
+      </c>
+      <c r="K83" t="s">
+        <v>659</v>
+      </c>
+      <c r="L83" t="s">
+        <v>660</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>646</v>
+      </c>
+      <c r="O83" t="s">
+        <v>103</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>661</v>
+      </c>
+      <c r="X83" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>664</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>665</v>
+      </c>
+      <c r="J84" t="s">
+        <v>666</v>
+      </c>
+      <c r="K84" t="s">
+        <v>667</v>
+      </c>
+      <c r="L84" t="s">
+        <v>668</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>669</v>
+      </c>
+      <c r="O84" t="s">
+        <v>103</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>670</v>
+      </c>
+      <c r="X84" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>673</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>674</v>
+      </c>
+      <c r="J85" t="s">
+        <v>675</v>
+      </c>
+      <c r="K85" t="s">
+        <v>676</v>
+      </c>
+      <c r="L85" t="s">
+        <v>677</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>669</v>
+      </c>
+      <c r="O85" t="s">
+        <v>103</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>678</v>
+      </c>
+      <c r="X85" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>681</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>682</v>
+      </c>
+      <c r="J86" t="s">
+        <v>683</v>
+      </c>
+      <c r="K86" t="s">
+        <v>684</v>
+      </c>
+      <c r="L86" t="s">
+        <v>685</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>646</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>686</v>
+      </c>
+      <c r="X86" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>689</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>690</v>
+      </c>
+      <c r="J87" t="s">
+        <v>691</v>
+      </c>
+      <c r="K87" t="s">
+        <v>692</v>
+      </c>
+      <c r="L87" t="s">
+        <v>693</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>646</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>686</v>
+      </c>
+      <c r="X87" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>695</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>696</v>
+      </c>
+      <c r="J88" t="s">
+        <v>697</v>
+      </c>
+      <c r="K88" t="s">
+        <v>698</v>
+      </c>
+      <c r="L88" t="s">
+        <v>699</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>646</v>
+      </c>
+      <c r="O88" t="s">
+        <v>103</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>700</v>
+      </c>
+      <c r="X88" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>703</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>704</v>
+      </c>
+      <c r="J89" t="s">
+        <v>705</v>
+      </c>
+      <c r="K89" t="s">
+        <v>706</v>
+      </c>
+      <c r="L89" t="s">
+        <v>707</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>708</v>
+      </c>
+      <c r="X89" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>711</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>712</v>
+      </c>
+      <c r="J90" t="s">
+        <v>713</v>
+      </c>
+      <c r="K90" t="s">
+        <v>714</v>
+      </c>
+      <c r="L90" t="s">
+        <v>715</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>716</v>
+      </c>
+      <c r="O90" t="s">
+        <v>87</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>717</v>
+      </c>
+      <c r="X90" t="s">
+        <v>718</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>720</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>721</v>
+      </c>
+      <c r="J91" t="s">
+        <v>722</v>
+      </c>
+      <c r="K91" t="s">
+        <v>723</v>
+      </c>
+      <c r="L91" t="s">
+        <v>724</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>725</v>
+      </c>
+      <c r="O91" t="s">
+        <v>145</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>726</v>
+      </c>
+      <c r="X91" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>729</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>730</v>
+      </c>
+      <c r="J92" t="s">
+        <v>731</v>
+      </c>
+      <c r="K92" t="s">
+        <v>732</v>
+      </c>
+      <c r="L92" t="s">
+        <v>733</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>734</v>
+      </c>
+      <c r="O92" t="s">
+        <v>103</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>735</v>
+      </c>
+      <c r="X92" t="s">
+        <v>736</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>738</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>739</v>
+      </c>
+      <c r="J93" t="s">
+        <v>740</v>
+      </c>
+      <c r="K93" t="s">
+        <v>741</v>
+      </c>
+      <c r="L93" t="s">
+        <v>742</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>734</v>
+      </c>
+      <c r="O93" t="s">
+        <v>103</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>743</v>
+      </c>
+      <c r="X93" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>746</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>747</v>
+      </c>
+      <c r="J94" t="s">
+        <v>748</v>
+      </c>
+      <c r="K94" t="s">
+        <v>749</v>
+      </c>
+      <c r="L94" t="s">
+        <v>750</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>734</v>
+      </c>
+      <c r="O94" t="s">
+        <v>87</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>751</v>
+      </c>
+      <c r="X94" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>754</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>755</v>
+      </c>
+      <c r="J95" t="s">
+        <v>756</v>
+      </c>
+      <c r="K95" t="s">
+        <v>757</v>
+      </c>
+      <c r="L95" t="s">
+        <v>758</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>759</v>
+      </c>
+      <c r="O95" t="s">
+        <v>145</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>760</v>
+      </c>
+      <c r="X95" t="s">
+        <v>761</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>763</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>764</v>
+      </c>
+      <c r="J96" t="s">
+        <v>765</v>
+      </c>
+      <c r="K96" t="s">
+        <v>265</v>
+      </c>
+      <c r="L96" t="s">
+        <v>766</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>759</v>
+      </c>
+      <c r="O96" t="s">
+        <v>62</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>767</v>
+      </c>
+      <c r="X96" t="s">
+        <v>768</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>770</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>771</v>
+      </c>
+      <c r="J97" t="s">
+        <v>772</v>
+      </c>
+      <c r="K97" t="s">
+        <v>773</v>
+      </c>
+      <c r="L97" t="s">
+        <v>774</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>775</v>
+      </c>
+      <c r="O97" t="s">
+        <v>62</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>776</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>777</v>
+      </c>
+      <c r="J98" t="s">
+        <v>778</v>
+      </c>
+      <c r="K98" t="s">
+        <v>779</v>
+      </c>
+      <c r="L98" t="s">
+        <v>780</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>775</v>
+      </c>
+      <c r="O98" t="s">
+        <v>145</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>781</v>
+      </c>
+      <c r="X98" t="s">
+        <v>782</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>784</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>785</v>
+      </c>
+      <c r="J99" t="s">
+        <v>786</v>
+      </c>
+      <c r="K99" t="s">
+        <v>787</v>
+      </c>
+      <c r="L99" t="s">
+        <v>788</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>789</v>
+      </c>
+      <c r="X99" t="s">
+        <v>790</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>792</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>793</v>
+      </c>
+      <c r="J100" t="s">
+        <v>794</v>
+      </c>
+      <c r="K100" t="s">
+        <v>795</v>
+      </c>
+      <c r="L100" t="s">
+        <v>796</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>797</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>798</v>
+      </c>
+      <c r="X100" t="s">
+        <v>799</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>801</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>802</v>
+      </c>
+      <c r="J101" t="s">
+        <v>803</v>
+      </c>
+      <c r="K101" t="s">
+        <v>804</v>
+      </c>
+      <c r="L101" t="s">
+        <v>805</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>806</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>1</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>807</v>
+      </c>
+      <c r="X101" t="s">
+        <v>808</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>810</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>811</v>
+      </c>
+      <c r="J102" t="s">
+        <v>812</v>
+      </c>
+      <c r="K102" t="s">
+        <v>813</v>
+      </c>
+      <c r="L102" t="s">
+        <v>814</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>806</v>
+      </c>
+      <c r="O102" t="s">
+        <v>103</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>815</v>
+      </c>
+      <c r="X102" t="s">
+        <v>816</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>818</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>819</v>
+      </c>
+      <c r="J103" t="s">
+        <v>820</v>
+      </c>
+      <c r="K103" t="s">
+        <v>821</v>
+      </c>
+      <c r="L103" t="s">
+        <v>822</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>823</v>
+      </c>
+      <c r="O103" t="s">
+        <v>62</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>2</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>824</v>
+      </c>
+      <c r="X103" t="s">
+        <v>825</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>827</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>828</v>
+      </c>
+      <c r="J104" t="s">
+        <v>829</v>
+      </c>
+      <c r="K104" t="s">
+        <v>830</v>
+      </c>
+      <c r="L104" t="s">
+        <v>831</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>832</v>
+      </c>
+      <c r="O104" t="s">
+        <v>103</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1</v>
+      </c>
+      <c r="S104" t="n">
+        <v>1</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>1</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>833</v>
+      </c>
+      <c r="X104" t="s">
+        <v>834</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>836</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>837</v>
+      </c>
+      <c r="J105" t="s">
+        <v>838</v>
+      </c>
+      <c r="K105" t="s">
+        <v>839</v>
+      </c>
+      <c r="L105" t="s">
+        <v>840</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>841</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>842</v>
+      </c>
+      <c r="X105" t="s">
+        <v>843</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>845</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>846</v>
+      </c>
+      <c r="J106" t="s">
+        <v>847</v>
+      </c>
+      <c r="K106" t="s">
+        <v>848</v>
+      </c>
+      <c r="L106" t="s">
+        <v>849</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>850</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>842</v>
+      </c>
+      <c r="X106" t="s">
+        <v>843</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>852</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>853</v>
+      </c>
+      <c r="J107" t="s">
+        <v>854</v>
+      </c>
+      <c r="K107" t="s">
+        <v>855</v>
+      </c>
+      <c r="L107" t="s">
+        <v>856</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>857</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>858</v>
+      </c>
+      <c r="X107" t="s">
+        <v>859</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>861</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>862</v>
+      </c>
+      <c r="J108" t="s">
+        <v>863</v>
+      </c>
+      <c r="K108" t="s">
+        <v>864</v>
+      </c>
+      <c r="L108" t="s">
+        <v>865</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
+        <v>866</v>
+      </c>
+      <c r="O108" t="s">
+        <v>87</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>1</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>2</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>867</v>
+      </c>
+      <c r="X108" t="s">
+        <v>868</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>870</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>871</v>
+      </c>
+      <c r="J109" t="s">
+        <v>872</v>
+      </c>
+      <c r="K109" t="s">
+        <v>873</v>
+      </c>
+      <c r="L109" t="s">
+        <v>874</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>2</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>2</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>876</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>877</v>
+      </c>
+      <c r="J110" t="s">
+        <v>878</v>
+      </c>
+      <c r="K110" t="s">
+        <v>879</v>
+      </c>
+      <c r="L110" t="s">
+        <v>880</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>881</v>
+      </c>
+      <c r="O110" t="s">
+        <v>62</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>883</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>884</v>
+      </c>
+      <c r="J111" t="s">
+        <v>885</v>
+      </c>
+      <c r="K111" t="s">
+        <v>886</v>
+      </c>
+      <c r="L111" t="s">
+        <v>887</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>888</v>
+      </c>
+      <c r="O111" t="s">
+        <v>53</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>889</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>890</v>
+      </c>
+      <c r="J112" t="s">
+        <v>891</v>
+      </c>
+      <c r="K112" t="s">
+        <v>892</v>
+      </c>
+      <c r="L112" t="s">
+        <v>893</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="s">
+        <v>894</v>
+      </c>
+      <c r="O112" t="s">
+        <v>103</v>
+      </c>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>3</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>3</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>895</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>896</v>
+      </c>
+      <c r="J113" t="s">
+        <v>897</v>
+      </c>
+      <c r="K113" t="s">
+        <v>898</v>
+      </c>
+      <c r="L113" t="s">
+        <v>899</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="s"/>
+      <c r="O113" t="s"/>
+      <c r="P113" t="s"/>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="s"/>
+      <c r="S113" t="s"/>
+      <c r="T113" t="s"/>
+      <c r="U113" t="s"/>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>901</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>902</v>
+      </c>
+      <c r="J114" t="s">
+        <v>903</v>
+      </c>
+      <c r="K114" t="s">
+        <v>904</v>
+      </c>
+      <c r="L114" t="s">
+        <v>905</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2</v>
+      </c>
+      <c r="N114" t="s"/>
+      <c r="O114" t="s"/>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="s"/>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>906</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_627.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_627.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1016">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>N4595KRricharde</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I had some business over in Pasadena and this was the only thing available on a holiday weekend. Being a Redicard member I booked here.Rates were "reasonable" in comparison with other chains charging 1.5 to 2x as much. The motel is a garden-style motel, pool in the center of the complex with most rooms facing inward, two floors one elevator, etc.Checkin was quick, the staff were helpful. Plusses. Located near groceries, shopping and restaurants. You can walk to a number of restaurants here. So you don't have to worry about not finding any meals. Room was very clean and neat.All staff are very helpful and kind, and they are quite happy to help you out.Minuses. Well its a budget motel so it shows its age. However, though the outside looks a bit dated and shopworn, they tend their landscape very well and the lobby is nice and clean as are the rooms. Its a little hard to find it because you're almost instantly drawn to the Extended Stay motel rather than the Redroof which is farther back on Village Court drive. So what you do is you go to the left towards the Lowe's and keep going you'll see the entrance.Accessibility:Overall its located near the Interstate which can get noisy but the room windows are well insulated so the noise inside is to a minimum.For the money its a good deal.More</t>
   </si>
   <si>
+    <t>morenosid68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r580540768-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -214,6 +220,9 @@
   </si>
   <si>
     <t>My wife and I are truly impressed with how professional the staff is here at red roof inn San Dimas , a special thanks to front desk Rafael, maria,Nicholas, and the maid staff . Thankyou for making our stay a very pleasant one thankyouMore</t>
+  </si>
+  <si>
+    <t>Anabel319</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r579089505-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
@@ -236,6 +245,9 @@
  I had reserved the king bed room, and upon check out I was asked what floor I preferred and was shown on a map where all the available rooms were located. I appreciated this because I like to park my car in close proximity to my room. I picked a corner room and it was very spacious. It was very simple but clean, so it was good enough for me. The room had a bathroom with a toilet and bath/shower inside, outside the door was a sink with a lot of space to place my hygiene items. There was a closet...I attended a wedding in Glendora and this was the closest, least expensive, with decent to good ratings for a hotel. The hotel is located ALL the way in the back of a shopping center. The set up is really strange and it seems to have just enough parking, and if you can't find parking on property you can park in the shopping center. The reviews I read before my stay stated there were a lot of sketchy people roaming and that cars have been stolen. It had me a little worried, but I made sure not to have anything valuable in my car. There were people roaming  around the hotel all day and night, but I just assumed they were guests staying at the hotel. I saw a security guard at night doing rounds so that was reassuring.  I had reserved the king bed room, and upon check out I was asked what floor I preferred and was shown on a map where all the available rooms were located. I appreciated this because I like to park my car in close proximity to my room. I picked a corner room and it was very spacious. It was very simple but clean, so it was good enough for me. The room had a bathroom with a toilet and bath/shower inside, outside the door was a sink with a lot of space to place my hygiene items. There was a closet area where you could hang your clothes. There was a large mini fridge, desk space, drawers, and a TV. They have a pool but I didn't use it, but there were always people in it morning or evening. They have 3 vending machines on the property but none of them were in working condition, when I notified the front desk they offered me water bottles which worked perfectly. More</t>
   </si>
   <si>
+    <t>twobuttes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r568536769-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -263,6 +275,9 @@
     <t>One person I spoke to in the parking lot told me he was waiting for a ride because his SUV had been stolen from the motel parking lot. This was our second motel where we encountered stories of stolen vehicles. Security problems? Red Roof Inns are starting to get a bad reputation so in the future I guess I will have to up my motel budget a little. The desk help was friendly and the ice machine worked but the room had a mildew smell. It is close to restaurants within walking distanceMore</t>
   </si>
   <si>
+    <t>Kathie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r566560064-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -287,6 +302,9 @@
     <t>Don't panic when you drive in, the parking and the people in the parking lot will scare you and you will want to run.  If you can get past the parking lot the room was clean and served the purpose - a place to stay.  Be warned though, the people in the area are smoking (and some are smoking cannabis).  There are butts, trash and dog droppings everywhere on the grounds.  Some of the smoke smell will get into your room.  I would not stay here if I had younger children or teenagers with me.  The room was sold as an recent remodel so I have no idea what the older rooms look like.  The room itself was clean, the bathroom was clean and functional.  The knob to choose between the shower or tub did not work so to fill the tub you had to hold it in place.  The bottom line for me is that it was a place to stay while attending an event at the Fairplex.  The cost is lower than other hotels in the area.  It is your choice.More</t>
   </si>
   <si>
+    <t>magcar68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r559823408-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -314,6 +332,9 @@
     <t>Easy access to/from interstate and convenient distance to Pomona Fairplex. Good neighborhood with shops and restaurants. Clean and spacious room. Good wi-fi connection. Good resupply of complimentary items.More</t>
   </si>
   <si>
+    <t>Gustavo S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r553302755-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -341,6 +362,9 @@
     <t>My stay at the red roof inn was excellent. The customer service was amazing right when I stepped in the doors. Celene helped us the whole time she was super friendly and helpful. It was just great all around the location it’s in the nice and quiet the room we got was very nice and we had no problems at all.More</t>
   </si>
   <si>
+    <t>Molly H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r552310174-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -365,6 +389,9 @@
     <t>The quality for the cost is exceptional. Typical Red Roof, rooms are clean and spacious. Maria and Lisa are exceptional employees ensuring to go above and beyond to leave their guests satisfied and a feeling of importance. Both are always happy to assist, outgoing,  and personable. Good employee attitude is what keeps my family coming back to this location. More</t>
   </si>
   <si>
+    <t>Bencedez2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r551615183-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -389,6 +416,9 @@
     <t>Decided to stay here while attending the Rose Bowl cause price was good and only 30 minutes away from the stadium, wow did I choose wrong. 1st there's people just hanging out all outside doesn't feel safe. 2nd our room stunk like old cigarettes and mold. Went to target to get frebreeze but that didn't help. 3rd we booked our room for 2 adults and 2 kids but there was only 2 towels. Went and got more but even after the 1st day they would leave 2 towels knowing dang well there's 4 people staying. But if you are reading this if you don't mind lower end motels and unsafe feeling then this is the place for you. More</t>
   </si>
   <si>
+    <t>Quadyak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r547568015-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -416,6 +446,9 @@
     <t>Rated it average but only because there is not a "better than average" rating between average and very good. Worked good for us for a one nighter in San Dimas. There was three groups traveling together and it worked for us. Nice clean rooms and a nice clean front lobby. Staff was nice too. No issues. Have stayed here once before and would stay again if needing another stay in San Dimas.More</t>
   </si>
   <si>
+    <t>Courdor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r545103011-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -440,6 +473,9 @@
     <t>I stay at this location quite often and Maria has made every experience easy, fast and worthwhile. The location is clean and around lots of shopping centers and freeways. The rooms are pretty large compared to the motel 6 nearby and you can earn free nights eventually with their loyalty program. More</t>
   </si>
   <si>
+    <t>Dlanc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r545043843-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -467,6 +503,9 @@
     <t>This is my second time staying at this Red Roof Inn. The hotel staff are friendly and helpful. Their rooms are well maintained and very clean; everything worked as it should. On my first stay they were remodeling some of the rooms. On this stay they were completely redoing the landscape. It seems management cares about their business to continually update/upgrade their facilities. I did not get in the pool or hot tub (other hotel guest were) but both were clean and working.  I would recommend this hotel; they have set the bar for affordable, clean and a nice hotelMore</t>
   </si>
   <si>
+    <t>deborahhenderson70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r544520651-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -491,6 +530,9 @@
     <t>It has been a little bit of a challenge due to a few room issues..but...the staff has  made the issues disappear and have helped a lot. MARIA helped me change rooms, was polite and professional.(I had a lot to move when I transferred rooms). Thanks MARIA you are what an employee should be like!!!!!.  One night, another front desk staff, JUAN..addressed AN issue professionally and quickly resolved a incident OUTSIDE. A BIG thanks to LYDIA, who went beyond her job description and resolve the room issue. It took 2 days, but, the understanding, cheerfulness and professionalism was great.There can be issues at any hotel, but the way the staff resolved it, awesome!!!  STAFF GETS A BIG TEN IN MY OPINION!!More</t>
   </si>
   <si>
+    <t>William "Baja B... F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r544477540-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -501,6 +543,9 @@
   </si>
   <si>
     <t>Renovated rooms are sweeping this facility!  Makes staying here that much more attractive and worth the visit!  Staff is still the same; efficient and helpful-no turnovers means these folks love working with the owners and us GUESTS!</t>
+  </si>
+  <si>
+    <t>chrissyrmchrissy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r544037066-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
@@ -535,6 +580,9 @@
 When maintenance first got there, I felt as if he thought i placed the water there because he wiped it up...Check in was weird. I arrived a bit earlier than the check in time and was told that i couldn't check in because the room was still occupied. I kind of felt like the clerk was lying, but didn't really press the issue because i, too, work in hotels. I definitely would have appreciated it WAY MORE if she just said that it was too early and that check out time was whatever time it was.Initially walking into the room, it smelled like someone had smoked in it. But not something that would completely turn me away. The beds were extremely comfortable.However, when i went to go use the bathroom, i noticed there was tissue in the toilet.. so i flushed it. The toilet flushed extremely slowly and would later bring things back up which was gross. When i walked over to the sink to wash my hands, i stepped in a huge puddle of water. I thought maybe there was a pipe that was leaking but when i checked, it seemed to me it was coming from the wall. My boyfriend and I tried to just put a towel down and ignore it, but that wasn't working. I went to the front desk to let the agent know. He was extremely apologetic. He sent maintenance over.When maintenance first got there, I felt as if he thought i placed the water there because he wiped it up and told me there was no leak. I told him i know it wasn't coming from the pipes. After trying to explain (there was a slight language barrier), we both noticed that when he pressed down on the wood flooring, water came from underneath it.It was EXTREMELY gross to me. For one, no one wants to walk in to a puddle of water in their hotel room... Two, I was never 100% sure it was water.All in all, i felt my experience wasn't that great BUT Juan at the front desk was AMAZING. He offered to move my room and even offered me a discount. I was so grossed out that i wanted to leave so he granted me a refund. I don't think i'll ever stay there again, but if i do, it's definitely because of Juan's outstanding customer service. Definitely a great asset to the team.More</t>
   </si>
   <si>
+    <t>Arica J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r535345012-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -562,6 +610,9 @@
     <t>We Enjoy this Hotel very much!!! This Hotel is, very clean, spacious, comfortable and close to everything!!!! Marie is one of the Front Desk Reps., that We have been Lucky enough to Connect and Bond with,  in a Way that makes Us come back to this Hotel. Her and Lydia,  are truly the reason we are here as often as Possible. Thanks for there Professionalism, yet Friendly ways to make Us feel Special!!!! More</t>
   </si>
   <si>
+    <t>Amanda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r532621115-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -586,6 +637,9 @@
     <t>I've stayed at many hotels, and this is by far the worst ever! Absolutely Nothing was clean: the counters were stained black, bathroom floor was not mopped (gross) the microwave and fridge had grimy dirty fingerprints indicating that it had not been clean, the comforter had a piss (or bodily fluid) stain indicating that it was not clean, the room stunk like dead mouse, the bathroom looked like a gas station bathroom. Just horrible. The only plus was the bed sheets appeared clean, mattresses were comfy, and I did not get bit by any bedbugs. Never again. Just no.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r529175427-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -613,6 +667,9 @@
     <t>I just want to say thank you again to all the wonderful staff that always takes care of me when I'm in town on bisiness. From the 2 managers to the awesome front desk staff, and how can you forget the wonderful housekeepers and maintenance personnel. The garden area is well kept and for only staying here 3 times a year, there is always a Beautiful feel of comfort here. Thank you again to all your wonderful staff. See you all again in a few months. More</t>
   </si>
   <si>
+    <t>kerilcarr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r508586020-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -640,6 +697,9 @@
     <t>I found myself in quite the predicament yesterday night when I arrived back to my room &amp; realized I did not have my key card to get back into my room. I thought I was most definitely out of luck considering that the room was not reserved under my name &amp; I.D. card... And not just that, but the person who DID book the room was not there, and my phone was dead, so I had no way of contacting them to make them aware of my situation. Fortunately for me, there was a very helpful &amp; kind employee at the front desk to assist me! ( Maria Ramirez....you are an angel!! ) She took time out of the tasks she was currently handling to help me. I explained my sotuation, and rather than shut me down &amp; tell me I was out of luck, she went out of her way to to look up my friends phone number for me that he left when he booked the room (which she was in no way obligated to do), call them &amp; contact them, confirm that I was indeed approved to be in the room he booked, &amp; quickly provided a brand new key card so that I could get inside the room and be comfortable. ( It was at least 85 degrees out and very humid....) I was very relieved to be back in my clean, comfortable room with killer...I found myself in quite the predicament yesterday night when I arrived back to my room &amp; realized I did not have my key card to get back into my room. I thought I was most definitely out of luck considering that the room was not reserved under my name &amp; I.D. card... And not just that, but the person who DID book the room was not there, and my phone was dead, so I had no way of contacting them to make them aware of my situation. Fortunately for me, there was a very helpful &amp; kind employee at the front desk to assist me! ( Maria Ramirez....you are an angel!! ) She took time out of the tasks she was currently handling to help me. I explained my sotuation, and rather than shut me down &amp; tell me I was out of luck, she went out of her way to to look up my friends phone number for me that he left when he booked the room (which she was in no way obligated to do), call them &amp; contact them, confirm that I was indeed approved to be in the room he booked, &amp; quickly provided a brand new key card so that I could get inside the room and be comfortable. ( It was at least 85 degrees out and very humid....) I was very relieved to be back in my clean, comfortable room with killer air conditioning! A few minutes later, the telephone for the room rang, &amp; when I answered it, I was pleased to find out it was Maria, calling to make sure I made it in the room ok. How sweet is that?! It is customer service like she showed that makes me want to continue doing business with this hotel &amp; booking rooms there! She also provided me with a small partial refund in the morning because I was awoke by maintenance hammering while making repairs to the hotel... (They were DIRECTLY above my room on the roof.) The partial refund was very appreciated, especially since again, there was no obligation for them to do so. FYI: Technically, hammering/working on the roof is actually a good thing, because thay means they are attending to any issues there might be or repairs/updates necessary... All in all, I have nothing negative to say about this hotel or the staff... The entire staff is friendly, and the hotel is well kept, with clean smelling, sanitary rooms that include a fridge &amp; microwave. (AND FREE WIFI!!) Also, the hotel is kind of secluded on the property... It is located in a back corner, away from the main traffic &amp; because of this, it feels more private &amp; secluded than most hotels... I definitely recommend to anybody looking for a quiet, peaceful, clean hotel to stay for whatever length of time they are looking to be away from home! And thank you again Maria Ramirez for your outstanding customer service &amp; going above &amp; beyond what is required of you to accomodate me during my stay!!More</t>
   </si>
   <si>
+    <t>sybsk5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r507500352-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -667,6 +727,9 @@
     <t>So we booked this hotel due to its proximity to the several baseball venues for our tournament. It certainly fit our budget. The hotel is centrally located, right next to the hwy, plenty stores and restaurants nearby.The room adequately sized with microwave and fridge.No amenities, a pack of kleenex, micro containers of shampoo.Yucky showercurtain, barely covering the shower/bathtub.Sheets on bed cheap and thin.And in the bathroom one sink, one mirror which is 2 feet from the nearest plug.Had to bend to somehow see what I was doing with my hair whole drying ot.The garden area is nicely kept, beautiful hibiscus and rose bushesPool was nice, hottub available but turning greenish in color.Some of the clientele seemed questionable. One offered my son some pot, another was 'recycling' through several garbage cans, another offering to wash our windows, asking for money. While I am fully aware of people's hardship, I don't necessary want to be confronted on hotel grounds.I did see a security guard last night and he assured me our safety.PD was still present a few days in a row.Would I stay again? No.However, I do commend the staff, very pleasant and apologetic.Wish for their sake management would just clean up the place.It could really be a pleasant hotel.More</t>
   </si>
   <si>
+    <t>Denise T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r507428901-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -682,6 +745,9 @@
     <t>I booked this hotel because it was close to Raging Waters. The hotel seemed like it would be nice, but it wasn't. There were lots of guys hanging out everywhere and it did not feel safe. Our room smelled like cigarettes and urine and we found nail clippings in the bathroom. The cleaning staff did not do a good job cleaning our room. We complained to the guy at the front desk and he gave us a key to check out another room. That room also smelled like cigarettes and urine. Instead of nail clippings, we found long strands of hair on the bathroom floor. We let the guy at the front desk know, but we kept the room we had with the nail clippings. If I ever visit Raging Waters again, I will NEVER stay here. NEVER!!! I don't want to feel like I have to sleep with one eye open at night or that bugs are crawling on me. Very sketchy place.More</t>
   </si>
   <si>
+    <t>Jim M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r500317607-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -704,6 +770,9 @@
   </si>
   <si>
     <t>When we checked in there were two bags of trash on the grass in front of our room.  The front desk said housekeeping was gone but they would handle.  It was still there in the morning.  I feel they didn't really care about the situationMore</t>
+  </si>
+  <si>
+    <t>AuthorCMelanson</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r500082720-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
@@ -731,6 +800,9 @@
 When I came to check in, I was two hours early, but they let me check in early. I let them know my friend wasn't coming in case they needed the room with two beds for others and they gave me a great king bed room at no additional cost. I explained that my knee was hurt and why I needed a first-floor room or elevator and they gave me one just around the corner from my car. Getting all my stuff inside was so much easier. They did everything they could to accommodate me. I unloaded and was off to...I left another hotel I'd stayed in two nights before where there was no elevator and no help for a woman alone with a joint condition lugging numerous boxes up two flights of stairs. What a difference when I came to the Red Roof Inn. I really wished I'd stayed here all three nights and definitely will make it my choice when in California again.I chose this hotel because my friend was supposed to be joining me, but she ended up flying in a day later. The hotels were prepaid so I did the switch anyway and was glad I did. The previous hotel had very spotty wifi, a tolerable bed and I had to lug all my boxes of book and promo items up two flights of steps (drove from Ontario to California for a book signing).When I came to check in, I was two hours early, but they let me check in early. I let them know my friend wasn't coming in case they needed the room with two beds for others and they gave me a great king bed room at no additional cost. I explained that my knee was hurt and why I needed a first-floor room or elevator and they gave me one just around the corner from my car. Getting all my stuff inside was so much easier. They did everything they could to accommodate me. I unloaded and was off to Six Flags again.When I got back, that bed was so comfortable after the less comfy one from before. Great pillows and lots of them. Reading lights on the wall over each side of the bed. Awesome tv. Great wifi and I needed that being from Canada and having trouble with my roaming and carrier in the States.I stopped and got cream to put in the fridge so I could make coffee in the room the next morning, and it was really good coffee. There was a luggage stand again for easy access to suitcase contents. Nice bathroom and the whole room was just so clean and comfortable. Loved the tv (I'm a tv sleeper), and the A/C kept the room nice and cool.The staff were all so nice and the bed so comfortable. The hotel was quiet and I felt safe on the property. I would definitely stay here again!More</t>
   </si>
   <si>
+    <t>demoneye</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r488326247-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -758,6 +830,9 @@
     <t>Decided to take a trip to the Los Angeles area to show the exchange student that we were hosting some of the great tourist sites that Los Angeles has to offer. The hotel stay was not one of memorable moments of the trip as the room looked dirty, bed was uncomfortable and there were a few other issues with the stay. The hotel advertises wi-fi and we couldn't access the internet and both my wife and I are grad students where we needed to have access to our classes to post discussions.More</t>
   </si>
   <si>
+    <t>klmchaffin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r485778983-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -785,6 +860,9 @@
     <t>The only reason I gave this dump one star is because they are pet friendly, which seems to be a rarity in this stretch of the 210 corridor. It was barely adequately clean and I was alarmed to discover in the AM that the fitted sheet had been put on inside out. The TV didn't work (that I could figure out) and the free wi-fi network was unsecured. BlechMore</t>
   </si>
   <si>
+    <t>Catherine O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r484783876-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -800,6 +878,9 @@
     <t>I've recently had several stays at the Red Roof Inn and I am SO pleased!  I require pet friendly hotels, and I am impressed that they don't charge an extra fee for that.  The rooms were beautifully appointed and newly renovated.  The hotel staff couldn't have been more helpful.  It is a tremendous value and I will always look for a Red Roof Inn where ever I am traveling.</t>
   </si>
   <si>
+    <t>Sandra G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r482710807-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -818,6 +899,9 @@
     <t>This hotel is hidden away from roadside view but because of its location, one experiences a nice quiet stay.  I've stayed here a couple of times and I believe most of the rooms have been renovated a while back.  It is not a bare bones hotel but it also is not a luxury hotel.....good clean rooms and very nice staff.  Good value for the area...especially if you are looking for a place to rest up for the next day of activities.  Plenty of parking is available.More</t>
   </si>
   <si>
+    <t>AliciaFjeld</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r472783718-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -836,6 +920,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Jeff H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r469677178-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -854,6 +941,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Barry B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r463807311-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -887,6 +977,9 @@
     <t xml:space="preserve">The rooms are clean and large for the price. Some are better equipped than others with a mini fridge (all of them I believe) stove stop, microwave etc. better value than the holiday inn etc. the front desk is very very kind and helpful. Sign up for their rewards program and you can earn free nights unlike motel 6. </t>
   </si>
   <si>
+    <t>Jose L H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r449716082-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -905,6 +998,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>armendarizmario</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r449449924-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -920,6 +1016,9 @@
     <t>I really enjoyed my stay here at the Red Roof Inn, Maria Ramirez at the front desk was really helpful and friendly and our room was awesome had great on demand cable. It was really nice and peacefully. everything was remotely close food and other shopping plazas.  I would definitely stay here again.</t>
   </si>
   <si>
+    <t>RPGLLP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r441475100-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -935,6 +1034,9 @@
     <t>A FANTASTIC General Manager &amp; FRIENDLY Front Desk Staff plus 1ST CLASS Maid Service set this RR Motel apart from others in this price range .Fair Reasonable Rates &amp; Comfortable Rooms with plenty of hot water ample parking &amp; a super clean pool w/Jacuzzi  top off the lists of reasons to assure you will enjoy your stay. The worlds slowest Wi-Fi and a couple of employees not in sync with the other staff mar this review from receiving an otherwise perfect score</t>
   </si>
   <si>
+    <t>Dave M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r439976804-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -953,6 +1055,9 @@
     <t>I've been in lots of hotels over the years, but without a doubt, this is one of the worst I've experienced in the states.The carpet is extensively stained. The bedding was stained. The ceiling is water stained and needs repainting. Both the front door and the bathroom had lots of dirty hand prints. The sink did not drain.I mentioned this to management and they offered me a new room, but I did not feel comfortable with them moving all my stuff as I needed to be gone all day.But the offer to change aside, how does a national chain sell a room like this? I saw cats inside windows of rooms and the general impression driving up was that I was in for a bad experience. Sadly, that proved to be true.More</t>
   </si>
   <si>
+    <t>HaiAfterREhab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r421797713-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -971,6 +1076,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>ciaogigixo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r416724825-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -986,6 +1094,9 @@
     <t>Rude service, mainly by the manager Lydia. She curses in front of customers, she makes you literally jump through hoops for any type of service you want. And the hotel is gross. The smell of cat pee XXX</t>
   </si>
   <si>
+    <t>Callie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r412536978-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1004,6 +1115,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>essence0five</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r408030687-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1022,6 +1136,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Damon C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r388847825-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1049,6 +1166,9 @@
     <t>So we arrive to red roof inn after  a 6 hour flight. Check in time is 3pm. It's 3:30 and they don't have any rooms ready. They offer to take my cell number so they can call me when a room is ready. Really????I demand a cancellation and refund and they give it to me without hesitation and no apologies or anything! They're joking around with each other behind the counter as if nothing bad has happened. So clearly,  they don't  care. UNBELIEVABLE!! DON'T.......GO.......THERE!More</t>
   </si>
   <si>
+    <t>Sdstrbr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r382801442-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1073,6 +1193,9 @@
     <t>A little hard to find, back of a large shopping complex (a PLUS) tucked back by the freeway. When we drove in, there were three patrol cars in the lot, parked as if at a call, which was a teeny bit disconcerting, LOL.  Nothing serious appeared to come of it so we were fine.... Clean property, very dated rooms, appear to be clean but certainly could use a paint job and a bit better cleaning in the tile floor corners.  Has amenities, microwave (very small and old but works), fridge worked well and both were very clean.  Pool appeared to be clean and the area was nicely kept, a great addition.  Did not get a chance to use but love that it was there and cared for.Although we did not bring pets, they are very pet friendly, and many people had them.  I saw nothing in our room indicating there had been pets, but they do use a VERY strong room freshener, which takes some time to dissipate or get used to.  No pet hair or stains, so they must work at that.   I would consider it again if I needed a fairly budget lodging, but for me, I'll try to trade up a little, just to feel a bit, well, special.  As clean and decent as this was, not quite me.... but a great place for a family on a budget.More</t>
   </si>
   <si>
+    <t>Technia J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r375498977-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1094,6 +1217,9 @@
     <t>I live 10 miles from the red roof and when possible I always stay here. I've never had any problems here its clean and quiet. The staff is very friendly. Maria and Leslie went not only out of their way to help me but when my day was bad I came here and they turned my day completely around. More</t>
   </si>
   <si>
+    <t>AdventurerWithDogs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r364034402-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1112,6 +1238,9 @@
     <t>First time I've ever had something stolen out of my room: my container of vitamins and supplements, which were not in the original packaging so I'm sure looked like 'drugs'. $100+ worth. Reported it to management and after two phone calls to them, the manager said, 'well, we've looked and looked but just don't see it.' OF COURSE THEY DON'T--it was stolen.It's one of the skeaviest hotels ever. One morning someone had cut off their hair complete with braids and corn rows and left it on the strip of lawn in front of the door. One guy had his "Beware of Dog" sign permanently displayed in his front window. The photo of the hair makes me want to vomit.I will never stay there again. More</t>
   </si>
   <si>
+    <t>IdahoOhana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r352364465-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1130,6 +1259,9 @@
     <t>We drove 12 hours from Idaho to visit family and theme parks. Thank you to Jill at the front desk she is very helpful and does a great job!! Room service is great!  My kids and I enjoyed the hot tub and pool especially after a long day at Universal Studios. If you are looking for a great place to stay Red Roof Inn is the place.  Check it out if ever in San Dimas, California.More</t>
   </si>
   <si>
+    <t>100dolphin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r349305956-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1151,6 +1283,9 @@
     <t>The service was very sweet, and the room was fairly clean, but there were a few problems that we made us feel a little uncomfortable. First of all there were some sketchy characters that wandered around the hotel parking lots which didn't make me feel very safe. It was kind of noisy, we could hear the people outside who were unloading their car and other various sounds while listening to the TV inside our room. And there was also the bathroom which was awkward to navigate. Other than that the price was good and the beds were comfy along with the wifi.More</t>
   </si>
   <si>
+    <t>duane833</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r345619127-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1172,6 +1307,9 @@
     <t>Good location. Close to some shopping and restaurants. It was easy to get to. Beautiful courtyard. There were transients and homeless people walking around in the area.  Most of the staff was friendly and helpful except for one that was rude to my husband at the front desk(Lisa). The room was clean and average for the most part.  We were supposed to get a completely renovated superior room as stated on the reservation, but our room was only partially renovated and could have used a good paint job. Room smelled old when you walked in. Floors/carpet needed to be replaced/upgraded.  Nothing to brag about. We chose it because it was close to relatives we were visiting.  Doubtful that we will stay there again.More</t>
   </si>
   <si>
+    <t>Tiki T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r341242901-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1190,6 +1328,9 @@
     <t>Great place to hang your hat!  Jill is awesome and accommodating, free wi-fi, fridge, they are updated, great location, coffee-maker, and the price is great for extended stays too!  Right in the heart of San Dimas' restaurants and shopping.  More</t>
   </si>
   <si>
+    <t>Joey B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r338794742-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1211,6 +1352,9 @@
     <t>Pleasant stay.friendly staff as expected.although I am writing this because of one individual whom provided outstanding customer service.So I do want it noted that the night desk person Jill went far beyond normal services usually performed by the normal desk person .very helpful and kind.this is my second two week stay in the past three months and I was impressed by her professional and kind performance.sincerely JOSEPH BernardoMore</t>
   </si>
   <si>
+    <t>Danielle M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r330325305-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1232,6 +1376,9 @@
     <t>This is a late review from Summer. We were traveling for Central Ca to Victorville and were too tired to make it. This is a good location if you are visiting multiple towns in the area. Close enough to attractions, yet far enough away that you don't have to pay outrageous prices for weekend rates.  Shout out to Anne. She was my angel when we were too tired to think. She made the process fast and easy.More</t>
   </si>
   <si>
+    <t>MaureenH_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r327167491-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1259,6 +1406,9 @@
     <t>We had our doubts after reading reviews but we were quite pleased with our stay. It was very clean and quiet and the bed was comfortable. The room was a good size with everything we needed. The young lady at registration went out of her way to find us a room on the ground floor. There was a bit of an odd smell we noticed when we first walked in - but the building is old. At least it wasn't smoke!! The shower head left a lot to be desired as well but one can live with that.More</t>
   </si>
   <si>
+    <t>Donnie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r325906379-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1283,6 +1433,9 @@
     <t>This is the greatest Red Roof Inn that I have ever stayed at. This place out shines the others, the staff is great. I love these rooms and the grounds outside of the rooms. When I go to other Red Roof Inns I an disappointed because they are not like this one.More</t>
   </si>
   <si>
+    <t>Jim A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r296921547-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1307,6 +1460,9 @@
     <t>For a inexpensive option, this property is hard to beat.  I have stayed around the corner at the Best Western a couple of times and other than the breakfast service, there is not much difference.  Clean, spacious room.  I booked the king size bed, recently renovated, room.  When I made my reservation it was an option at the same price as the non renovated room.  Includes hair dryer and iron w/board, something not found in Motel 6 properties.  Several national chain restaurants very close by.  Sizzler, Red Robin, Denny's, IHOP, as well as fast food outlets.A good choice for those on a budget but want something a little better than Motel 6.More</t>
   </si>
   <si>
+    <t>briensreviews</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r293513778-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1346,6 +1502,9 @@
     <t>I would also like to add Lydia, the manager and the owner for the fine hospitality they provide. I can think of no better place that is economical and provides such kind, service for your dollar. You have my recommendation to make reservations.More</t>
   </si>
   <si>
+    <t>xspechtme</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r273450504-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1373,6 +1532,9 @@
     <t>This was a good place to stay at a reasonable nightly rate. The rooms have been remodeled. Free Wifi. The bed was comfortable. Close to the freeway so you can get where you need to go. A couple of restaurants in walking distance. The staff was very nice. I'd stay there again. More</t>
   </si>
   <si>
+    <t>Gina M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r270420259-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1397,6 +1559,9 @@
     <t>I had a wonderful stay at this Red Roof Inn.  The room was large, clean and comfortable and the staff were all friendly and very helpful.  I especially appreciated Lisa -front desk AM-  she was so friendly and helpful and made sure the pool was open on time every morning so I could have my coffee by the pool.  I highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>BlkRaven2u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r269340918-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1424,6 +1589,9 @@
     <t>We recently stayed here for a week while visiting family.  Rooms were clean and the beds comfy.  The flower lined courtyard area is nice and the pool and hot tub clean and nice.  Staff were super nice.  This is a no frills type of place but that's ok because you do have coffee, a fridge and a microwave in the room.  Would definitely stay here again because the price allowed us to spend our money on fun vacation stuff and not on hotel fees!  Also, it is super easy to hop on the highway from here and you are also right next to some good shopping spots.More</t>
   </si>
   <si>
+    <t>Mark P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r259809982-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1451,6 +1619,9 @@
     <t>this place is so family friendly. every member of the staff was happy to get or do whatever they needed to do to make our stay the best it could be. the rooms were clean and nicely kept. pet friendly, nice pool, ground are clean and well kept. centrally located. many stores and restaurants  within walking distanceMore</t>
   </si>
   <si>
+    <t>Eddandy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r259179853-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1469,6 +1640,9 @@
     <t>I want to just let everyone know that you can get a fair deal for your buck at the Fairplex Red Roof Inn. The overall stay was nice but when it comes to customer service and helpfulness there's no better than Jill Wallace she is the epitome of what a hospitality employee should be! Always pleasant and always goes that extra mile to make your stay that much more pleasant! I would recommend anyone to stay there that's looking to have a good pleasant stay away from home!More</t>
   </si>
   <si>
+    <t>Cara H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r258857111-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1493,6 +1667,9 @@
     <t>I am a 10 + year visitor.  I was so impressed with my last stay. The staff go out of their way to make you comfortable. The location is so convenient. I feel safe and I know there is no better value in the area. I can't wait till my next visit!More</t>
   </si>
   <si>
+    <t>Tracie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r251348924-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1520,6 +1697,9 @@
     <t>First off. I would stay here again!  For the price it was a decent place to stay and can see they are making improvements and upgrades. A bunch of us stayed during the Grand Nationals Car Show at the Fairplex. This hotel is just down the street and it was in a great location, close to other stuff such as; the fwy, shopping, entertainment and restaurants. We were able to see an upgraded room which was pretty nice, however, it was our friend's room. We got an older room which was a little dirty since it has the popcorn ceiling and painted over wallpaper, LOL. Parking was a little tight, but it was a super busy weekend with the car show and all.  BUT... If your not real picky or a germ-aphobe, and would like to use your $ on your actual vacation and not the Pricey Hotel, this is the place. The rooms were clean (just not sterile).or sanitized like some people would expect. The pool and hot tub was nice, the beds were comfortable, shower was nice, our room had a full size fridge and microwave as well. It looked like they had some 'monthly' renters, but they were respectful. We had 'Not so Bright' towels, some cobwebs in the high corners, and a dusty popcorn cieling to deal with, but that was it. Like I said, We will stay there again.More</t>
   </si>
   <si>
+    <t>my72charger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r246358089-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1544,6 +1724,9 @@
     <t>Ant problems with room or surrounding the staff tskes care if it. Thsnks red roof staff. I get a room even during yhe holidays. And if i take room nor realy wanted they give me a rate for the room that is great ad well. O thank the red roof staff for all my needs an accomidation taken care of . As thought i am VIP. Once again thank your the cllean rooms and the great service. To nsme a couple. Lydia and Lisa great personal here......More</t>
   </si>
   <si>
+    <t>Michelle W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r244624456-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1565,6 +1748,9 @@
     <t>I was sent to San Dimas from Chicago for work and stayed at the Red Roof Inn in San Dimas, CA for three weeks.  I chose this hotel because it was the only hotel in the area that fit in my very low budget.  I truly thought I would pull into a dumpy hotel...I could have not been more wrong!!  This hotel has been one of the very best hotels I could have chosen....and will/would stay here again, even if my budget allows for a higher paying hotel!!  As a woman traveling alone, I could not have asked for a cleaner, safer hotel with a friendlier staff!!  Ana at the front desk was so kind, Aqualina in housekeeping was also extremely kind, and it eased my homesickness!!  The room was clean and comfortable - with a large room, desk to work at, a large dressing area, fridge and microwave...made it feel very work friendly and comfortable!!  The convenience of everything around, either walkable or within minutes of a drive...food, malls, office supplies, made my work stay here great!!  I have NOT ONE negative thing to say about this hotel!!  . Thank you for an awesome stay...not only did I truly enjoy my stay in San Dimas...I really enjoyed my stay at this hotel!!More</t>
   </si>
   <si>
+    <t>Biffster1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r242309051-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1589,6 +1775,9 @@
     <t>My room was big!   It included 2 queens sized beds.  Very comfortable.  Also, there was a full sized fridge, microwave and a one burner stove. The TV was a 37" flat screen with 5 HBO channels and all the other channels that anyone would want.  5 Thumbs up!!!!!More</t>
   </si>
   <si>
+    <t>acrc11498</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r242086951-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1616,6 +1805,9 @@
     <t>I stay here frequently on business. I keep coming back due to the great customer service here.  Alex is a great help when I call to make a reservation and when I arrive.  Truly great customer service.  Highly recommend staying at the Red Roof Inn!More</t>
   </si>
   <si>
+    <t>KCoordt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r242030526-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1634,6 +1826,9 @@
     <t>I came here and stayed with a friend for HARD Day of the Dead at the fair plex. The room was super nice and comfortable. The bathroom was nice and big as well. Very clean,  staff was very polite and offered us Free Coffee and tea on the second morning of the festival to help with any hang overs. Room was reasonably priced. Parking was a little difficult but with the festival to be expected.  Also near a lot of fast food places that were open late which was beneficial after the festival. Would stay here again! More</t>
   </si>
   <si>
+    <t>artistpaul</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r230609056-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1661,6 +1856,9 @@
     <t>This was the second year we stayed here, this time two nights while we went to the L.A. County Fair.  The TV cable was out in our room and they could not get it fixed during our stay.  Modern technology, go figure.  They apologized and said maybe they could give us a discount, but then no, since I'd already paid for the room via Expedia so no discount.  Oh well.  Still at around $75 a night, this place is a favorite of mine.  The room was nice and big, clean, and we slept great.  I love the nice garden on the grounds and the pool and spa too.  Everyone who works there is very friendly and helpful.I definitely recommend this place when you go to San Dimas!More</t>
   </si>
   <si>
+    <t>991scottd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r230515706-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1679,6 +1877,9 @@
     <t>Arrived and went to check in and had to wait a long time while another customer was trying to change rooms because he was unhappy with his. Finally was able to check in and drive around to the side where our room was. While walking through the courtyard next to the building we could smell mold and smoke. Got in the room and it was filthy. Sticky, stained, grimy. Just yuck. Figured there was no point in trying to change rooms since the woman at the desk had just told the guy in front of us she was giving him the last room. Turned on the ac to attempt to clear the smell and cool the room. Got hit with the mold smell so strong we both almost gagged. We were originally going to pick up some dinner and bring it back to our room to eat, but there was no way we wanted to eat in that grime so we went to Del Taco and out to the longest movie we could find playing instead. Anything to avoid that room as long as possible. Came back late, slept on top of the covers as much as we could and got up early to get the hell out of there. Next time we'll pay the extra $30 for the Best Western. Never again for this place!More</t>
   </si>
   <si>
+    <t>Syllia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r228636662-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1703,6 +1904,9 @@
     <t>I love the red roof inn. Especially their staff.Lydia Anne Jackie Ana Lisa excellent job ladies. My family and I stayed for 28 days, we love it. Clean, courteous, genuine hospitality. Coffee all day and when there was a situation, they were quick to resolve the problem. The housekeepers are friendly and courteous.  S.GastelumMore</t>
   </si>
   <si>
+    <t>Gideon A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r217361368-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1730,6 +1934,9 @@
     <t>Not a bad place if you don't mind drug dealers, prostitutes and homeless people. The linen is adequate, the staff are conciliatory, housekeeping isn't bad unless you don't mind having the squashed remains of a cockroach stuck on your wall and what I hope was red wine stains on the carpet. There are a few good permanent residents living here, avoid this grumpy old guy named "Slim" because if he doesn't like you, he will put nails under your tires. Come in the Winter because the air conditioning doesn't work and the flies from all the dog leavings will come into your room if you leave your door open long enough. The pool is nice if you don't mind staphylococcus. But, all in all, it is a lot nicer than the woods between the "hotel" and the freeway where the homeless people live.More</t>
   </si>
   <si>
+    <t>henrythegreybeard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r215839007-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1754,6 +1961,9 @@
     <t>a group of old guys stay there when the la roadster show was on for about a week , they drove from all over the usa and came from countries such as australia the motel was clean and tidy  staff pleasant was great  location  plenty of eateries and services availableMore</t>
   </si>
   <si>
+    <t>camelman689</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r213689955-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1778,6 +1988,9 @@
     <t>Extremly Clean rooms pool and spa amazing court yard with roses nonsmoking great price friendly staff great rewards and great availability stayed four different times. Would deffinetly recommend to family and friends located right off of the 57 and has many restaurants and stores.More</t>
   </si>
   <si>
+    <t>nocaliman1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r202642232-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1805,6 +2018,9 @@
     <t>Great, neatly appointed rooms, nicely tucked away, near freeway, but pretty well soundproofed. Very friendly and helpful and professional staff. Anne was particularly helpful, and helped to make this a very nice stay. I will be back...More</t>
   </si>
   <si>
+    <t>dalproperties</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r198283546-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1832,6 +2048,9 @@
     <t>I love staying at this property.I'm a single women traveling alone on business a couple of times a month. I feel safe staying here as they have security and the hotel is set back off the main street.The hotel is centrally located to three counties and fwys.Also a real value for your money.Hotel mgr. Lydia is awesome she goes out of her way to welcome you.More</t>
   </si>
   <si>
+    <t>Darrell S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r193729872-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1859,6 +2078,9 @@
     <t>We stayed at the Red Roof Inn in San Dimas while attending the NHRA Winternationals last weekend. We've stayed there for many years and have always been treated well but our last stay was amazing. Two of our close friends decided to attend the races with us and rented the room next door to ours. They checked out on sunday morning and left for home right after the races on sunday. We stayed sunday night before heading home the next day as we had further to travel. On monday morning I received a call from our friends asking if we could check with the office, they thought they had left her purse in a drawer in their room.  I talked to Lisa at the check in desk and she informed me that Patty with housekeeping had turned the purse in. She also told me that they had tried to contact our friends without success but if I could reach them and get permission they could release the purse to us. I checked the contents in their presence at the check in desk and everything was there! Cash, debit card, ID, etc.  These Red Roof employees deserve such a pat on the back!  They are just amazing. Since we had to pass through our friends home town on our way home, we returned her purse that same day. It's so wonderfull to deal with honest, reputable people.More</t>
   </si>
   <si>
+    <t>Dejah H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r190329377-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1886,6 +2108,9 @@
     <t>Had  to pass by againn  stopped  by to visit some old freinds   the redroof in San Dimas ,,is still dirty,,,still has  homeless people wonering around,,sneaking all over the place,,some people had their cars keyed and damnaged ,,and heard  story of  a  long time resident  who   follows female guest around  to  molest them while the motel management and staff  do nothing to stop this problem,,they also have some  very skinny  maintenance man there  who  seems  to stand around smoking cigarrets  than doing work,,just how bad can it get,,,? not muchMore</t>
   </si>
   <si>
+    <t>LTNSA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r187587461-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1910,6 +2135,9 @@
     <t>Ok , where to start.. I work for the United State Government and had to be relocated to California, I found this Red Roof location on Craigslist as they were advertising for $199.00 a week, when I got there it was $305 and some change. Not what they advertised for. Thats not the main issue with me , here is the issue ; a guy that lives there for some time now came up behind my wife and grabbed her butt and pulled her towards him and she screamed for me and I came outside and ran him off, we called the office and 30 minutes later the lady for the office came asked if we were okay then left, an hour or so later the same guy was hiding behind a car and once I walk inside he came out from behind the car and charged at her again. I again ran him off and contacted the office and that time there were neighbors outside that saw this happen and we all ran him off and found out the room number he was in. The next day we requested to talk with management and the manager (general manager) came to talk with us and states hes no harm , hes harmless and I stated no; grabbing a female the way he did is not harmless . She offered to move us to another room and the room she wanted...Ok , where to start.. I work for the United State Government and had to be relocated to California, I found this Red Roof location on Craigslist as they were advertising for $199.00 a week, when I got there it was $305 and some change. Not what they advertised for. Thats not the main issue with me , here is the issue ; a guy that lives there for some time now came up behind my wife and grabbed her butt and pulled her towards him and she screamed for me and I came outside and ran him off, we called the office and 30 minutes later the lady for the office came asked if we were okay then left, an hour or so later the same guy was hiding behind a car and once I walk inside he came out from behind the car and charged at her again. I again ran him off and contacted the office and that time there were neighbors outside that saw this happen and we all ran him off and found out the room number he was in. The next day we requested to talk with management and the manager (general manager) came to talk with us and states hes no harm , hes harmless and I stated no; grabbing a female the way he did is not harmless . She offered to move us to another room and the room she wanted to move us to was nasty, bug infested and was a downgrade from the room we were in. I asked why cant you have him leave as it states in the contract that if someone causes problems they would have to leave,  she states she cant make him leave because she would have to evict him. So we stayed in the room and at that time I missed 2 days of work due to safety concerns. The following day the same guy came back with his hands in his pants being very provocative towards my wife and at that time security was on site and saw him and advised the office to call the cops and the office didnt want to so we did. They orderd the guy to not contact us in anyways and theres still pending charges. The office faild to protect us by allowing someone like this stay there. This is not his first time doing this to people and the office knows this as 2 (nice) people that work there and a security guard advised us that management will not do a thing and this guy has set fires to cars, and chasing females around the hotel . This is not a safe place in my eyes. I will be filing a lawsuit and thought its best to tell everyone whats going on there. I also recorded some of this guys actions as he charged at a 65 year old ladtyand I had to stop him, I showed the office that video and they did nothing to protect anyone! The older lady left and found a safer place to stay. As of now my wife are on a do not rent to list because we called the cops and I recored that conversation I had with management to prove what they are doing. ALSO , they say pets stay free and thats not true! The place has bugs, has people outside drinking at night, guys chasing females around that they dont know, office staff that will not help protect there guest and the list goes on! I am reporting this red roof inn to local, state and federal agencies.  Protect yourself and family and find another hotel!! I have 10 statements from other guest at this location , recorded events of the way management lies and what they have said, recorded actions of this creepy guy and a police report.  This report will be posted to every hotel and travel sites in the United States!  We have also been pointed to many other families that has had similar situations as this and if I have to I will help file a class action lawsuit!More</t>
   </si>
   <si>
+    <t>Caroline N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r184703352-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1928,6 +2156,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Monica62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r183456211-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1955,6 +2186,9 @@
     <t>We selected a remodeled room with a king size bed and arrived and the room was ready.  Check in was quick and easy but not much provided other than key.  We quickly found the room and brought our luggage upstairs.  The room did have newer carpet and new bedding along with new furniture.  They did a partial remodel with not updating outlets or scrapping ceiling and other minor details which would help the room so much.  The room was quiet and we did not have any issues with noise or other guests.  Our major surprise was the amount of people that actually LIVE there.  We must have been close to the laundry room because everyone was cleaning clothes.  All of the long stay guest were friendly and did not cause problems but everyone that we came in contact with LIVED THERE.  We went to turn in our room key and there was another long term guest that was discussing their plans of furniture placement within their room and other minor details regarding their long term stay.  I was just surprised as I was unaware that this was a motel that provided room rentals by the month.  Would I recommend this motel as a mother traveling with young kids no.  Would you be fine for a quick just sleeping night since it is right off the freeway, yes.More</t>
   </si>
   <si>
+    <t>Balasaheb K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r180485423-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1976,6 +2210,9 @@
     <t>Stayed at the hotel in August 2013.Room design is minimalist , functional and slightly small.Room had a coffee machine, Bathroom was well sized and modern.Breakfast was excellent,with the dining area large and spacious.The spread and items on the menu were excellent.The service was good, Other than that the breakfast was the high light of the stay.The hotel though is well away from the city center and it really is very quite and lonely at night.This hotel is an excellent combination of facilities, value. To stay in an equivalent hotel in the LA, probably cost also good for all, Some reviewers have said there's not much good but it is good.This hotel has many positive aspects that make it one of my favorite hotels. Modern decor Very relaxing, refreshing and a great way to start or end your busy day of sightseeing in LA. Wi-Fi is free. They have onsite parking but. The breakfast is also good! pool is also good.Cons: Slow WiFi in rooms.  Overall - great value.More</t>
   </si>
   <si>
+    <t>RayManhattan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r178639657-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2000,6 +2237,9 @@
     <t>I stayed here for a bit of time before this month. Even Even though there rooms need to be upgraded it was very pet friendly. Once there was a change in ownership and policy there pet friendliness when down the ugly toilettes that are there. I spent alot of money there but was not shown customer satisfaction in return. I even wrote to the GM with my complaints and my dissatisfaction with my last stay. I never got a response back. How sad. Ill never go back there. A lot of nicer places in San Dimas, CAMore</t>
   </si>
   <si>
+    <t>paula g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r177714178-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2024,6 +2264,9 @@
     <t>stayed a month at this location in room 135 I think it was ...its on main floor at the end of parking lot on the corner...was nice room ..could smoke outside my room on a concrete low fence they have nice pool area ..the hot tub wasn't very hot not sure why ...staff in lobby not so friendly but the housekeeping staff are always full of smiles...would stay there again...only negative was the laundry room was on second floor far away from my room.. and the ice machines were empty quite often.. Sizzler is right near it and kfc and mcD'sMore</t>
   </si>
   <si>
+    <t>mcdeel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r177403650-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2051,6 +2294,9 @@
     <t>We had a quick weekend trip this past weekend and stayed at this motel.  Overall, the property is tired but okay for the price.  My pet peeve is always bed comfort, the beds were horrible, hard as a rock.  The room did have a big screen TV but the reception was snowy.  The bathroom was old and tired and well past the point of a remodel.  Overall the room was clean and probably worth the price.  The location is great, right next to sit down and fast food restaurants.  I did use the pool, it was refreshing, I was the only one there.  The landscaping is nice since the property is older, it is very full grown.  I think a bit of TLC to the property would make a huge difference and new beds are in order.  There is also no elevator for the public to use.  My old knees had to suffer the stairs all weekend.More</t>
   </si>
   <si>
+    <t>SKSA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r177175538-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2075,6 +2321,9 @@
     <t>From my call to confirm my reservation, I was already impressed with this hotel. Very professional &amp; welcoming staff. I booked through a discount site, so at some hotels, I have been treated "differently". The staff was kind &amp; helpful &amp; assured me I would have a no-smoking room and added a nice up-grade for good measure. Check in was a breeze, and my room was clean, cozy bed, comfortable &amp; well-equipped. (and quiet). Great location near lots of restaurants &amp; shopping, free &amp; safe parking, too.I will definately be returning to this hotel! Many thanks! I could have stayed a week.More</t>
   </si>
   <si>
+    <t>frank c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r175029631-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2117,6 +2366,9 @@
     <t>I travel alot for business and stay in various levels of hotels/motels about 20 days a month! As a TV Reporter, I like to give an honest opinion. I have stayed at the Red Roof San Dimas many many times since 2007. I actually will go out of my way to  stay there for both business or leisure! I have always found the front desk girls to be so warm and welcoming. I have never had a bad experience and they are always cheerful and helpful. In fact Lydia is one of the few desk clerks I remember from all my travels. She is just awesome! She may not always remember my name but she knows when she see's me and my four legged travel companion - my labrador, I am the CNN reporter! I never seen any male desk clerks in person but once spoke to a man on the phone and he was very pleasant. The rooms are always clean and fresh. Always clean sheets, towels and comfortable beds. The grounds are kept clean and inviting. I never have heard any disturbances or noises of any kind! In fact I find the property, the staff and the total experience to be that of a 4-5 star property! The internet, which is very important for me, is always excellent. San Dimas is a very clean, safe area/city/location to stay in and I feel very very safe there! If you...I travel alot for business and stay in various levels of hotels/motels about 20 days a month! As a TV Reporter, I like to give an honest opinion. I have stayed at the Red Roof San Dimas many many times since 2007. I actually will go out of my way to  stay there for both business or leisure! I have always found the front desk girls to be so warm and welcoming. I have never had a bad experience and they are always cheerful and helpful. In fact Lydia is one of the few desk clerks I remember from all my travels. She is just awesome! She may not always remember my name but she knows when she see's me and my four legged travel companion - my labrador, I am the CNN reporter! I never seen any male desk clerks in person but once spoke to a man on the phone and he was very pleasant. The rooms are always clean and fresh. Always clean sheets, towels and comfortable beds. The grounds are kept clean and inviting. I never have heard any disturbances or noises of any kind! In fact I find the property, the staff and the total experience to be that of a 4-5 star property! The internet, which is very important for me, is always excellent. San Dimas is a very clean, safe area/city/location to stay in and I feel very very safe there! If you get a chance to visit old town, which is next to the INN, you will love it! Kinda of a Old West feel that is very cute and fun to see! The parking lot at Red Roof is quiet large, very easy to drive into and get back and forth between the car and the rooms. The grounds are lit well and the view from the front office enables the desk clerks to keep an eye on all that goes on! I feel very very safe parking my car or a rental car there. Most important I feel safe staying at the property itself. The parking lot, the property itself is  exteremly clean. It shows that the property manager has a professional expectation for all concern. The actual property is in a secluded corner of a small shopping area which keeps the riff raft and traffic noise away. The shopping area has a lot of food chains to walk too! On the main Boulevard-San Dimas Blvd, there are many types of restaurants and places to get either mexican, italian, chinese even Indian foods! It's a great location, very fresh and clean. I realize that they are now upgrading the rooms to their new look and I even consider the un-renovated rooms still to be in great shape! The Beds I have had where always the most comfortable and I do get a good nights sleep, which is good as I have a bad back. Each room has a microwave and fridge which is standard and they always work well. The television is large, great reception and had many many cable channels to select with wonderful reception. The vanity area is always immaculate and lots of counter space. The bathroom is always fresh and clean, never had a problem with the freshness of the towels, the room, the sheets etc. As far as noise, I never have heard any and never have seen any strange people staying or loitering there. In fact many guests over the years I have spoken to were very nice people just traveling the state. I feel any negative remarks made about the Inn, had to be from either people who are just hard to please types. You know the type, on a beer budget with champagne taste! If you need a good, clean, safe place to stay, where the only surprise will be how satisfied your stay has been,then pick this RedRoof. I think its an excellent, beautiful Inn and look forward to many more visits there!!More</t>
   </si>
   <si>
+    <t>Bev H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r174559352-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2141,6 +2393,9 @@
     <t>I think this is one of the best deals in San Dimas.  The room was clean, updated, comfortable.  It is superior to many of the places we have stayed in San Dimas.  The staff is friendly and the outside property well maintained.  No trash, cigarette butts, etc littering the grounds.  They allowed my pup to stay at no cost.  We had soap, shampoo, clean towels, coffee, Kleenex, etc AND they even had a bottle opener when I asked.  I guess we got the primo room because it certainly was not like anything that I read in some of the reviews. PLUS they even have a great poolMore</t>
   </si>
   <si>
+    <t>emililk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r170910919-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2165,6 +2420,9 @@
     <t>The room is not comfort.old inn not finish remodel.tv is super old not like the wedsite said LCd tv,bathroom is dirty,old ,shower is dirty,smell bad.The room is carpet is dirty,smell bad,have fly fly around .i booked is queen sz bed and the bed look like full sz.The front desk talk too fast and not so nice.The pool look nice.easy find parking ,close to fast food ,easy go to highway.But i will never go back to this inn.More</t>
   </si>
   <si>
+    <t>Never_Home_9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r165040847-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2192,6 +2450,9 @@
     <t>Spent 4 days here with group driving to LA Roadster Show at Fairplex.  Could drive to Fairplex without getting on a freeway, street it is located on goes directly to Fairplex.  Big Plus! Grounds of Hotel were pretty, pool active, and good service.  Did notice a larger than normal amount of guests that were long term and appeared to making the Hotel their temp home.  Rates were good for the area. Eating business was great within the area and ranged from fast food on up, again big plus!More</t>
   </si>
   <si>
+    <t>mb1993</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r160599252-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2219,6 +2480,9 @@
     <t>When traveling last weekend I needed a fairly cheap place to stay outside of LA. Booked a room at the Red Roof at a great price. Had a late check in and the front desk got me set up quickly with no problems. Room was clean and quiet, and the location is very accessible being right off the interstate. I would stay here again.More</t>
   </si>
   <si>
+    <t>Christine V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r153962941-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2270,6 +2534,9 @@
     <t>I want everyone to know that my son, two siberian huskies, and i needed a hotel to stay at for about 3 month. Luckily we found the Red Roof inn San Dimas. There was 3 girls that are working there that made our stay and just the stress of finding a place to except our 2 Huskies. I thank Kesey she is super cute and always has a smile that would brighten anyones day, Lydia very help full with making are stay very pleasant, and  Lisa doing her best to keeping things and smooth as possible. I also want to thank Jackie the GM she was super. At the time of me writing this review has spent days at about 8 other hotels and this is the one we love and will spend a month more till our new place in LA is ready. Also a lot of green space and walking trails right behind the building. Very peace full and pool and spa work great.More</t>
   </si>
   <si>
+    <t>memmt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r152737153-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2294,6 +2561,9 @@
     <t>It started off bad when we checked in around 6pm, we had requested a first floor room months ago as I can't do stairs.  The lady at the counter wasn't even apologetic and as we were talking, someone checked in next to us and got a ground floor room!  There is an elevator but you have to call ahead so someone with a key can meet you there to use it (completely useless). After getting up the stairs to our second story room we found the beds had not been made (no sheets) and bathtub was disgusting.  Back downstairs to talk to the lady who doesn't care.  She tells us we have to wait while they finish the room (hello? It's 6pm).  While waiting, we discovered one of the reasons the elevator is locked - there was a prostitute trolling the parking lot and hotel.  She made "rounds" every few hours the whole weekend we were there.   Back up the stairs to see our room...  Ewww!  Totally disgusting!  The carpet was black, the bathtub and bathroom were gross!  We only stayed at this hotel because it was the "host" hotel for an event - otherwise we would not have stayed a single day.  We kept all our belongings off the floor and bedspread!  Had to put a bag over the remote control to use it and didn't touch much of anything else.  Didn't even want to get near one of...It started off bad when we checked in around 6pm, we had requested a first floor room months ago as I can't do stairs.  The lady at the counter wasn't even apologetic and as we were talking, someone checked in next to us and got a ground floor room!  There is an elevator but you have to call ahead so someone with a key can meet you there to use it (completely useless). After getting up the stairs to our second story room we found the beds had not been made (no sheets) and bathtub was disgusting.  Back downstairs to talk to the lady who doesn't care.  She tells us we have to wait while they finish the room (hello? It's 6pm).  While waiting, we discovered one of the reasons the elevator is locked - there was a prostitute trolling the parking lot and hotel.  She made "rounds" every few hours the whole weekend we were there.   Back up the stairs to see our room...  Ewww!  Totally disgusting!  The carpet was black, the bathtub and bathroom were gross!  We only stayed at this hotel because it was the "host" hotel for an event - otherwise we would not have stayed a single day.  We kept all our belongings off the floor and bedspread!  Had to put a bag over the remote control to use it and didn't touch much of anything else.  Didn't even want to get near one of the pillows.  Gross! Gross! Gross!  The only pleasant thing I can say is that the water pressure was good.  I never did get to use that elevator.  This place is awful and you can tell they don't care.   I wouldn't let my dog stay here.More</t>
   </si>
   <si>
+    <t>Steve H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r150903361-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2321,6 +2591,9 @@
     <t>Kelsey,Is the greatest host! She took care of all my needs in a prompt manner.Always patient and willing to give a hand.She always has a smile,is very courteous,and very accommodating.She is definitely management material!  Lisa was also very good.More</t>
   </si>
   <si>
+    <t>Robin J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r148092289-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2342,6 +2615,9 @@
     <t>Kelsey, I have to say is one of the most sweetest, genuine people we encountered here. So helpful and wanted to ensure our room and stay was pleasant. It was for sure. Visiting California can be quite challenging.  Our first hotel in Pasadena suddenly was not available any more and we were on a hunt to find one that wasn't too far from our destination as well as clean, quiet, and friendly, we chose this one because of the great customer service. We were here for three nights, always clean, the grounds were nice, room was quiet and couldn't hear the freeway traffic either. Really liked Kelsey at the front desk, it's obvious she wants her customers to be treated well, this young lady deserves 5 stars!!More</t>
   </si>
   <si>
+    <t>Richard320</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r146369116-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2360,6 +2636,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>jasmine b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r144320244-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2384,6 +2663,9 @@
     <t>I love this hotel! JACKIE the new manager is amazing. I love all the front desk girls, Lydia, Lisa, Kelsey, Kelly, and Ana. The rooms closest to the lobby are my favorite. The housekeepers do a wonderful job at cleaning and stocking the rooms! I want to thank everyone there for taking such good care of me!More</t>
   </si>
   <si>
+    <t>jenn_vsqz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r133220958-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2408,6 +2690,9 @@
     <t>The rooms were dirty and stunk so bad! The security guard, sitting in the courtyard, said we would have been better off staying at the Motel 6 down the street!!!!! Will NEVER stay there again!!!More</t>
   </si>
   <si>
+    <t>Joy K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r132176614-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2433,6 +2718,9 @@
   </si>
   <si>
     <t>Our May 2012 stay at the Red Roof Inn San Dimas Ca was the worst stay that I have ever experienced in a hotel or motel. The first room that we where checked into had very very dirty carpet with stains of who knows what. The bathroom sink had 4 or 5 dead bugs and the handle connected to the shower wall had black meldew around both sides of the base. The edge of bathroom floor tiles looks like it has not been cleaned for quite sometime. The edges of the carpet was very dirty. And also when my wife turned on the air conditioner a large cloud of dust blown into my wife's eyes,nose and all over her face. We asked for a different room which was given to us by the manager, on this second room that we were in, the overhead light on the headboards were thick with dust and the light switches to turn them on had some type of a dry and crusty who knows what on them. The entry door to the bathroom had very dirty finger prints on both sides of the door which accommodated the rest of the dirt on both sides of the door, also the inside of the front door was very dirty and the bathroom tiles in this second room were no cleaner than the first room we where checked into. Also the air conditioner in the second room...Our May 2012 stay at the Red Roof Inn San Dimas Ca was the worst stay that I have ever experienced in a hotel or motel. The first room that we where checked into had very very dirty carpet with stains of who knows what. The bathroom sink had 4 or 5 dead bugs and the handle connected to the shower wall had black meldew around both sides of the base. The edge of bathroom floor tiles looks like it has not been cleaned for quite sometime. The edges of the carpet was very dirty. And also when my wife turned on the air conditioner a large cloud of dust blown into my wife's eyes,nose and all over her face. We asked for a different room which was given to us by the manager, on this second room that we were in, the overhead light on the headboards were thick with dust and the light switches to turn them on had some type of a dry and crusty who knows what on them. The entry door to the bathroom had very dirty finger prints on both sides of the door which accommodated the rest of the dirt on both sides of the door, also the inside of the front door was very dirty and the bathroom tiles in this second room were no cleaner than the first room we where checked into. Also the air conditioner in the second room was not working properly which took a long time to cool down the room. If you like antique furniture and dirty rooms for $82.74 a night wish you luck.....P.S. take your own cleaning supplies and disinfect the room and bathroom before you use it.More</t>
+  </si>
+  <si>
+    <t>Patrick F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r124841264-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
@@ -2468,6 +2756,9 @@
 And by the way, when I went down to the office to complain, they said the manager was not going to be there all day.  So they can charge my...The red roof inn website sait $59 per night for both nights.  I get there and they say that they are not going to honor that.  I am quoted a rate of $69 for the first night, then $59 for the next.  That stinks, but ok, I will deal with that this once.This is the part you need to look out for.  After they ran my card, everything seemed fine, but my bank called about a fraud alert. It  turns out they charged my DEBIT CARD for five transactions all totaling $415.54! Holy cow.  I have had bad experiences there before, but this is nuts.I have no idea what they expect to gain from this. An individual can get away with credit card fraud, but if this business thinks there is any way, I am not going to fight this, they are nuts.  Any by the way, if any of you are wondering, the charges were put on my card before I even stepped foot into my room.    There is no way this could be for anything I could possibly do.  So, if you do go to this hotel, use a credit card, so you can fight the charges without the money being frozen in your bank account.And by the way, when I went down to the office to complain, they said the manager was not going to be there all day.  So they can charge my card 5 times, yet they cannot do jack squat about it.More</t>
   </si>
   <si>
+    <t>Noodles913</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r124379465-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2498,6 +2789,9 @@
 The bathroom was very clean. It had a very nice marble vanity, sink, and lots of counter space. Showerhead was great and sits high which makes it nice for the taller people like my husband. Only thing I did not like was that there were no shelves inside...My husband and I recently stayed at this RR Inn for 4 days. We moved to this motel after a 2 week stay at Motel 6. I was a bit worried about staying here because of the reviews and the close proximity to the freeway but I figured anything had to be better than what my husband and I had just dealt with for the previous 2 weeks at the other place!! Check in was a breeze. Front desk girl was very friendly. The grounds were nicely well kept. The one side of the motel is pet friendly; I enjoyed walking by and seeing the kitty cats peeking out the windows of some rooms. I never saw any pet messes or trash. Ever.We stayed on the no pets side. Our first room was NICE!! It was located on the second floor inside the inner balcony, so we couldn't hear the freeway noise. It was very clean and smelled fine. It had a nice work station area with an office chair, plus another lounger type of chair in the corner. Also had a small fridge and a microwave and a coffee maker. The bathroom was very clean. It had a very nice marble vanity, sink, and lots of counter space. Showerhead was great and sits high which makes it nice for the taller people like my husband. Only thing I did not like was that there were no shelves inside the shower for us to put our shampoos, soap, etc.. on. And the lighting in the bathroom was rather dim. TV was huge! Air Conditioner/Heater worked great. Our first rooms sink and shower drains had a drainage problem, though, and needed repairs so the next day we had to move to another room. No problem...The RR Inn gave us an even BIGGER, nice corner room!!! The only gripes we had with this room was that it was on the outer balcony so we could hear the freeway noise a bit more. Also had the same dim lighting and no shelving in the bathroom. We could not get the room very dark because it had two windows; my husband wound up waking up way before he wanted to because the morning sunlight would shine in. Not sure if the room just needs new blackout drapes or??  Still a very nice room though!!! I like the little lights above the bed for reading. Our housekeeper, Ampon, was a total sweetheart!! She gave us all brand new towels and extra coffee because I had left the others behind in the other room. I asked for extra towels and she gave me those too!! My husband needed kleenex and she gave us an extra pack "just in case" he might need it. (He did.)Both beds in both rooms were very comfy Kings. There was lots of pillows tossed on top. Hubby and I woke up without backaches, thank goodness!! Free internet worked great!! A much appreciated novelty to have for us as we do all of our work from our computers.Pool and jacuzzi area were nice and clean. I used the jacuzzi...it felt so lovely on a sore back! Note to management: The bubblers on your jacuzzi are not working right and when they get turned on, they shoot a lot of water out of the jacuzzi and onto the deck.I will be coming back soon to San Dimas and I will definitely be choosing this RR Inn as my home base. For $14-$17 a night more than the Motel 6, you get much better accommodations, free internet, coffee, microwave, fridge, bigger, more comfier beds, and a jacuzzi. My only wish and hope is that they get a weekly rate going to make the cost a bit easier on my pocketbook. ☺More</t>
   </si>
   <si>
+    <t>Carolyn D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r123325717-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2525,6 +2819,9 @@
     <t>We stayed for a week because we were locked in. I asked for an extra blanket-it was full of cuts and old and hard. I wouldn't give it to my dog! The bedspread -cigarette hole. One mattress was all springs. Dirty carpet. Smelly room. YUCK! Not what it was built up to be by any means.More</t>
   </si>
   <si>
+    <t>Fabrice F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r119163335-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2552,6 +2849,9 @@
     <t>we booked 2 rooms at this hotel, oh my they allow dogs on the property but no one cleans up the dog's mess. 50 character is not enough space, how about this i would never stay at this hotel ever again.More</t>
   </si>
   <si>
+    <t>chapguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r118034452-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2579,6 +2879,9 @@
     <t>I stayed here for five nights and had a wonderful experience. Staff was courteous and helpful and the room was very nice. Nicely landscaped interior courtyard and within walking distance to restaurants and shopping. Would gladly stay here again.More</t>
   </si>
   <si>
+    <t>Bayardo D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r117195479-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2600,6 +2903,9 @@
     <t>I stayed for 28 days, very friendly-family oriented facility. Staff is very professional, courteous and with knowledge, specially Ana, one of the receptionist. Facility is clean adn close to almost anything in town. Obviously, I shall return.More</t>
   </si>
   <si>
+    <t>4THESTARINU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r114687106-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2627,6 +2933,9 @@
     <t>I have done a lot of traveling and stayed at numerous motels.  However, I have never been more pleased with a property as I was with the Red Roof Inn, San Dimas, CA.   In fact, when I am in California, I often request business assignments that will enable me to stay at this location.  The Staff, Linda, Wendy, Lydia and Anna, are  the most organized and knowledgeable employees I have ever met, each with a uniform set of company values that make your check-in fast and efficient.  The rooms are very clean and well spaced.  The grounds are well maintained.  The pool and jacuzzi are placed in the center of the property which make them easily accessible to all.  And for you business folks, the property has two, very nice conference areas.The property sits conveniently within an 1/8 mile of 2 major freeways which makes traveling easy.  There are plenty of stores, restaurants and CHEAP GAS within walking distance, and the staff will let you know about local attractions and events as Lydia has done for me on countless occasions.  This property truly rivals the best Hotels in Quality and Service, but beats them "hands down" on PRICE!  I have recommended this property to my job and others and now have the privilege of recommending it to you.Thanks again to the RED ROOF INN!More</t>
   </si>
   <si>
+    <t>sanstokes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r91230140-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2654,6 +2963,9 @@
     <t>Traveling for the Holidays with family. Booked 3 nights here. We lasted one night, the roaches, strange characters hanging around outside, rooms (we changed rooms twice) smell like a gym; made us decide to leave. Went a few blocks away to a Motel 6 that was clean, safe and the staff was great. Difference in price $1 a night!   This Red Roof Inn should be avoided.More</t>
   </si>
   <si>
+    <t>aztravelinfam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r77025614-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2672,6 +2984,9 @@
     <t>Wow! Where do I begin. I've stayed at many Red Roof Inns but this one was by far the worst.Part of the motel is extended stay. People would stand outside of their doors and congregate together like a big block party. We felt very unsafe and on the second day of our stay we saw two police cars at the hotel surrounded by a crowd of the hotel guests. The rooms were dirty and smelled old and musty. The front desk staff were friendly as well as housekeeping but that just doesn't make up for the shady guests staying at the extended stay part of the hotel. I definitely would not stay at this hotel again. More</t>
   </si>
   <si>
+    <t>cantcme</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r63223460-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2693,6 +3008,9 @@
     <t>what more can i really say. this hotel is great for the price i paid. I had a great room with 2 beds and a large tub. i believe my room was 240. both beds were comfortable and the cable TV and mini fridge added to my comfort. the check in clerk Lisa was awsome. she was very friendly, and willing to help me if i needed antthing. she even called my room to make sure i had what i needed. later that evening, my spouse and i went into the spa, and there were a handful of kids making noise. Lisa came out and get rid of them so we could have a relaxing time. In the morning we both went into the lobby where there was coffee. there machine wasen't on but the staff had fresh brewed coffee there for all gst. can complain when its coffee right. hahaha. at check out time, Wendy was also very friendly. she reviewed my bill, asked if everything was ok. she also asked if i wanted to make another reservation for a future date. I told her i wasn't sure when i was coming back but i took a business card of the GM and assured her that i will be back a later time, which i plan to in july. Thanks Red Roof Inn of San Dimas.More</t>
   </si>
   <si>
+    <t>Sweetcheeks215</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r60040405-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2711,6 +3029,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>Frankiezyx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r28281326-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2727,6 +3048,9 @@
   </si>
   <si>
     <t>April 2009</t>
+  </si>
+  <si>
+    <t>SLOtwin</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r5313145-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
@@ -2747,6 +3071,9 @@
   <si>
     <t>Check-in was 2pm. We arrived at 2:45 on Friday afternoon 5/12/06 to get cleaned up for a school program. A gal in the lobby was being told her room wouldn't be ready until 4pm, and she had been told she could get in at 1pm because she was getting married and had her wedding dress in the car.  She needed to go to the airport to p/u guests and many errands to run.  Naturally, she was upset about the delay. The clerk spoke to Housekeeping and was told they’d hurry.
 The Motel Clerk then said OUR room wouldn't be ready until 4 but they'd upgrade us and rush to get us in by 3:45.   NOT!!   We waited in the car. Then she said our room would be ready by 4:15--NOT!  Said ready by 4:30--NOT!!  Got run-around.  We tried to get a room at the motels a block away, but they were full.  Gave up in frustration.  After 2 hours of sitting in the car, we left @ 4:45 to take shower at relatives house down the freeway.  Crummy deal.  Got back at midnight and checked in at Red Roof.  We indeed had a “suite” but it was actually 1 big room w/half wall divider. Our 'no smoking' room smelled of stale cigarette smoke and the bed was terrible (room 237).  The ad says ‘remodeled rooms’ but it was not impressive.  At least the bed was clean.  All they made were...Check-in was 2pm. We arrived at 2:45 on Friday afternoon 5/12/06 to get cleaned up for a school program. A gal in the lobby was being told her room wouldn't be ready until 4pm, and she had been told she could get in at 1pm because she was getting married and had her wedding dress in the car.  She needed to go to the airport to p/u guests and many errands to run.  Naturally, she was upset about the delay. The clerk spoke to Housekeeping and was told they’d hurry.The Motel Clerk then said OUR room wouldn't be ready until 4 but they'd upgrade us and rush to get us in by 3:45.   NOT!!   We waited in the car. Then she said our room would be ready by 4:15--NOT!  Said ready by 4:30--NOT!!  Got run-around.  We tried to get a room at the motels a block away, but they were full.  Gave up in frustration.  After 2 hours of sitting in the car, we left @ 4:45 to take shower at relatives house down the freeway.  Crummy deal.  Got back at midnight and checked in at Red Roof.  We indeed had a “suite” but it was actually 1 big room w/half wall divider. Our 'no smoking' room smelled of stale cigarette smoke and the bed was terrible (room 237).  The ad says ‘remodeled rooms’ but it was not impressive.  At least the bed was clean.  All they made were promises and they didn't have the staff to clean the rooms from people staying on a Thursday night.  Would not go back.   We're going to San Dimas again this week and we're NOT staying at the Red Roof Inn.More</t>
+  </si>
+  <si>
+    <t>Ostara864</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d80742-r1624111-Red_Roof_Inn_San_Dimas_Fairplex-San_Dimas_California.html</t>
@@ -3277,43 +3604,47 @@
       <c r="A2" t="n">
         <v>2013</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3331,56 +3662,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2013</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3392,47 +3727,51 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2013</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
@@ -3449,56 +3788,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2013</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3516,56 +3859,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2013</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -3585,50 +3932,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>2013</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3640,56 +3991,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>2013</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>100</v>
       </c>
-      <c r="K8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>94</v>
-      </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3701,56 +4056,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>2013</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
         <v>110</v>
-      </c>
-      <c r="L9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>94</v>
-      </c>
-      <c r="O9" t="s">
-        <v>103</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3762,56 +4121,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>2013</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3823,56 +4186,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>2013</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -3890,56 +4257,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>2013</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3951,56 +4322,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>2013</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -4016,56 +4391,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>2013</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -4081,56 +4460,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>2013</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -4148,50 +4531,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>2013</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4209,56 +4596,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="X16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>2013</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4270,47 +4661,51 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>2013</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -4327,56 +4722,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="X18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>2013</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4388,56 +4787,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>2013</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4449,56 +4852,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>2013</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O21" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4510,56 +4917,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>2013</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4571,47 +4982,51 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="X22" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Y22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>2013</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>239</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
@@ -4628,56 +5043,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="X23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>2013</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>248</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="J24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4695,56 +5114,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="X24" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="Y24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>2013</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4760,56 +5183,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>2013</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4821,56 +5248,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="X26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="Y26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>2013</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="J27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="K27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4890,50 +5321,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>2013</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>282</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="J28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4951,56 +5386,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="X28" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="Y28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>2013</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>289</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="J29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="K29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="O29" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -5014,50 +5453,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>2013</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>296</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="J30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="K30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -5075,50 +5518,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>2013</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>303</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="J31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="K31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="O31" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5132,50 +5579,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>2013</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5189,50 +5640,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>2013</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>315</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="J33" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="K33" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="L33" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -5252,50 +5707,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>2013</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>322</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="J34" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="K34" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="L34" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -5315,50 +5774,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>2013</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>328</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="J35" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="K35" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="L35" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -5376,50 +5839,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>2013</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>334</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="J36" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="K36" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="O36" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5437,50 +5904,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>2013</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>341</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="J37" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="K37" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="L37" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="O37" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -5498,50 +5969,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>2013</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>348</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="J38" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="K38" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="O38" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5555,50 +6030,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>2013</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>354</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="J39" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5612,50 +6091,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>2013</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>361</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="J40" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="K40" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="O40" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5675,50 +6158,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>2013</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>368</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="J41" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="K41" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5730,56 +6217,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="X41" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="Y41" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>2013</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>378</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="J42" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="K42" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="L42" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5795,56 +6286,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="X42" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="Y42" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>2013</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>387</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="J43" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="K43" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="L43" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="O43" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5856,56 +6351,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="X43" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="Y43" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>2013</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>395</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="J44" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="K44" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="L44" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="O44" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5919,50 +6418,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>2013</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>402</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="J45" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="K45" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="L45" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="O45" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5978,56 +6481,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="X45" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="Y45" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>2013</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>409</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="J46" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="K46" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="L46" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="O46" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -6039,56 +6546,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="X46" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="Y46" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>2013</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>417</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="J47" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="K47" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="L47" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="O47" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -6106,50 +6617,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>2013</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>425</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="J48" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="K48" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="L48" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="O48" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -6161,56 +6676,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="X48" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="Y48" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>2013</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>432</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="J49" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="K49" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="L49" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6222,56 +6741,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="X49" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="Y49" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>2013</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>440</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="J50" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="K50" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="L50" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="O50" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6289,56 +6812,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="X50" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="Y50" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>2013</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>448</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="J51" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="K51" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="L51" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="O51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6356,56 +6883,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="X51" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="Y51" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>2013</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>458</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="J52" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="K52" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="L52" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="O52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6423,47 +6954,51 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="X52" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="Y52" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>2013</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>467</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="J53" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="K53" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="L53" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
@@ -6480,47 +7015,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="X53" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="Y53" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>2013</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>476</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="J54" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="K54" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="L54" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -6537,56 +7076,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="X54" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="Y54" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>2013</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>170</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="J55" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="K55" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="L55" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="O55" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6598,56 +7141,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="X55" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="Y55" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>2013</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>490</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="J56" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="K56" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="L56" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6659,56 +7206,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="X56" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="Y56" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>2013</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>500</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="J57" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="K57" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="L57" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="O57" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6726,56 +7277,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="X57" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="Y57" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>2013</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>509</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="J58" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="K58" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="L58" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="O58" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6793,56 +7348,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="X58" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="Y58" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>2013</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>519</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="J59" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="K59" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="L59" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="O59" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6860,47 +7419,51 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="X59" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="Y59" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>2013</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>529</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="J60" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="K60" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="L60" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
@@ -6927,56 +7490,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="X60" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="Y60" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>2013</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>536</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="J61" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="K61" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="L61" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="O61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6994,56 +7561,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="X61" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="Y61" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>2013</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>545</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="J62" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="K62" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="L62" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="O62" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -7061,47 +7632,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="X62" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="Y62" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>2013</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>555</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="J63" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="K63" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
       <c r="L63" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -7128,56 +7703,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="X63" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="Y63" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>2013</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>564</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="J64" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="K64" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
       <c r="L64" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7195,47 +7774,51 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="X64" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="Y64" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>2013</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>572</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>511</v>
+        <v>573</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="J65" t="s">
-        <v>513</v>
+        <v>575</v>
       </c>
       <c r="K65" t="s">
-        <v>514</v>
+        <v>576</v>
       </c>
       <c r="L65" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
@@ -7262,56 +7845,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>516</v>
+        <v>578</v>
       </c>
       <c r="X65" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="Y65" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>2013</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>581</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="J66" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
       <c r="K66" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="L66" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -7327,56 +7914,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="X66" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="Y66" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>2013</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>591</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="J67" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="K67" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="L67" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
       <c r="O67" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -7388,56 +7979,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="X67" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="Y67" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>2013</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>598</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="J68" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="K68" t="s">
-        <v>537</v>
+        <v>602</v>
       </c>
       <c r="L68" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
       <c r="O68" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7455,56 +8050,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
       <c r="X68" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="Y68" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>2013</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>608</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="J69" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="K69" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="L69" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="O69" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="n">
@@ -7522,47 +8121,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
       <c r="X69" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="Y69" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>2013</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>615</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>550</v>
+        <v>617</v>
       </c>
       <c r="J70" t="s">
-        <v>551</v>
+        <v>618</v>
       </c>
       <c r="K70" t="s">
-        <v>552</v>
+        <v>619</v>
       </c>
       <c r="L70" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
@@ -7589,56 +8192,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="X70" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="Y70" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>2013</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>624</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>557</v>
+        <v>625</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>558</v>
+        <v>626</v>
       </c>
       <c r="J71" t="s">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="K71" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="L71" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="O71" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7656,56 +8263,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="X71" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="Y71" t="s">
-        <v>565</v>
+        <v>633</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>2013</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>634</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="J72" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="K72" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="L72" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="O72" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7723,56 +8334,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="X72" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="Y72" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>2013</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>643</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="J73" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="K73" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="L73" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="O73" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7784,56 +8399,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="X73" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="Y73" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>2013</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>652</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>583</v>
+        <v>654</v>
       </c>
       <c r="J74" t="s">
-        <v>584</v>
+        <v>655</v>
       </c>
       <c r="K74" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
       <c r="L74" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="O74" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7855,56 +8474,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="X74" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="Y74" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>2013</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>662</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="J75" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="K75" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="L75" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7926,56 +8549,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>597</v>
+        <v>669</v>
       </c>
       <c r="X75" t="s">
-        <v>598</v>
+        <v>670</v>
       </c>
       <c r="Y75" t="s">
-        <v>599</v>
+        <v>671</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>2013</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>672</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="J76" t="s">
-        <v>602</v>
+        <v>675</v>
       </c>
       <c r="K76" t="s">
-        <v>603</v>
+        <v>676</v>
       </c>
       <c r="L76" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>605</v>
+        <v>678</v>
       </c>
       <c r="O76" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7997,56 +8624,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>606</v>
+        <v>679</v>
       </c>
       <c r="X76" t="s">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="Y76" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>2013</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>682</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>609</v>
+        <v>683</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>610</v>
+        <v>684</v>
       </c>
       <c r="J77" t="s">
-        <v>611</v>
+        <v>685</v>
       </c>
       <c r="K77" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
       <c r="L77" t="s">
-        <v>613</v>
+        <v>687</v>
       </c>
       <c r="M77" t="n">
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -8068,47 +8699,51 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="X77" t="s">
-        <v>616</v>
+        <v>690</v>
       </c>
       <c r="Y77" t="s">
-        <v>617</v>
+        <v>691</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>2013</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>692</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="J78" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="K78" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="L78" t="s">
-        <v>622</v>
+        <v>697</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
@@ -8135,56 +8770,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>623</v>
+        <v>698</v>
       </c>
       <c r="X78" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="Y78" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>2013</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>701</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="J79" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="K79" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="L79" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
       <c r="O79" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8208,50 +8847,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>2013</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>708</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
       <c r="J80" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="K80" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="L80" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="M80" t="n">
         <v>2</v>
       </c>
       <c r="N80" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="O80" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -8273,56 +8916,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="X80" t="s">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="Y80" t="s">
-        <v>640</v>
+        <v>717</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>2013</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>718</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="J81" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="K81" t="s">
-        <v>644</v>
+        <v>722</v>
       </c>
       <c r="L81" t="s">
-        <v>645</v>
+        <v>723</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
       <c r="O81" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -8344,47 +8991,51 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="X81" t="s">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="Y81" t="s">
-        <v>647</v>
+        <v>725</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>2013</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>726</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="J82" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
       <c r="K82" t="s">
-        <v>651</v>
+        <v>730</v>
       </c>
       <c r="L82" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
       <c r="M82" t="n">
         <v>2</v>
@@ -8411,56 +9062,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>653</v>
+        <v>732</v>
       </c>
       <c r="X82" t="s">
-        <v>654</v>
+        <v>733</v>
       </c>
       <c r="Y82" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>2013</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>735</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>656</v>
+        <v>736</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>657</v>
+        <v>737</v>
       </c>
       <c r="J83" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
       <c r="K83" t="s">
-        <v>659</v>
+        <v>739</v>
       </c>
       <c r="L83" t="s">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
       <c r="O83" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8482,56 +9137,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>661</v>
+        <v>741</v>
       </c>
       <c r="X83" t="s">
-        <v>662</v>
+        <v>742</v>
       </c>
       <c r="Y83" t="s">
-        <v>663</v>
+        <v>743</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>2013</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>744</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>664</v>
+        <v>745</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>665</v>
+        <v>746</v>
       </c>
       <c r="J84" t="s">
-        <v>666</v>
+        <v>747</v>
       </c>
       <c r="K84" t="s">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="L84" t="s">
-        <v>668</v>
+        <v>749</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="O84" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8553,56 +9212,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>670</v>
+        <v>751</v>
       </c>
       <c r="X84" t="s">
-        <v>671</v>
+        <v>752</v>
       </c>
       <c r="Y84" t="s">
-        <v>672</v>
+        <v>753</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>2013</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>754</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>673</v>
+        <v>755</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>674</v>
+        <v>756</v>
       </c>
       <c r="J85" t="s">
-        <v>675</v>
+        <v>757</v>
       </c>
       <c r="K85" t="s">
-        <v>676</v>
+        <v>758</v>
       </c>
       <c r="L85" t="s">
-        <v>677</v>
+        <v>759</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="O85" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8624,56 +9287,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>678</v>
+        <v>760</v>
       </c>
       <c r="X85" t="s">
-        <v>679</v>
+        <v>761</v>
       </c>
       <c r="Y85" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>2013</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>763</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>681</v>
+        <v>764</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>682</v>
+        <v>765</v>
       </c>
       <c r="J86" t="s">
-        <v>683</v>
+        <v>766</v>
       </c>
       <c r="K86" t="s">
-        <v>684</v>
+        <v>767</v>
       </c>
       <c r="L86" t="s">
-        <v>685</v>
+        <v>768</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8685,56 +9352,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>686</v>
+        <v>769</v>
       </c>
       <c r="X86" t="s">
-        <v>687</v>
+        <v>770</v>
       </c>
       <c r="Y86" t="s">
-        <v>688</v>
+        <v>771</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>2013</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>239</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>689</v>
+        <v>772</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>690</v>
+        <v>773</v>
       </c>
       <c r="J87" t="s">
-        <v>691</v>
+        <v>774</v>
       </c>
       <c r="K87" t="s">
-        <v>692</v>
+        <v>775</v>
       </c>
       <c r="L87" t="s">
-        <v>693</v>
+        <v>776</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8756,56 +9427,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>686</v>
+        <v>769</v>
       </c>
       <c r="X87" t="s">
-        <v>687</v>
+        <v>770</v>
       </c>
       <c r="Y87" t="s">
-        <v>694</v>
+        <v>777</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>2013</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>778</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>695</v>
+        <v>779</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>696</v>
+        <v>780</v>
       </c>
       <c r="J88" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="K88" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="L88" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
       <c r="O88" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8827,47 +9502,51 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>700</v>
+        <v>784</v>
       </c>
       <c r="X88" t="s">
-        <v>701</v>
+        <v>785</v>
       </c>
       <c r="Y88" t="s">
-        <v>702</v>
+        <v>786</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>2013</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>787</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>703</v>
+        <v>788</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>704</v>
+        <v>789</v>
       </c>
       <c r="J89" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="K89" t="s">
-        <v>706</v>
+        <v>791</v>
       </c>
       <c r="L89" t="s">
-        <v>707</v>
+        <v>792</v>
       </c>
       <c r="M89" t="n">
         <v>2</v>
@@ -8894,56 +9573,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>708</v>
+        <v>793</v>
       </c>
       <c r="X89" t="s">
-        <v>709</v>
+        <v>794</v>
       </c>
       <c r="Y89" t="s">
-        <v>710</v>
+        <v>795</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>2013</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>796</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>711</v>
+        <v>797</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>712</v>
+        <v>798</v>
       </c>
       <c r="J90" t="s">
-        <v>713</v>
+        <v>799</v>
       </c>
       <c r="K90" t="s">
-        <v>714</v>
+        <v>800</v>
       </c>
       <c r="L90" t="s">
-        <v>715</v>
+        <v>801</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>716</v>
+        <v>802</v>
       </c>
       <c r="O90" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8965,56 +9648,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>717</v>
+        <v>803</v>
       </c>
       <c r="X90" t="s">
-        <v>718</v>
+        <v>804</v>
       </c>
       <c r="Y90" t="s">
-        <v>719</v>
+        <v>805</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>2013</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>806</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>720</v>
+        <v>807</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>721</v>
+        <v>808</v>
       </c>
       <c r="J91" t="s">
-        <v>722</v>
+        <v>809</v>
       </c>
       <c r="K91" t="s">
-        <v>723</v>
+        <v>810</v>
       </c>
       <c r="L91" t="s">
-        <v>724</v>
+        <v>811</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>725</v>
+        <v>812</v>
       </c>
       <c r="O91" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9036,56 +9723,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>726</v>
+        <v>813</v>
       </c>
       <c r="X91" t="s">
-        <v>727</v>
+        <v>814</v>
       </c>
       <c r="Y91" t="s">
-        <v>728</v>
+        <v>815</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>2013</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>816</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>729</v>
+        <v>817</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>730</v>
+        <v>818</v>
       </c>
       <c r="J92" t="s">
-        <v>731</v>
+        <v>819</v>
       </c>
       <c r="K92" t="s">
-        <v>732</v>
+        <v>820</v>
       </c>
       <c r="L92" t="s">
-        <v>733</v>
+        <v>821</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>734</v>
+        <v>822</v>
       </c>
       <c r="O92" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9107,56 +9798,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>735</v>
+        <v>823</v>
       </c>
       <c r="X92" t="s">
-        <v>736</v>
+        <v>824</v>
       </c>
       <c r="Y92" t="s">
-        <v>737</v>
+        <v>825</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>2013</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>726</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>739</v>
+        <v>827</v>
       </c>
       <c r="J93" t="s">
-        <v>740</v>
+        <v>828</v>
       </c>
       <c r="K93" t="s">
-        <v>741</v>
+        <v>829</v>
       </c>
       <c r="L93" t="s">
-        <v>742</v>
+        <v>830</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>734</v>
+        <v>822</v>
       </c>
       <c r="O93" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9178,56 +9873,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>743</v>
+        <v>831</v>
       </c>
       <c r="X93" t="s">
-        <v>744</v>
+        <v>832</v>
       </c>
       <c r="Y93" t="s">
-        <v>745</v>
+        <v>833</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>2013</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>834</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>746</v>
+        <v>835</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>747</v>
+        <v>836</v>
       </c>
       <c r="J94" t="s">
-        <v>748</v>
+        <v>837</v>
       </c>
       <c r="K94" t="s">
-        <v>749</v>
+        <v>838</v>
       </c>
       <c r="L94" t="s">
-        <v>750</v>
+        <v>839</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>734</v>
+        <v>822</v>
       </c>
       <c r="O94" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -9249,56 +9948,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>751</v>
+        <v>840</v>
       </c>
       <c r="X94" t="s">
-        <v>752</v>
+        <v>841</v>
       </c>
       <c r="Y94" t="s">
-        <v>753</v>
+        <v>842</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>2013</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>843</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>754</v>
+        <v>844</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>755</v>
+        <v>845</v>
       </c>
       <c r="J95" t="s">
-        <v>756</v>
+        <v>846</v>
       </c>
       <c r="K95" t="s">
-        <v>757</v>
+        <v>847</v>
       </c>
       <c r="L95" t="s">
-        <v>758</v>
+        <v>848</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>759</v>
+        <v>849</v>
       </c>
       <c r="O95" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9320,56 +10023,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>760</v>
+        <v>850</v>
       </c>
       <c r="X95" t="s">
-        <v>761</v>
+        <v>851</v>
       </c>
       <c r="Y95" t="s">
-        <v>762</v>
+        <v>852</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>2013</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>853</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>763</v>
+        <v>854</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>764</v>
+        <v>855</v>
       </c>
       <c r="J96" t="s">
-        <v>765</v>
+        <v>856</v>
       </c>
       <c r="K96" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="L96" t="s">
-        <v>766</v>
+        <v>857</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>759</v>
+        <v>849</v>
       </c>
       <c r="O96" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9391,56 +10098,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>767</v>
+        <v>858</v>
       </c>
       <c r="X96" t="s">
-        <v>768</v>
+        <v>859</v>
       </c>
       <c r="Y96" t="s">
-        <v>769</v>
+        <v>860</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>2013</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>861</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>770</v>
+        <v>862</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>771</v>
+        <v>863</v>
       </c>
       <c r="J97" t="s">
-        <v>772</v>
+        <v>864</v>
       </c>
       <c r="K97" t="s">
-        <v>773</v>
+        <v>865</v>
       </c>
       <c r="L97" t="s">
-        <v>774</v>
+        <v>866</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>775</v>
+        <v>867</v>
       </c>
       <c r="O97" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -9464,50 +10175,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>774</v>
+        <v>866</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>2013</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>868</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>776</v>
+        <v>869</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>777</v>
+        <v>870</v>
       </c>
       <c r="J98" t="s">
-        <v>778</v>
+        <v>871</v>
       </c>
       <c r="K98" t="s">
-        <v>779</v>
+        <v>872</v>
       </c>
       <c r="L98" t="s">
-        <v>780</v>
+        <v>873</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>775</v>
+        <v>867</v>
       </c>
       <c r="O98" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9529,47 +10244,51 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>781</v>
+        <v>874</v>
       </c>
       <c r="X98" t="s">
-        <v>782</v>
+        <v>875</v>
       </c>
       <c r="Y98" t="s">
-        <v>783</v>
+        <v>876</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>2013</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>877</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>784</v>
+        <v>878</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>785</v>
+        <v>879</v>
       </c>
       <c r="J99" t="s">
-        <v>786</v>
+        <v>880</v>
       </c>
       <c r="K99" t="s">
-        <v>787</v>
+        <v>881</v>
       </c>
       <c r="L99" t="s">
-        <v>788</v>
+        <v>882</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
@@ -9596,56 +10315,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>789</v>
+        <v>883</v>
       </c>
       <c r="X99" t="s">
-        <v>790</v>
+        <v>884</v>
       </c>
       <c r="Y99" t="s">
-        <v>791</v>
+        <v>885</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>2013</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>886</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>792</v>
+        <v>887</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>793</v>
+        <v>888</v>
       </c>
       <c r="J100" t="s">
-        <v>794</v>
+        <v>889</v>
       </c>
       <c r="K100" t="s">
-        <v>795</v>
+        <v>890</v>
       </c>
       <c r="L100" t="s">
-        <v>796</v>
+        <v>891</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
       <c r="N100" t="s">
-        <v>797</v>
+        <v>892</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="n">
         <v>1</v>
@@ -9667,56 +10390,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="X100" t="s">
-        <v>799</v>
+        <v>894</v>
       </c>
       <c r="Y100" t="s">
-        <v>800</v>
+        <v>895</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>2013</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>896</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>801</v>
+        <v>897</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>802</v>
+        <v>898</v>
       </c>
       <c r="J101" t="s">
-        <v>803</v>
+        <v>899</v>
       </c>
       <c r="K101" t="s">
-        <v>804</v>
+        <v>900</v>
       </c>
       <c r="L101" t="s">
-        <v>805</v>
+        <v>901</v>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
       <c r="N101" t="s">
-        <v>806</v>
+        <v>902</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="n">
         <v>1</v>
@@ -9738,56 +10465,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>807</v>
+        <v>903</v>
       </c>
       <c r="X101" t="s">
-        <v>808</v>
+        <v>904</v>
       </c>
       <c r="Y101" t="s">
-        <v>809</v>
+        <v>905</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>2013</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>906</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>810</v>
+        <v>907</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>811</v>
+        <v>908</v>
       </c>
       <c r="J102" t="s">
-        <v>812</v>
+        <v>909</v>
       </c>
       <c r="K102" t="s">
-        <v>813</v>
+        <v>910</v>
       </c>
       <c r="L102" t="s">
-        <v>814</v>
+        <v>911</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>806</v>
+        <v>902</v>
       </c>
       <c r="O102" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -9809,56 +10540,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>815</v>
+        <v>912</v>
       </c>
       <c r="X102" t="s">
-        <v>816</v>
+        <v>913</v>
       </c>
       <c r="Y102" t="s">
-        <v>817</v>
+        <v>914</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>2013</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>915</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>818</v>
+        <v>916</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>819</v>
+        <v>917</v>
       </c>
       <c r="J103" t="s">
-        <v>820</v>
+        <v>918</v>
       </c>
       <c r="K103" t="s">
-        <v>821</v>
+        <v>919</v>
       </c>
       <c r="L103" t="s">
-        <v>822</v>
+        <v>920</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>823</v>
+        <v>921</v>
       </c>
       <c r="O103" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P103" t="n">
         <v>1</v>
@@ -9880,56 +10615,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>824</v>
+        <v>922</v>
       </c>
       <c r="X103" t="s">
-        <v>825</v>
+        <v>923</v>
       </c>
       <c r="Y103" t="s">
-        <v>826</v>
+        <v>924</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>2013</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>925</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>827</v>
+        <v>926</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>828</v>
+        <v>927</v>
       </c>
       <c r="J104" t="s">
-        <v>829</v>
+        <v>928</v>
       </c>
       <c r="K104" t="s">
-        <v>830</v>
+        <v>929</v>
       </c>
       <c r="L104" t="s">
-        <v>831</v>
+        <v>930</v>
       </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
       <c r="N104" t="s">
-        <v>832</v>
+        <v>931</v>
       </c>
       <c r="O104" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9951,56 +10690,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>833</v>
+        <v>932</v>
       </c>
       <c r="X104" t="s">
-        <v>834</v>
+        <v>933</v>
       </c>
       <c r="Y104" t="s">
-        <v>835</v>
+        <v>934</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>2013</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>935</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>836</v>
+        <v>936</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>837</v>
+        <v>937</v>
       </c>
       <c r="J105" t="s">
-        <v>838</v>
+        <v>938</v>
       </c>
       <c r="K105" t="s">
-        <v>839</v>
+        <v>939</v>
       </c>
       <c r="L105" t="s">
-        <v>840</v>
+        <v>940</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>841</v>
+        <v>941</v>
       </c>
       <c r="O105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -10020,56 +10763,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>842</v>
+        <v>942</v>
       </c>
       <c r="X105" t="s">
-        <v>843</v>
+        <v>943</v>
       </c>
       <c r="Y105" t="s">
-        <v>844</v>
+        <v>944</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>2013</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>945</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>845</v>
+        <v>946</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>846</v>
+        <v>947</v>
       </c>
       <c r="J106" t="s">
-        <v>847</v>
+        <v>948</v>
       </c>
       <c r="K106" t="s">
-        <v>848</v>
+        <v>949</v>
       </c>
       <c r="L106" t="s">
-        <v>849</v>
+        <v>950</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>850</v>
+        <v>951</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -10087,56 +10834,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>842</v>
+        <v>942</v>
       </c>
       <c r="X106" t="s">
-        <v>843</v>
+        <v>943</v>
       </c>
       <c r="Y106" t="s">
-        <v>851</v>
+        <v>952</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>2013</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>953</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>852</v>
+        <v>954</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>853</v>
+        <v>955</v>
       </c>
       <c r="J107" t="s">
-        <v>854</v>
+        <v>956</v>
       </c>
       <c r="K107" t="s">
-        <v>855</v>
+        <v>957</v>
       </c>
       <c r="L107" t="s">
-        <v>856</v>
+        <v>958</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>857</v>
+        <v>959</v>
       </c>
       <c r="O107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10154,56 +10905,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>858</v>
+        <v>960</v>
       </c>
       <c r="X107" t="s">
-        <v>859</v>
+        <v>961</v>
       </c>
       <c r="Y107" t="s">
-        <v>860</v>
+        <v>962</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>2013</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>963</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>861</v>
+        <v>964</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>862</v>
+        <v>965</v>
       </c>
       <c r="J108" t="s">
-        <v>863</v>
+        <v>966</v>
       </c>
       <c r="K108" t="s">
-        <v>864</v>
+        <v>967</v>
       </c>
       <c r="L108" t="s">
-        <v>865</v>
+        <v>968</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
       <c r="N108" t="s">
-        <v>866</v>
+        <v>969</v>
       </c>
       <c r="O108" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -10225,47 +10980,51 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>867</v>
+        <v>970</v>
       </c>
       <c r="X108" t="s">
-        <v>868</v>
+        <v>971</v>
       </c>
       <c r="Y108" t="s">
-        <v>869</v>
+        <v>972</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>2013</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>973</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>870</v>
+        <v>974</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>871</v>
+        <v>975</v>
       </c>
       <c r="J109" t="s">
-        <v>872</v>
+        <v>976</v>
       </c>
       <c r="K109" t="s">
-        <v>873</v>
+        <v>977</v>
       </c>
       <c r="L109" t="s">
-        <v>874</v>
+        <v>978</v>
       </c>
       <c r="M109" t="n">
         <v>2</v>
@@ -10294,50 +11053,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>875</v>
+        <v>979</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>2013</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>980</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>876</v>
+        <v>981</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>877</v>
+        <v>982</v>
       </c>
       <c r="J110" t="s">
-        <v>878</v>
+        <v>983</v>
       </c>
       <c r="K110" t="s">
-        <v>879</v>
+        <v>984</v>
       </c>
       <c r="L110" t="s">
-        <v>880</v>
+        <v>985</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>881</v>
+        <v>986</v>
       </c>
       <c r="O110" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -10361,50 +11124,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>882</v>
+        <v>987</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>2013</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>988</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>883</v>
+        <v>989</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>884</v>
+        <v>990</v>
       </c>
       <c r="J111" t="s">
-        <v>885</v>
+        <v>991</v>
       </c>
       <c r="K111" t="s">
-        <v>886</v>
+        <v>992</v>
       </c>
       <c r="L111" t="s">
-        <v>887</v>
+        <v>993</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>888</v>
+        <v>994</v>
       </c>
       <c r="O111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -10426,50 +11193,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>887</v>
+        <v>993</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>2013</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>995</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>889</v>
+        <v>996</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>890</v>
+        <v>997</v>
       </c>
       <c r="J112" t="s">
-        <v>891</v>
+        <v>998</v>
       </c>
       <c r="K112" t="s">
-        <v>892</v>
+        <v>999</v>
       </c>
       <c r="L112" t="s">
-        <v>893</v>
+        <v>1000</v>
       </c>
       <c r="M112" t="n">
         <v>3</v>
       </c>
       <c r="N112" t="s">
-        <v>894</v>
+        <v>1001</v>
       </c>
       <c r="O112" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P112" t="n">
         <v>4</v>
@@ -10493,41 +11264,45 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>893</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>2013</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1002</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>895</v>
+        <v>1003</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>896</v>
+        <v>1004</v>
       </c>
       <c r="J113" t="s">
-        <v>897</v>
+        <v>1005</v>
       </c>
       <c r="K113" t="s">
-        <v>898</v>
+        <v>1006</v>
       </c>
       <c r="L113" t="s">
-        <v>899</v>
+        <v>1007</v>
       </c>
       <c r="M113" t="n">
         <v>2</v>
@@ -10546,41 +11321,45 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>900</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>2013</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1009</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>901</v>
+        <v>1010</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>902</v>
+        <v>1011</v>
       </c>
       <c r="J114" t="s">
-        <v>903</v>
+        <v>1012</v>
       </c>
       <c r="K114" t="s">
-        <v>904</v>
+        <v>1013</v>
       </c>
       <c r="L114" t="s">
-        <v>905</v>
+        <v>1014</v>
       </c>
       <c r="M114" t="n">
         <v>2</v>
@@ -10599,7 +11378,7 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>906</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
